--- a/FreeFloat.xlsx
+++ b/FreeFloat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Patrick\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Patrick\Stock\Projek Saham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{873A648D-1976-4A7D-9AAE-04B2E2D05536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0966CDB-3240-449F-A5A0-323CB66DC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{D523F38E-A25F-44FA-BE25-79E8D72E6478}"/>
   </bookViews>
@@ -4606,7 +4606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4619,14 +4619,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4658,18 +4650,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4677,8 +4662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4994,7 +4978,7 @@
   <dimension ref="A1:B837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5008,7533 +4992,6695 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>178</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>194</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>196</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>198</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>208</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>216</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>218</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>224</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>228</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>230</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>232</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>234</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>236</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>238</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>242</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>244</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>246</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>248</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>250</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>252</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>254</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>256</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>260</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>262</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>264</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>266</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>268</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>270</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>272</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>276</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>278</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>280</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>282</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>283</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>285</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>287</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>289</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>291</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>297</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>299</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>303</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>305</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>307</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>309</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>311</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>313</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>315</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>317</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>321</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>323</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>325</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>327</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>329</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>333</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>335</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>337</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>338</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>340</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>342</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>344</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="1" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>346</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>348</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>350</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>351</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>353</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>355</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>357</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>359</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>361</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>362</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>364</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>366</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>368</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>370</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>372</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>374</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>376</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>378</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>380</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>382</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>384</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>386</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>388</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>390</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>392</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>394</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>396</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>397</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>399</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>401</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>402</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>404</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>406</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>408</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>410</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>411</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>413</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>415</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>416</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>418</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>420</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>422</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>424</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>426</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>428</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>430</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A224" s="2" t="s">
+      <c r="A224" t="s">
         <v>431</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>433</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>435</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="1" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>437</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>439</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>441</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>443</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>445</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>447</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>451</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="1" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>453</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>455</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>457</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>459</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>461</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>463</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="1" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>465</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>467</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>469</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>471</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>473</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>475</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="1" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>477</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>479</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="1" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A249" s="2" t="s">
+      <c r="A249" t="s">
         <v>481</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>483</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>485</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>487</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="1" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>489</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="1" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>491</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>493</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="1" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>495</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>497</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>499</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>501</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>502</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>504</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="1" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>506</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="1" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>508</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>510</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="1" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>512</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="1" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>514</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="1" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>516</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>518</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>519</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="1" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>520</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>522</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>523</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="1" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>525</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="1" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>526</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>528</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A276" s="2" t="s">
+      <c r="A276" t="s">
         <v>530</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="2" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>532</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="1" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>534</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>536</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>538</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>540</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>542</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="1" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>544</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>546</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="1" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>548</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>550</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="1" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>552</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>554</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>556</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>558</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>559</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>561</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="1" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>563</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>565</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="1" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>567</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="1" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>569</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="1" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>571</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="1" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>573</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>575</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="1" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>577</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="1" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A301" s="2" t="s">
+      <c r="A301" t="s">
         <v>579</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>581</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>583</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>584</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="1" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>586</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>588</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="1" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>590</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>592</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="1" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>594</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="1" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>596</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="1" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>598</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="1" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>600</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>602</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="1" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>604</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="1" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>606</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>608</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>610</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="1" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>612</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>614</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>616</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="1" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>618</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>620</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>622</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="1" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>624</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="1" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>626</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>628</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="1" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>630</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>632</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>634</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>636</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="1" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>638</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>640</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="1" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A333" s="2" t="s">
+      <c r="A333" t="s">
         <v>642</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="2" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>644</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="1" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>646</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>648</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="1" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>650</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="1" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>652</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="1" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>654</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="1" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>656</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="1" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>658</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="1" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>660</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="1" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>662</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="1" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>663</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="1" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>665</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="1" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>666</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="1" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>668</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>670</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>672</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>674</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="1" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>676</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>678</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>680</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>682</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>683</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="1" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>685</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="1" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>687</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>689</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="1" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>691</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>693</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>695</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>696</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>698</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>699</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>701</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="1" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>703</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>705</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" s="1" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>707</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="1" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>709</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" s="1" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>711</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="1" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>713</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="1" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>715</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="1" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>717</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="1" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>719</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="1" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>721</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>723</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="1" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>725</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="1" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>727</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>729</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="1" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A380" s="1" t="s">
+      <c r="A380" t="s">
         <v>731</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="1" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A381" s="1" t="s">
+      <c r="A381" t="s">
         <v>733</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A382" s="1" t="s">
+      <c r="A382" t="s">
         <v>735</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A383" s="1" t="s">
+      <c r="A383" t="s">
         <v>736</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="1" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A384" s="1" t="s">
+      <c r="A384" t="s">
         <v>738</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="1" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A385" s="1" t="s">
+      <c r="A385" t="s">
         <v>740</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="1" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A386" s="1" t="s">
+      <c r="A386" t="s">
         <v>742</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A387" s="1" t="s">
+      <c r="A387" t="s">
         <v>744</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="1" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A388" s="1" t="s">
+      <c r="A388" t="s">
         <v>746</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="1" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A389" s="1" t="s">
+      <c r="A389" t="s">
         <v>748</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="1" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A390" s="1" t="s">
+      <c r="A390" t="s">
         <v>750</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A391" s="1" t="s">
+      <c r="A391" t="s">
         <v>752</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" s="1" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A392" s="1" t="s">
+      <c r="A392" t="s">
         <v>754</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="1" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A393" s="1" t="s">
+      <c r="A393" t="s">
         <v>756</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A394" s="1" t="s">
+      <c r="A394" t="s">
         <v>758</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A395" s="1" t="s">
+      <c r="A395" t="s">
         <v>759</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A396" s="1" t="s">
+      <c r="A396" t="s">
         <v>760</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A397" s="1" t="s">
+      <c r="A397" t="s">
         <v>761</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A398" s="1" t="s">
+      <c r="A398" t="s">
         <v>762</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A399" s="1" t="s">
+      <c r="A399" t="s">
         <v>763</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A400" s="1" t="s">
+      <c r="A400" t="s">
         <v>764</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A401" s="1" t="s">
+      <c r="A401" t="s">
         <v>765</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A402" s="1" t="s">
+      <c r="A402" t="s">
         <v>766</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A403" s="1" t="s">
+      <c r="A403" t="s">
         <v>767</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A404" s="1" t="s">
+      <c r="A404" t="s">
         <v>768</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A405" s="1" t="s">
+      <c r="A405" t="s">
         <v>769</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A406" s="1" t="s">
+      <c r="A406" t="s">
         <v>770</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A407" s="1" t="s">
+      <c r="A407" t="s">
         <v>771</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A408" s="1" t="s">
+      <c r="A408" t="s">
         <v>772</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A409" s="1" t="s">
+      <c r="A409" t="s">
         <v>773</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A410" s="1" t="s">
+      <c r="A410" t="s">
         <v>774</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A411" s="1" t="s">
+      <c r="A411" t="s">
         <v>775</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A412" s="1" t="s">
+      <c r="A412" t="s">
         <v>776</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A413" s="1" t="s">
+      <c r="A413" t="s">
         <v>777</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A414" s="1" t="s">
+      <c r="A414" t="s">
         <v>778</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A415" s="1" t="s">
+      <c r="A415" t="s">
         <v>779</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A416" s="1" t="s">
+      <c r="A416" t="s">
         <v>780</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A417" s="1" t="s">
+      <c r="A417" t="s">
         <v>781</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A418" s="1" t="s">
+      <c r="A418" t="s">
         <v>782</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A419" s="1" t="s">
+      <c r="A419" t="s">
         <v>783</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A420" s="1" t="s">
+      <c r="A420" t="s">
         <v>785</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A421" s="1" t="s">
+      <c r="A421" t="s">
         <v>787</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A422" s="1" t="s">
+      <c r="A422" t="s">
         <v>788</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A423" s="1" t="s">
+      <c r="A423" t="s">
         <v>789</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A424" s="1" t="s">
+      <c r="A424" t="s">
         <v>791</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="1" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A425" s="1" t="s">
+      <c r="A425" t="s">
         <v>793</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" s="1" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A426" s="1" t="s">
+      <c r="A426" t="s">
         <v>795</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="1" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A427" s="1" t="s">
+      <c r="A427" t="s">
         <v>797</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" s="1" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A428" s="1" t="s">
+      <c r="A428" t="s">
         <v>798</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="1" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A429" s="1" t="s">
+      <c r="A429" t="s">
         <v>800</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="1" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A430" s="1" t="s">
+      <c r="A430" t="s">
         <v>801</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A431" s="1" t="s">
+      <c r="A431" t="s">
         <v>803</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="1" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A432" s="1" t="s">
+      <c r="A432" t="s">
         <v>805</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="1" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A433" s="1" t="s">
+      <c r="A433" t="s">
         <v>807</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="1" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A434" s="1" t="s">
+      <c r="A434" t="s">
         <v>809</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A435" s="1" t="s">
+      <c r="A435" t="s">
         <v>811</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="1" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A436" s="1" t="s">
+      <c r="A436" t="s">
         <v>813</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="1" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A437" s="1" t="s">
+      <c r="A437" t="s">
         <v>814</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="1" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A438" s="1" t="s">
+      <c r="A438" t="s">
         <v>816</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" s="1" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A439" s="1" t="s">
+      <c r="A439" t="s">
         <v>818</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" s="1" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A440" s="1" t="s">
+      <c r="A440" t="s">
         <v>820</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="1" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A441" s="1" t="s">
+      <c r="A441" t="s">
         <v>822</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" s="1" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A442" s="1" t="s">
+      <c r="A442" t="s">
         <v>824</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="1" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A443" s="1" t="s">
+      <c r="A443" t="s">
         <v>826</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="1" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A444" s="1" t="s">
+      <c r="A444" t="s">
         <v>828</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="1" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A445" s="1" t="s">
+      <c r="A445" t="s">
         <v>830</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" s="1" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A446" s="1" t="s">
+      <c r="A446" t="s">
         <v>832</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="1" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A447" s="1" t="s">
+      <c r="A447" t="s">
         <v>834</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="1" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A448" s="1" t="s">
+      <c r="A448" t="s">
         <v>836</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="1" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A449" s="1" t="s">
+      <c r="A449" t="s">
         <v>838</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" s="1" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A450" s="1" t="s">
+      <c r="A450" t="s">
         <v>840</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" s="1" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A451" s="1" t="s">
+      <c r="A451" t="s">
         <v>841</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" s="1" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A452" s="1" t="s">
+      <c r="A452" t="s">
         <v>843</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A453" s="1" t="s">
+      <c r="A453" t="s">
         <v>845</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="1" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A454" s="1" t="s">
+      <c r="A454" t="s">
         <v>847</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" s="1" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A455" s="1" t="s">
+      <c r="A455" t="s">
         <v>849</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B455" s="1" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A456" s="1" t="s">
+      <c r="A456" t="s">
         <v>851</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="1" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A457" s="1" t="s">
+      <c r="A457" t="s">
         <v>853</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" s="1" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A458" s="1" t="s">
+      <c r="A458" t="s">
         <v>854</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B458" s="1" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A459" s="1" t="s">
+      <c r="A459" t="s">
         <v>856</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B459" s="1" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A460" s="1" t="s">
+      <c r="A460" t="s">
         <v>858</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B460" s="1" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A461" s="1" t="s">
+      <c r="A461" t="s">
         <v>860</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="1" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A462" s="1" t="s">
+      <c r="A462" t="s">
         <v>862</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B462" s="1" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A463" s="1" t="s">
+      <c r="A463" t="s">
         <v>864</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="1" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A464" s="1" t="s">
+      <c r="A464" t="s">
         <v>866</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B464" s="1" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A465" s="1" t="s">
+      <c r="A465" t="s">
         <v>868</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B465" s="1" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A466" s="1" t="s">
+      <c r="A466" t="s">
         <v>870</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" s="1" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A467" s="1" t="s">
+      <c r="A467" t="s">
         <v>872</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" s="1" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A468" s="1" t="s">
+      <c r="A468" t="s">
         <v>874</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="1" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A469" s="1" t="s">
+      <c r="A469" t="s">
         <v>876</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="1" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A470" s="1" t="s">
+      <c r="A470" t="s">
         <v>878</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="1" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A471" s="1" t="s">
+      <c r="A471" t="s">
         <v>880</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A472" s="1" t="b">
+      <c r="A472" t="b">
         <v>1</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A473" s="1" t="s">
+      <c r="A473" t="s">
         <v>882</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A474" s="1" t="s">
+      <c r="A474" t="s">
         <v>883</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" s="1" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A475" s="1" t="s">
+      <c r="A475" t="s">
         <v>885</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="1" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A476" s="1" t="s">
+      <c r="A476" t="s">
         <v>887</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" s="1" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A477" s="1" t="s">
+      <c r="A477" t="s">
         <v>888</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" s="1" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A478" s="1" t="s">
+      <c r="A478" t="s">
         <v>889</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="1" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A479" s="1" t="s">
+      <c r="A479" t="s">
         <v>891</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B479" s="1" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A480" s="1" t="s">
+      <c r="A480" t="s">
         <v>893</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="B480" s="1" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A481" s="1" t="s">
+      <c r="A481" t="s">
         <v>895</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B481" s="1" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A482" s="1" t="s">
+      <c r="A482" t="s">
         <v>897</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B482" s="1" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A483" s="1" t="s">
+      <c r="A483" t="s">
         <v>899</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B483" s="1" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A484" s="1" t="s">
+      <c r="A484" t="s">
         <v>901</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B484" s="1" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A485" s="1" t="s">
+      <c r="A485" t="s">
         <v>903</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="1" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A486" s="1" t="s">
+      <c r="A486" t="s">
         <v>904</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="1" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A487" s="1" t="s">
+      <c r="A487" t="s">
         <v>906</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A488" s="1" t="s">
+      <c r="A488" t="s">
         <v>908</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B488" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A489" s="1" t="s">
+      <c r="A489" t="s">
         <v>910</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="1" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A490" s="1" t="s">
+      <c r="A490" t="s">
         <v>912</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="B490" s="1" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A491" s="1" t="s">
+      <c r="A491" t="s">
         <v>914</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="1" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A492" s="1" t="s">
+      <c r="A492" t="s">
         <v>916</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B492" s="1" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A493" s="1" t="s">
+      <c r="A493" t="s">
         <v>917</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B493" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A494" s="1" t="s">
+      <c r="A494" t="s">
         <v>919</v>
       </c>
-      <c r="B494" s="3" t="s">
+      <c r="B494" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A495" s="1" t="s">
+      <c r="A495" t="s">
         <v>920</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="1" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A496" s="1" t="s">
+      <c r="A496" t="s">
         <v>922</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="1" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A497" s="1" t="s">
+      <c r="A497" t="s">
         <v>924</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B497" s="1" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A498" s="1" t="s">
+      <c r="A498" t="s">
         <v>926</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="1" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A499" s="1" t="s">
+      <c r="A499" t="s">
         <v>928</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B499" s="1" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A500" s="1" t="s">
+      <c r="A500" t="s">
         <v>930</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B500" s="1" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A501" s="1" t="s">
+      <c r="A501" t="s">
         <v>932</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="1" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A502" s="1" t="s">
+      <c r="A502" t="s">
         <v>934</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B502" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A503" s="1" t="s">
+      <c r="A503" t="s">
         <v>936</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B503" s="1" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A504" s="1" t="s">
+      <c r="A504" t="s">
         <v>938</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="1" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A505" s="1" t="s">
+      <c r="A505" t="s">
         <v>940</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B505" s="1" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A506" s="1" t="s">
+      <c r="A506" t="s">
         <v>942</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="1" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A507" s="1" t="s">
+      <c r="A507" t="s">
         <v>944</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B507" s="1" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A508" s="1" t="s">
+      <c r="A508" t="s">
         <v>946</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="1" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A509" s="1" t="s">
+      <c r="A509" t="s">
         <v>948</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="1" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A510" s="1" t="s">
+      <c r="A510" t="s">
         <v>950</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="1" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A511" s="1" t="s">
+      <c r="A511" t="s">
         <v>952</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="1" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A512" s="1" t="s">
+      <c r="A512" t="s">
         <v>954</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="1" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A513" s="1" t="s">
+      <c r="A513" t="s">
         <v>956</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="1" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A514" s="1" t="s">
+      <c r="A514" t="s">
         <v>958</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B514" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A515" s="1" t="s">
+      <c r="A515" t="s">
         <v>960</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="1" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A516" s="1" t="s">
+      <c r="A516" t="s">
         <v>962</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B516" s="1" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A517" s="1" t="s">
+      <c r="A517" t="s">
         <v>964</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B517" s="1" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A518" s="1" t="s">
+      <c r="A518" t="s">
         <v>966</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B518" s="1" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A519" s="1" t="s">
+      <c r="A519" t="s">
         <v>968</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="1" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A520" s="1" t="s">
+      <c r="A520" t="s">
         <v>970</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B520" s="1" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A521" s="1" t="s">
+      <c r="A521" t="s">
         <v>972</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B521" s="1" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A522" s="1" t="s">
+      <c r="A522" t="s">
         <v>974</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="1" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A523" s="1" t="s">
+      <c r="A523" t="s">
         <v>976</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="B523" s="1" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A524" s="1" t="s">
+      <c r="A524" t="s">
         <v>978</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B524" s="1" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A525" s="1" t="s">
+      <c r="A525" t="s">
         <v>980</v>
       </c>
-      <c r="B525" s="3" t="s">
+      <c r="B525" s="1" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A526" s="1" t="s">
+      <c r="A526" t="s">
         <v>981</v>
       </c>
-      <c r="B526" s="3" t="s">
+      <c r="B526" s="1" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A527" s="1" t="s">
+      <c r="A527" t="s">
         <v>983</v>
       </c>
-      <c r="B527" s="3" t="s">
+      <c r="B527" s="1" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A528" s="1" t="s">
+      <c r="A528" t="s">
         <v>985</v>
       </c>
-      <c r="B528" s="3" t="s">
+      <c r="B528" s="1" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A529" s="1" t="s">
+      <c r="A529" t="s">
         <v>986</v>
       </c>
-      <c r="B529" s="3" t="s">
+      <c r="B529" s="1" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A530" s="1" t="s">
+      <c r="A530" t="s">
         <v>988</v>
       </c>
-      <c r="B530" s="3" t="s">
+      <c r="B530" s="1" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A531" s="1" t="s">
+      <c r="A531" t="s">
         <v>989</v>
       </c>
-      <c r="B531" s="3" t="s">
+      <c r="B531" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A532" s="1" t="s">
+      <c r="A532" t="s">
         <v>991</v>
       </c>
-      <c r="B532" s="3" t="s">
+      <c r="B532" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A533" s="1" t="s">
+      <c r="A533" t="s">
         <v>992</v>
       </c>
-      <c r="B533" s="3" t="s">
+      <c r="B533" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A534" s="1" t="s">
+      <c r="A534" t="s">
         <v>993</v>
       </c>
-      <c r="B534" s="3" t="s">
+      <c r="B534" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A535" s="1" t="s">
+      <c r="A535" t="s">
         <v>994</v>
       </c>
-      <c r="B535" s="3" t="s">
+      <c r="B535" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A536" s="1" t="s">
+      <c r="A536" t="s">
         <v>995</v>
       </c>
-      <c r="B536" s="3" t="s">
+      <c r="B536" s="1" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A537" s="1" t="s">
+      <c r="A537" t="s">
         <v>997</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B537" s="1" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A538" s="1" t="s">
+      <c r="A538" t="s">
         <v>999</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="B538" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A539" s="1" t="s">
+      <c r="A539" t="s">
         <v>1001</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="B539" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A540" s="1" t="s">
+      <c r="A540" t="s">
         <v>1003</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B540" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A541" s="1" t="s">
+      <c r="A541" t="s">
         <v>1005</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B541" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A542" s="1" t="s">
+      <c r="A542" t="s">
         <v>1007</v>
       </c>
-      <c r="B542" s="3" t="s">
+      <c r="B542" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A543" s="1" t="s">
+      <c r="A543" t="s">
         <v>1009</v>
       </c>
-      <c r="B543" s="3" t="s">
+      <c r="B543" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A544" s="1" t="s">
+      <c r="A544" t="s">
         <v>1010</v>
       </c>
-      <c r="B544" s="3" t="s">
+      <c r="B544" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A545" s="1" t="s">
+      <c r="A545" t="s">
         <v>1012</v>
       </c>
-      <c r="B545" s="3" t="s">
+      <c r="B545" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A546" s="1" t="s">
+      <c r="A546" t="s">
         <v>1014</v>
       </c>
-      <c r="B546" s="3" t="s">
+      <c r="B546" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A547" s="1" t="s">
+      <c r="A547" t="s">
         <v>1016</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="B547" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A548" s="1" t="s">
+      <c r="A548" t="s">
         <v>1018</v>
       </c>
-      <c r="B548" s="3" t="s">
+      <c r="B548" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A549" s="1" t="s">
+      <c r="A549" t="s">
         <v>1020</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B549" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A550" s="1" t="s">
+      <c r="A550" t="s">
         <v>1022</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B550" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A551" s="1" t="s">
+      <c r="A551" t="s">
         <v>1024</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B551" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A552" s="1" t="s">
+      <c r="A552" t="s">
         <v>1026</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B552" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A553" s="1" t="s">
+      <c r="A553" t="s">
         <v>1028</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B553" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A554" s="1" t="s">
+      <c r="A554" t="s">
         <v>1029</v>
       </c>
-      <c r="B554" s="3" t="s">
+      <c r="B554" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A555" s="1" t="s">
+      <c r="A555" t="s">
         <v>1031</v>
       </c>
-      <c r="B555" s="3" t="s">
+      <c r="B555" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A556" s="1" t="s">
+      <c r="A556" t="s">
         <v>1033</v>
       </c>
-      <c r="B556" s="3" t="s">
+      <c r="B556" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A557" s="1" t="s">
+      <c r="A557" t="s">
         <v>1035</v>
       </c>
-      <c r="B557" s="3" t="s">
+      <c r="B557" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A558" s="1" t="s">
+      <c r="A558" t="s">
         <v>1037</v>
       </c>
-      <c r="B558" s="3" t="s">
+      <c r="B558" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A559" s="1" t="s">
+      <c r="A559" t="s">
         <v>1039</v>
       </c>
-      <c r="B559" s="3" t="s">
+      <c r="B559" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A560" s="1" t="s">
+      <c r="A560" t="s">
         <v>1041</v>
       </c>
-      <c r="B560" s="3" t="s">
+      <c r="B560" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A561" s="1" t="s">
+      <c r="A561" t="s">
         <v>1043</v>
       </c>
-      <c r="B561" s="3" t="s">
+      <c r="B561" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A562" s="1" t="s">
+      <c r="A562" t="s">
         <v>1045</v>
       </c>
-      <c r="B562" s="3" t="s">
+      <c r="B562" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A563" s="1" t="s">
+      <c r="A563" t="s">
         <v>1047</v>
       </c>
-      <c r="B563" s="3" t="s">
+      <c r="B563" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A564" s="1" t="s">
+      <c r="A564" t="s">
         <v>1049</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B564" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A565" s="1" t="s">
+      <c r="A565" t="s">
         <v>1051</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="B565" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A566" s="1" t="s">
+      <c r="A566" t="s">
         <v>1053</v>
       </c>
-      <c r="B566" s="3" t="s">
+      <c r="B566" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A567" s="1" t="s">
+      <c r="A567" t="s">
         <v>1055</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B567" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A568" s="1" t="s">
+      <c r="A568" t="s">
         <v>1057</v>
       </c>
-      <c r="B568" s="3" t="s">
+      <c r="B568" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A569" s="1" t="s">
+      <c r="A569" t="s">
         <v>1059</v>
       </c>
-      <c r="B569" s="3" t="s">
+      <c r="B569" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A570" s="1" t="s">
+      <c r="A570" t="s">
         <v>1061</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B570" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A571" s="1" t="s">
+      <c r="A571" t="s">
         <v>1063</v>
       </c>
-      <c r="B571" s="3" t="s">
+      <c r="B571" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A572" s="1" t="s">
+      <c r="A572" t="s">
         <v>1065</v>
       </c>
-      <c r="B572" s="3" t="s">
+      <c r="B572" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A573" s="1" t="s">
+      <c r="A573" t="s">
         <v>1066</v>
       </c>
-      <c r="B573" s="3" t="s">
+      <c r="B573" s="1" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A574" s="1" t="s">
+      <c r="A574" t="s">
         <v>1068</v>
       </c>
-      <c r="B574" s="3" t="s">
+      <c r="B574" s="1" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A575" s="1" t="s">
+      <c r="A575" t="s">
         <v>1069</v>
       </c>
-      <c r="B575" s="3" t="s">
+      <c r="B575" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A576" s="1" t="s">
+      <c r="A576" t="s">
         <v>1071</v>
       </c>
-      <c r="B576" s="3" t="s">
+      <c r="B576" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A577" s="1" t="s">
+      <c r="A577" t="s">
         <v>1073</v>
       </c>
-      <c r="B577" s="3" t="s">
+      <c r="B577" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A578" s="1" t="s">
+      <c r="A578" t="s">
         <v>1075</v>
       </c>
-      <c r="B578" s="3" t="s">
+      <c r="B578" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A579" s="1" t="s">
+      <c r="A579" t="s">
         <v>1077</v>
       </c>
-      <c r="B579" s="3" t="s">
+      <c r="B579" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A580" s="1" t="s">
+      <c r="A580" t="s">
         <v>1079</v>
       </c>
-      <c r="B580" s="3" t="s">
+      <c r="B580" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A581" s="1" t="s">
+      <c r="A581" t="s">
         <v>1081</v>
       </c>
-      <c r="B581" s="3" t="s">
+      <c r="B581" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A582" s="1" t="s">
+      <c r="A582" t="s">
         <v>1083</v>
       </c>
-      <c r="B582" s="3" t="s">
+      <c r="B582" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A583" s="1" t="s">
+      <c r="A583" t="s">
         <v>1085</v>
       </c>
-      <c r="B583" s="3" t="s">
+      <c r="B583" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A584" s="1" t="s">
+      <c r="A584" t="s">
         <v>1087</v>
       </c>
-      <c r="B584" s="3" t="s">
+      <c r="B584" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A585" s="1" t="s">
+      <c r="A585" t="s">
         <v>1089</v>
       </c>
-      <c r="B585" s="3" t="s">
+      <c r="B585" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A586" s="1" t="s">
+      <c r="A586" t="s">
         <v>1090</v>
       </c>
-      <c r="B586" s="3" t="s">
+      <c r="B586" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A587" s="1" t="s">
+      <c r="A587" t="s">
         <v>1092</v>
       </c>
-      <c r="B587" s="3" t="s">
+      <c r="B587" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A588" s="1" t="s">
+      <c r="A588" t="s">
         <v>1094</v>
       </c>
-      <c r="B588" s="3" t="s">
+      <c r="B588" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A589" s="1" t="s">
+      <c r="A589" t="s">
         <v>1096</v>
       </c>
-      <c r="B589" s="3" t="s">
+      <c r="B589" s="1" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A590" s="1" t="s">
+      <c r="A590" t="s">
         <v>1098</v>
       </c>
-      <c r="B590" s="3" t="s">
+      <c r="B590" s="1" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A591" s="1" t="s">
+      <c r="A591" t="s">
         <v>1100</v>
       </c>
-      <c r="B591" s="3" t="s">
+      <c r="B591" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A592" s="1" t="s">
+      <c r="A592" t="s">
         <v>1102</v>
       </c>
-      <c r="B592" s="3" t="s">
+      <c r="B592" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A593" s="1" t="s">
+      <c r="A593" t="s">
         <v>1104</v>
       </c>
-      <c r="B593" s="3" t="s">
+      <c r="B593" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A594" s="1" t="s">
+      <c r="A594" t="s">
         <v>1106</v>
       </c>
-      <c r="B594" s="3" t="s">
+      <c r="B594" s="1" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A595" s="1" t="s">
+      <c r="A595" t="s">
         <v>1108</v>
       </c>
-      <c r="B595" s="3" t="s">
+      <c r="B595" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A596" s="1" t="s">
+      <c r="A596" t="s">
         <v>1110</v>
       </c>
-      <c r="B596" s="3" t="s">
+      <c r="B596" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A597" s="1" t="s">
+      <c r="A597" t="s">
         <v>1112</v>
       </c>
-      <c r="B597" s="3" t="s">
+      <c r="B597" s="1" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A598" s="1" t="s">
+      <c r="A598" t="s">
         <v>1114</v>
       </c>
-      <c r="B598" s="3" t="s">
+      <c r="B598" s="1" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A599" s="1" t="s">
+      <c r="A599" t="s">
         <v>1116</v>
       </c>
-      <c r="B599" s="3" t="s">
+      <c r="B599" s="1" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A600" s="1" t="s">
+      <c r="A600" t="s">
         <v>1118</v>
       </c>
-      <c r="B600" s="3" t="s">
+      <c r="B600" s="1" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A601" s="1" t="s">
+      <c r="A601" t="s">
         <v>1120</v>
       </c>
-      <c r="B601" s="3" t="s">
+      <c r="B601" s="1" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A602" s="1" t="s">
+      <c r="A602" t="s">
         <v>1122</v>
       </c>
-      <c r="B602" s="3" t="s">
+      <c r="B602" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A603" s="1" t="s">
+      <c r="A603" t="s">
         <v>1124</v>
       </c>
-      <c r="B603" s="3" t="s">
+      <c r="B603" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A604" s="1" t="s">
+      <c r="A604" t="s">
         <v>1126</v>
       </c>
-      <c r="B604" s="3" t="s">
+      <c r="B604" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A605" s="1" t="s">
+      <c r="A605" t="s">
         <v>1128</v>
       </c>
-      <c r="B605" s="3" t="s">
+      <c r="B605" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A606" s="1" t="s">
+      <c r="A606" t="s">
         <v>1130</v>
       </c>
-      <c r="B606" s="3" t="s">
+      <c r="B606" s="1" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A607" s="1" t="s">
+      <c r="A607" t="s">
         <v>1132</v>
       </c>
-      <c r="B607" s="3" t="s">
+      <c r="B607" s="1" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A608" s="1" t="s">
+      <c r="A608" t="s">
         <v>1134</v>
       </c>
-      <c r="B608" s="3" t="s">
+      <c r="B608" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A609" s="1" t="s">
+      <c r="A609" t="s">
         <v>1136</v>
       </c>
-      <c r="B609" s="3" t="s">
+      <c r="B609" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A610" s="1" t="s">
+      <c r="A610" t="s">
         <v>1138</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B610" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A611" s="1" t="s">
+      <c r="A611" t="s">
         <v>1139</v>
       </c>
-      <c r="B611" s="3" t="s">
+      <c r="B611" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A612" s="1" t="s">
+      <c r="A612" t="s">
         <v>1141</v>
       </c>
-      <c r="B612" s="3" t="s">
+      <c r="B612" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A613" s="1" t="s">
+      <c r="A613" t="s">
         <v>1142</v>
       </c>
-      <c r="B613" s="3" t="s">
+      <c r="B613" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A614" s="1" t="s">
+      <c r="A614" t="s">
         <v>1144</v>
       </c>
-      <c r="B614" s="3" t="s">
+      <c r="B614" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A615" s="1" t="s">
+      <c r="A615" t="s">
         <v>1146</v>
       </c>
-      <c r="B615" s="3" t="s">
+      <c r="B615" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A616" s="1" t="s">
+      <c r="A616" t="s">
         <v>1148</v>
       </c>
-      <c r="B616" s="3" t="s">
+      <c r="B616" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A617" s="1" t="s">
+      <c r="A617" t="s">
         <v>1150</v>
       </c>
-      <c r="B617" s="3" t="s">
+      <c r="B617" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A618" s="1" t="s">
+      <c r="A618" t="s">
         <v>1152</v>
       </c>
-      <c r="B618" s="3" t="s">
+      <c r="B618" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A619" s="1" t="s">
+      <c r="A619" t="s">
         <v>1154</v>
       </c>
-      <c r="B619" s="3" t="s">
+      <c r="B619" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A620" s="1" t="s">
+      <c r="A620" t="s">
         <v>1156</v>
       </c>
-      <c r="B620" s="3" t="s">
+      <c r="B620" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A621" s="1" t="s">
+      <c r="A621" t="s">
         <v>1157</v>
       </c>
-      <c r="B621" s="3" t="s">
+      <c r="B621" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A622" s="1" t="s">
+      <c r="A622" t="s">
         <v>1159</v>
       </c>
-      <c r="B622" s="3" t="s">
+      <c r="B622" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A623" s="1" t="s">
+      <c r="A623" t="s">
         <v>1161</v>
       </c>
-      <c r="B623" s="3" t="s">
+      <c r="B623" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A624" s="1" t="s">
+      <c r="A624" t="s">
         <v>1163</v>
       </c>
-      <c r="B624" s="3" t="s">
+      <c r="B624" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A625" s="1" t="s">
+      <c r="A625" t="s">
         <v>1165</v>
       </c>
-      <c r="B625" s="3" t="s">
+      <c r="B625" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A626" s="1" t="s">
+      <c r="A626" t="s">
         <v>1167</v>
       </c>
-      <c r="B626" s="3" t="s">
+      <c r="B626" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A627" s="1" t="s">
+      <c r="A627" t="s">
         <v>1169</v>
       </c>
-      <c r="B627" s="3" t="s">
+      <c r="B627" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A628" s="1" t="s">
+      <c r="A628" t="s">
         <v>1171</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="B628" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A629" s="1" t="s">
+      <c r="A629" t="s">
         <v>1173</v>
       </c>
-      <c r="B629" s="3" t="s">
+      <c r="B629" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A630" s="1" t="s">
+      <c r="A630" t="s">
         <v>1175</v>
       </c>
-      <c r="B630" s="3" t="s">
+      <c r="B630" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A631" s="1" t="s">
+      <c r="A631" t="s">
         <v>1177</v>
       </c>
-      <c r="B631" s="3" t="s">
+      <c r="B631" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A632" s="1" t="s">
+      <c r="A632" t="s">
         <v>1179</v>
       </c>
-      <c r="B632" s="3" t="s">
+      <c r="B632" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A633" s="1" t="s">
+      <c r="A633" t="s">
         <v>1181</v>
       </c>
-      <c r="B633" s="3" t="s">
+      <c r="B633" s="1" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A634" s="1" t="s">
+      <c r="A634" t="s">
         <v>1183</v>
       </c>
-      <c r="B634" s="3" t="s">
+      <c r="B634" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A635" s="1" t="s">
+      <c r="A635" t="s">
         <v>1185</v>
       </c>
-      <c r="B635" s="3" t="s">
+      <c r="B635" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A636" s="1" t="s">
+      <c r="A636" t="s">
         <v>1187</v>
       </c>
-      <c r="B636" s="3" t="s">
+      <c r="B636" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A637" s="1" t="s">
+      <c r="A637" t="s">
         <v>1189</v>
       </c>
-      <c r="B637" s="3" t="s">
+      <c r="B637" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A638" s="1" t="s">
+      <c r="A638" t="s">
         <v>1191</v>
       </c>
-      <c r="B638" s="3" t="s">
+      <c r="B638" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A639" s="1" t="s">
+      <c r="A639" t="s">
         <v>1193</v>
       </c>
-      <c r="B639" s="3" t="s">
+      <c r="B639" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A640" s="1" t="s">
+      <c r="A640" t="s">
         <v>1195</v>
       </c>
-      <c r="B640" s="3" t="s">
+      <c r="B640" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A641" s="1" t="s">
+      <c r="A641" t="s">
         <v>1197</v>
       </c>
-      <c r="B641" s="3" t="s">
+      <c r="B641" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A642" s="1" t="s">
+      <c r="A642" t="s">
         <v>1199</v>
       </c>
-      <c r="B642" s="3" t="s">
+      <c r="B642" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A643" s="1" t="s">
+      <c r="A643" t="s">
         <v>1201</v>
       </c>
-      <c r="B643" s="3" t="s">
+      <c r="B643" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A644" s="1" t="s">
+      <c r="A644" t="s">
         <v>1203</v>
       </c>
-      <c r="B644" s="3" t="s">
+      <c r="B644" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A645" s="1" t="s">
+      <c r="A645" t="s">
         <v>1205</v>
       </c>
-      <c r="B645" s="3" t="s">
+      <c r="B645" s="1" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A646" s="1" t="s">
+      <c r="A646" t="s">
         <v>1207</v>
       </c>
-      <c r="B646" s="3" t="s">
+      <c r="B646" s="1" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A647" s="1" t="s">
+      <c r="A647" t="s">
         <v>1209</v>
       </c>
-      <c r="B647" s="3" t="s">
+      <c r="B647" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A648" s="1" t="s">
+      <c r="A648" t="s">
         <v>1211</v>
       </c>
-      <c r="B648" s="3" t="s">
+      <c r="B648" s="1" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A649" s="1" t="s">
+      <c r="A649" t="s">
         <v>1213</v>
       </c>
-      <c r="B649" s="3" t="s">
+      <c r="B649" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A650" s="1" t="s">
+      <c r="A650" t="s">
         <v>1215</v>
       </c>
-      <c r="B650" s="3" t="s">
+      <c r="B650" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A651" s="1" t="s">
+      <c r="A651" t="s">
         <v>1216</v>
       </c>
-      <c r="B651" s="3" t="s">
+      <c r="B651" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A652" s="1" t="s">
+      <c r="A652" t="s">
         <v>1218</v>
       </c>
-      <c r="B652" s="3" t="s">
+      <c r="B652" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A653" s="1" t="s">
+      <c r="A653" t="s">
         <v>1220</v>
       </c>
-      <c r="B653" s="3" t="s">
+      <c r="B653" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A654" s="1" t="s">
+      <c r="A654" t="s">
         <v>1221</v>
       </c>
-      <c r="B654" s="3" t="s">
+      <c r="B654" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A655" s="1" t="s">
+      <c r="A655" t="s">
         <v>1223</v>
       </c>
-      <c r="B655" s="3" t="s">
+      <c r="B655" s="1" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A656" s="1" t="s">
+      <c r="A656" t="s">
         <v>1225</v>
       </c>
-      <c r="B656" s="3" t="s">
+      <c r="B656" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A657" s="1" t="s">
+      <c r="A657" t="s">
         <v>1227</v>
       </c>
-      <c r="B657" s="3" t="s">
+      <c r="B657" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A658" s="1" t="s">
+      <c r="A658" t="s">
         <v>1229</v>
       </c>
-      <c r="B658" s="3" t="s">
+      <c r="B658" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A659" s="1" t="s">
+      <c r="A659" t="s">
         <v>1231</v>
       </c>
-      <c r="B659" s="3" t="s">
+      <c r="B659" s="1" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A660" s="1" t="s">
+      <c r="A660" t="s">
         <v>1233</v>
       </c>
-      <c r="B660" s="3" t="s">
+      <c r="B660" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A661" s="1" t="s">
+      <c r="A661" t="s">
         <v>1235</v>
       </c>
-      <c r="B661" s="3" t="s">
+      <c r="B661" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A662" s="1" t="s">
+      <c r="A662" t="s">
         <v>1236</v>
       </c>
-      <c r="B662" s="3" t="s">
+      <c r="B662" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A663" s="1" t="s">
+      <c r="A663" t="s">
         <v>1237</v>
       </c>
-      <c r="B663" s="3" t="s">
+      <c r="B663" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A664" s="1" t="s">
+      <c r="A664" t="s">
         <v>1238</v>
       </c>
-      <c r="B664" s="3" t="s">
+      <c r="B664" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A665" s="1" t="s">
+      <c r="A665" t="s">
         <v>1239</v>
       </c>
-      <c r="B665" s="3" t="s">
+      <c r="B665" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A666" s="1" t="s">
+      <c r="A666" t="s">
         <v>1241</v>
       </c>
-      <c r="B666" s="3" t="s">
+      <c r="B666" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A667" s="1" t="s">
+      <c r="A667" t="s">
         <v>1243</v>
       </c>
-      <c r="B667" s="3" t="s">
+      <c r="B667" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A668" s="1" t="s">
+      <c r="A668" t="s">
         <v>1244</v>
       </c>
-      <c r="B668" s="3" t="s">
+      <c r="B668" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A669" s="1" t="s">
+      <c r="A669" t="s">
         <v>1246</v>
       </c>
-      <c r="B669" s="3" t="s">
+      <c r="B669" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A670" s="1" t="s">
+      <c r="A670" t="s">
         <v>1248</v>
       </c>
-      <c r="B670" s="3" t="s">
+      <c r="B670" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A671" s="1" t="s">
+      <c r="A671" t="s">
         <v>1250</v>
       </c>
-      <c r="B671" s="3" t="s">
+      <c r="B671" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A672" s="1" t="s">
+      <c r="A672" t="s">
         <v>1252</v>
       </c>
-      <c r="B672" s="3" t="s">
+      <c r="B672" s="1" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A673" s="1" t="s">
+      <c r="A673" t="s">
         <v>1254</v>
       </c>
-      <c r="B673" s="3" t="s">
+      <c r="B673" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A674" s="1" t="s">
+      <c r="A674" t="s">
         <v>1256</v>
       </c>
-      <c r="B674" s="3" t="s">
+      <c r="B674" s="1" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A675" s="1" t="s">
+      <c r="A675" t="s">
         <v>1258</v>
       </c>
-      <c r="B675" s="3" t="s">
+      <c r="B675" s="1" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A676" s="1" t="s">
+      <c r="A676" t="s">
         <v>1260</v>
       </c>
-      <c r="B676" s="3" t="s">
+      <c r="B676" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A677" s="1" t="s">
+      <c r="A677" t="s">
         <v>1262</v>
       </c>
-      <c r="B677" s="3" t="s">
+      <c r="B677" s="1" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A678" s="1" t="s">
+      <c r="A678" t="s">
         <v>1264</v>
       </c>
-      <c r="B678" s="3" t="s">
+      <c r="B678" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A679" s="1" t="s">
+      <c r="A679" t="s">
         <v>1266</v>
       </c>
-      <c r="B679" s="3" t="s">
+      <c r="B679" s="1" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A680" s="1" t="s">
+      <c r="A680" t="s">
         <v>1268</v>
       </c>
-      <c r="B680" s="3" t="s">
+      <c r="B680" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A681" s="1" t="s">
+      <c r="A681" t="s">
         <v>1270</v>
       </c>
-      <c r="B681" s="3" t="s">
+      <c r="B681" s="1" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A682" s="1" t="s">
+      <c r="A682" t="s">
         <v>1272</v>
       </c>
-      <c r="B682" s="3" t="s">
+      <c r="B682" s="1" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A683" s="1" t="s">
+      <c r="A683" t="s">
         <v>1274</v>
       </c>
-      <c r="B683" s="3" t="s">
+      <c r="B683" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A684" s="1" t="s">
+      <c r="A684" t="s">
         <v>1276</v>
       </c>
-      <c r="B684" s="3" t="s">
+      <c r="B684" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A685" s="1" t="s">
+      <c r="A685" t="s">
         <v>1277</v>
       </c>
-      <c r="B685" s="3" t="s">
+      <c r="B685" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A686" s="1" t="s">
+      <c r="A686" t="s">
         <v>1279</v>
       </c>
-      <c r="B686" s="3" t="s">
+      <c r="B686" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A687" s="1" t="s">
+      <c r="A687" t="s">
         <v>1280</v>
       </c>
-      <c r="B687" s="3" t="s">
+      <c r="B687" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A688" s="1" t="s">
+      <c r="A688" t="s">
         <v>1282</v>
       </c>
-      <c r="B688" s="3" t="s">
+      <c r="B688" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A689" s="1" t="s">
+      <c r="A689" t="s">
         <v>1284</v>
       </c>
-      <c r="B689" s="3" t="s">
+      <c r="B689" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A690" s="1" t="s">
+      <c r="A690" t="s">
         <v>1285</v>
       </c>
-      <c r="B690" s="3" t="s">
+      <c r="B690" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A691" s="1" t="s">
+      <c r="A691" t="s">
         <v>1287</v>
       </c>
-      <c r="B691" s="3" t="s">
+      <c r="B691" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A692" s="1" t="s">
+      <c r="A692" t="s">
         <v>1288</v>
       </c>
-      <c r="B692" s="3" t="s">
+      <c r="B692" s="1" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A693" s="1" t="s">
+      <c r="A693" t="s">
         <v>1290</v>
       </c>
-      <c r="B693" s="3" t="s">
+      <c r="B693" s="1" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A694" s="1" t="s">
+      <c r="A694" t="s">
         <v>1292</v>
       </c>
-      <c r="B694" s="3" t="s">
+      <c r="B694" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A695" s="1" t="s">
+      <c r="A695" t="s">
         <v>1294</v>
       </c>
-      <c r="B695" s="3" t="s">
+      <c r="B695" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A696" s="1" t="s">
+      <c r="A696" t="s">
         <v>1296</v>
       </c>
-      <c r="B696" s="3" t="s">
+      <c r="B696" s="1" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A697" s="1" t="s">
+      <c r="A697" t="s">
         <v>1298</v>
       </c>
-      <c r="B697" s="3" t="s">
+      <c r="B697" s="1" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A698" s="1" t="s">
+      <c r="A698" t="s">
         <v>1299</v>
       </c>
-      <c r="B698" s="3" t="s">
+      <c r="B698" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A699" s="1" t="s">
+      <c r="A699" t="s">
         <v>1301</v>
       </c>
-      <c r="B699" s="3" t="s">
+      <c r="B699" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A700" s="1" t="s">
+      <c r="A700" t="s">
         <v>1303</v>
       </c>
-      <c r="B700" s="3" t="s">
+      <c r="B700" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A701" s="1" t="s">
+      <c r="A701" t="s">
         <v>1305</v>
       </c>
-      <c r="B701" s="3" t="s">
+      <c r="B701" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A702" s="1" t="s">
+      <c r="A702" t="s">
         <v>1307</v>
       </c>
-      <c r="B702" s="3" t="s">
+      <c r="B702" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A703" s="1" t="s">
+      <c r="A703" t="s">
         <v>1308</v>
       </c>
-      <c r="B703" s="3" t="s">
+      <c r="B703" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A704" s="1" t="s">
+      <c r="A704" t="s">
         <v>1310</v>
       </c>
-      <c r="B704" s="3" t="s">
+      <c r="B704" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A705" s="1" t="s">
+      <c r="A705" t="s">
         <v>1311</v>
       </c>
-      <c r="B705" s="3" t="s">
+      <c r="B705" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A706" s="1" t="s">
+      <c r="A706" t="s">
         <v>1313</v>
       </c>
-      <c r="B706" s="3" t="s">
+      <c r="B706" s="1" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A707" s="1" t="s">
+      <c r="A707" t="s">
         <v>1315</v>
       </c>
-      <c r="B707" s="3" t="s">
+      <c r="B707" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A708" s="1" t="s">
+      <c r="A708" t="s">
         <v>1317</v>
       </c>
-      <c r="B708" s="3" t="s">
+      <c r="B708" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A709" s="1" t="s">
+      <c r="A709" t="s">
         <v>1318</v>
       </c>
-      <c r="B709" s="3" t="s">
+      <c r="B709" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A710" s="1" t="s">
+      <c r="A710" t="s">
         <v>1320</v>
       </c>
-      <c r="B710" s="3" t="s">
+      <c r="B710" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A711" s="1" t="s">
+      <c r="A711" t="s">
         <v>1321</v>
       </c>
-      <c r="B711" s="3" t="s">
+      <c r="B711" s="1" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A712" s="1" t="s">
+      <c r="A712" t="s">
         <v>1323</v>
       </c>
-      <c r="B712" s="3" t="s">
+      <c r="B712" s="1" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A713" s="1" t="s">
+      <c r="A713" t="s">
         <v>1325</v>
       </c>
-      <c r="B713" s="3" t="s">
+      <c r="B713" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A714" s="1" t="s">
+      <c r="A714" t="s">
         <v>1327</v>
       </c>
-      <c r="B714" s="3" t="s">
+      <c r="B714" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A715" s="1" t="s">
+      <c r="A715" t="s">
         <v>1329</v>
       </c>
-      <c r="B715" s="3" t="s">
+      <c r="B715" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A716" s="1" t="s">
+      <c r="A716" t="s">
         <v>1330</v>
       </c>
-      <c r="B716" s="3" t="s">
+      <c r="B716" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A717" s="1" t="s">
+      <c r="A717" t="s">
         <v>1332</v>
       </c>
-      <c r="B717" s="3" t="s">
+      <c r="B717" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A718" s="1" t="s">
+      <c r="A718" t="s">
         <v>1334</v>
       </c>
-      <c r="B718" s="3" t="s">
+      <c r="B718" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A719" s="1" t="s">
+      <c r="A719" t="s">
         <v>1336</v>
       </c>
-      <c r="B719" s="3" t="s">
+      <c r="B719" s="1" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A720" s="1" t="s">
+      <c r="A720" t="s">
         <v>1338</v>
       </c>
-      <c r="B720" s="3" t="s">
+      <c r="B720" s="1" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A721" s="1" t="s">
+      <c r="A721" t="s">
         <v>1340</v>
       </c>
-      <c r="B721" s="3" t="s">
+      <c r="B721" s="1" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A722" s="1" t="s">
+      <c r="A722" t="s">
         <v>1342</v>
       </c>
-      <c r="B722" s="3" t="s">
+      <c r="B722" s="1" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A723" s="1" t="s">
+      <c r="A723" t="s">
         <v>1344</v>
       </c>
-      <c r="B723" s="3" t="s">
+      <c r="B723" s="1" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A724" s="1" t="s">
+      <c r="A724" t="s">
         <v>1346</v>
       </c>
-      <c r="B724" s="3" t="s">
+      <c r="B724" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A725" s="1" t="s">
+      <c r="A725" t="s">
         <v>1348</v>
       </c>
-      <c r="B725" s="3" t="s">
+      <c r="B725" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A726" s="1" t="s">
+      <c r="A726" t="s">
         <v>1350</v>
       </c>
-      <c r="B726" s="3" t="s">
+      <c r="B726" s="1" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A727" s="1" t="s">
+      <c r="A727" t="s">
         <v>1352</v>
       </c>
-      <c r="B727" s="3" t="s">
+      <c r="B727" s="1" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A728" s="1" t="s">
+      <c r="A728" t="s">
         <v>1354</v>
       </c>
-      <c r="B728" s="3" t="s">
+      <c r="B728" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A729" s="1" t="s">
+      <c r="A729" t="s">
         <v>1356</v>
       </c>
-      <c r="B729" s="3" t="s">
+      <c r="B729" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A730" s="1" t="s">
+      <c r="A730" t="s">
         <v>1357</v>
       </c>
-      <c r="B730" s="3" t="s">
+      <c r="B730" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A731" s="1" t="s">
+      <c r="A731" t="s">
         <v>1358</v>
       </c>
-      <c r="B731" s="3" t="s">
+      <c r="B731" s="1" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A732" s="1" t="s">
+      <c r="A732" t="s">
         <v>1360</v>
       </c>
-      <c r="B732" s="3" t="s">
+      <c r="B732" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A733" s="1" t="s">
+      <c r="A733" t="s">
         <v>1362</v>
       </c>
-      <c r="B733" s="3" t="s">
+      <c r="B733" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A734" s="1" t="s">
+      <c r="A734" t="s">
         <v>1364</v>
       </c>
-      <c r="B734" s="3" t="s">
+      <c r="B734" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A735" s="1" t="s">
+      <c r="A735" t="s">
         <v>1366</v>
       </c>
-      <c r="B735" s="3" t="s">
+      <c r="B735" s="1" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A736" s="1" t="s">
+      <c r="A736" t="s">
         <v>1368</v>
       </c>
-      <c r="B736" s="3" t="s">
+      <c r="B736" s="1" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A737" s="1" t="s">
+      <c r="A737" t="s">
         <v>1369</v>
       </c>
-      <c r="B737" s="3" t="s">
+      <c r="B737" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A738" s="1" t="s">
+      <c r="A738" t="s">
         <v>1371</v>
       </c>
-      <c r="B738" s="3" t="s">
+      <c r="B738" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A739" s="1" t="s">
+      <c r="A739" t="s">
         <v>1373</v>
       </c>
-      <c r="B739" s="3" t="s">
+      <c r="B739" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A740" s="1" t="s">
+      <c r="A740" t="s">
         <v>1375</v>
       </c>
-      <c r="B740" s="3" t="s">
+      <c r="B740" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A741" s="1" t="s">
+      <c r="A741" t="s">
         <v>1377</v>
       </c>
-      <c r="B741" s="3" t="s">
+      <c r="B741" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A742" s="1" t="s">
+      <c r="A742" t="s">
         <v>1379</v>
       </c>
-      <c r="B742" s="3" t="s">
+      <c r="B742" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A743" s="1" t="s">
+      <c r="A743" t="s">
         <v>1380</v>
       </c>
-      <c r="B743" s="3" t="s">
+      <c r="B743" s="1" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A744" s="1" t="s">
+      <c r="A744" t="s">
         <v>1382</v>
       </c>
-      <c r="B744" s="3" t="s">
+      <c r="B744" s="1" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A745" s="1" t="s">
+      <c r="A745" t="s">
         <v>1383</v>
       </c>
-      <c r="B745" s="3" t="s">
+      <c r="B745" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A746" s="1" t="s">
+      <c r="A746" t="s">
         <v>1385</v>
       </c>
-      <c r="B746" s="3" t="s">
+      <c r="B746" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A747" s="1" t="s">
+      <c r="A747" t="s">
         <v>1387</v>
       </c>
-      <c r="B747" s="3" t="s">
+      <c r="B747" s="1" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A748" s="1" t="s">
+      <c r="A748" t="s">
         <v>1389</v>
       </c>
-      <c r="B748" s="3" t="s">
+      <c r="B748" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A749" s="1" t="s">
+      <c r="A749" t="s">
         <v>1391</v>
       </c>
-      <c r="B749" s="3" t="s">
+      <c r="B749" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A750" s="1" t="s">
+      <c r="A750" t="s">
         <v>1393</v>
       </c>
-      <c r="B750" s="3" t="s">
+      <c r="B750" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A751" s="1" t="s">
+      <c r="A751" t="s">
         <v>1394</v>
       </c>
-      <c r="B751" s="3" t="s">
+      <c r="B751" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A752" s="1" t="s">
+      <c r="A752" t="s">
         <v>1395</v>
       </c>
-      <c r="B752" s="3" t="s">
+      <c r="B752" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A753" s="1" t="s">
+      <c r="A753" t="s">
         <v>1396</v>
       </c>
-      <c r="B753" s="3" t="s">
+      <c r="B753" s="1" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A754" s="1" t="s">
+      <c r="A754" t="s">
         <v>1398</v>
       </c>
-      <c r="B754" s="3" t="s">
+      <c r="B754" s="1" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A755" s="1" t="s">
+      <c r="A755" t="s">
         <v>1400</v>
       </c>
-      <c r="B755" s="3" t="s">
+      <c r="B755" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A756" s="1" t="s">
+      <c r="A756" t="s">
         <v>1402</v>
       </c>
-      <c r="B756" s="3" t="s">
+      <c r="B756" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A757" s="1" t="s">
+      <c r="A757" t="s">
         <v>1403</v>
       </c>
-      <c r="B757" s="3" t="s">
+      <c r="B757" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A758" s="1" t="s">
+      <c r="A758" t="s">
         <v>1404</v>
       </c>
-      <c r="B758" s="3" t="s">
+      <c r="B758" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A759" s="1" t="s">
+      <c r="A759" t="s">
         <v>1405</v>
       </c>
-      <c r="B759" s="3" t="s">
+      <c r="B759" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A760" s="1" t="s">
+      <c r="A760" t="s">
         <v>1407</v>
       </c>
-      <c r="B760" s="3" t="s">
+      <c r="B760" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A761" s="1" t="s">
+      <c r="A761" t="s">
         <v>1408</v>
       </c>
-      <c r="B761" s="3" t="s">
+      <c r="B761" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A762" s="1" t="s">
+      <c r="A762" t="s">
         <v>1410</v>
       </c>
-      <c r="B762" s="3" t="s">
+      <c r="B762" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="763" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A763" s="1" t="s">
+      <c r="A763" t="s">
         <v>1411</v>
       </c>
-      <c r="B763" s="3" t="s">
+      <c r="B763" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A764" s="1" t="s">
+      <c r="A764" t="s">
         <v>1413</v>
       </c>
-      <c r="B764" s="3" t="s">
+      <c r="B764" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A765" s="1" t="s">
+      <c r="A765" t="s">
         <v>1414</v>
       </c>
-      <c r="B765" s="3" t="s">
+      <c r="B765" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A766" s="1" t="s">
+      <c r="A766" t="s">
         <v>1416</v>
       </c>
-      <c r="B766" s="3" t="s">
+      <c r="B766" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A767" s="1" t="s">
+      <c r="A767" t="s">
         <v>1417</v>
       </c>
-      <c r="B767" s="3" t="s">
+      <c r="B767" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A768" s="1" t="s">
+      <c r="A768" t="s">
         <v>1418</v>
       </c>
-      <c r="B768" s="3" t="s">
+      <c r="B768" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A769" s="1" t="s">
+      <c r="A769" t="s">
         <v>1419</v>
       </c>
-      <c r="B769" s="3" t="s">
+      <c r="B769" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A770" s="1" t="s">
+      <c r="A770" t="s">
         <v>1421</v>
       </c>
-      <c r="B770" s="3" t="s">
+      <c r="B770" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A771" s="1" t="s">
+      <c r="A771" t="s">
         <v>1422</v>
       </c>
-      <c r="B771" s="3" t="s">
+      <c r="B771" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A772" s="1" t="s">
+      <c r="A772" t="s">
         <v>1424</v>
       </c>
-      <c r="B772" s="3" t="s">
+      <c r="B772" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A773" s="1" t="s">
+      <c r="A773" t="s">
         <v>1426</v>
       </c>
-      <c r="B773" s="3" t="s">
+      <c r="B773" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A774" s="1" t="s">
+      <c r="A774" t="s">
         <v>1427</v>
       </c>
-      <c r="B774" s="3" t="s">
+      <c r="B774" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A775" s="1" t="s">
+      <c r="A775" t="s">
         <v>1428</v>
       </c>
-      <c r="B775" s="3" t="s">
+      <c r="B775" s="1" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A776" s="1" t="s">
+      <c r="A776" t="s">
         <v>1430</v>
       </c>
-      <c r="B776" s="3" t="s">
+      <c r="B776" s="1" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A777" s="1" t="s">
+      <c r="A777" t="s">
         <v>1431</v>
       </c>
-      <c r="B777" s="3" t="s">
+      <c r="B777" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A778" s="1" t="s">
+      <c r="A778" t="s">
         <v>1433</v>
       </c>
-      <c r="B778" s="3" t="s">
+      <c r="B778" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A779" s="1" t="s">
+      <c r="A779" t="s">
         <v>1434</v>
       </c>
-      <c r="B779" s="3" t="s">
+      <c r="B779" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A780" s="1" t="s">
+      <c r="A780" t="s">
         <v>1435</v>
       </c>
-      <c r="B780" s="3" t="s">
+      <c r="B780" s="1" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A781" s="1" t="s">
+      <c r="A781" t="s">
         <v>1437</v>
       </c>
-      <c r="B781" s="3" t="s">
+      <c r="B781" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A782" s="1" t="s">
+      <c r="A782" t="s">
         <v>1439</v>
       </c>
-      <c r="B782" s="3" t="s">
+      <c r="B782" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A783" s="1" t="s">
+      <c r="A783" t="s">
         <v>1440</v>
       </c>
-      <c r="B783" s="3" t="s">
+      <c r="B783" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A784" s="1" t="s">
+      <c r="A784" t="s">
         <v>1441</v>
       </c>
-      <c r="B784" s="3" t="s">
+      <c r="B784" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A785" s="1" t="s">
+      <c r="A785" t="s">
         <v>1442</v>
       </c>
-      <c r="B785" s="3" t="s">
+      <c r="B785" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A786" s="1" t="s">
+      <c r="A786" t="s">
         <v>1443</v>
       </c>
-      <c r="B786" s="3" t="s">
+      <c r="B786" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A787" s="1" t="s">
+      <c r="A787" t="s">
         <v>1444</v>
       </c>
-      <c r="B787" s="3" t="s">
+      <c r="B787" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A788" s="1" t="s">
+      <c r="A788" t="s">
         <v>1445</v>
       </c>
-      <c r="B788" s="3" t="s">
+      <c r="B788" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A789" s="1" t="s">
+      <c r="A789" t="s">
         <v>1447</v>
       </c>
-      <c r="B789" s="3" t="s">
+      <c r="B789" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A790" s="1" t="s">
+      <c r="A790" t="s">
         <v>1448</v>
       </c>
-      <c r="B790" s="3" t="s">
+      <c r="B790" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A791" s="1" t="s">
+      <c r="A791" t="s">
         <v>1449</v>
       </c>
-      <c r="B791" s="3" t="s">
+      <c r="B791" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A792" s="1" t="s">
+      <c r="A792" t="s">
         <v>1450</v>
       </c>
-      <c r="B792" s="3" t="s">
+      <c r="B792" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A793" s="1" t="s">
+      <c r="A793" t="s">
         <v>1451</v>
       </c>
-      <c r="B793" s="3" t="s">
+      <c r="B793" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A794" s="1" t="s">
+      <c r="A794" t="s">
         <v>1452</v>
       </c>
-      <c r="B794" s="3" t="s">
+      <c r="B794" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A795" s="1" t="s">
+      <c r="A795" t="s">
         <v>1453</v>
       </c>
-      <c r="B795" s="3" t="s">
+      <c r="B795" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A796" s="1" t="s">
+      <c r="A796" t="s">
         <v>1454</v>
       </c>
-      <c r="B796" s="3" t="s">
+      <c r="B796" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A797" s="1" t="s">
+      <c r="A797" t="s">
         <v>1455</v>
       </c>
-      <c r="B797" s="3" t="s">
+      <c r="B797" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A798" s="1" t="s">
+      <c r="A798" t="s">
         <v>1456</v>
       </c>
-      <c r="B798" s="3" t="s">
+      <c r="B798" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A799" s="1" t="s">
+      <c r="A799" t="s">
         <v>1457</v>
       </c>
-      <c r="B799" s="3" t="s">
+      <c r="B799" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A800" s="1" t="s">
+      <c r="A800" t="s">
         <v>1458</v>
       </c>
-      <c r="B800" s="3" t="s">
+      <c r="B800" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A801" s="1" t="s">
+      <c r="A801" t="s">
         <v>1459</v>
       </c>
-      <c r="B801" s="3" t="s">
+      <c r="B801" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A802" s="1" t="s">
+      <c r="A802" t="s">
         <v>1460</v>
       </c>
-      <c r="B802" s="3" t="s">
+      <c r="B802" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A803" s="1" t="s">
+      <c r="A803" t="s">
         <v>1462</v>
       </c>
-      <c r="B803" s="3" t="s">
+      <c r="B803" s="1" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A804" s="1" t="s">
+      <c r="A804" t="s">
         <v>1464</v>
       </c>
-      <c r="B804" s="3" t="s">
+      <c r="B804" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A805" s="1" t="s">
+      <c r="A805" t="s">
         <v>1466</v>
       </c>
-      <c r="B805" s="3" t="s">
+      <c r="B805" s="1" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A806" s="1" t="s">
+      <c r="A806" t="s">
         <v>1468</v>
       </c>
-      <c r="B806" s="3" t="s">
+      <c r="B806" s="1" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A807" s="1" t="s">
+      <c r="A807" t="s">
         <v>1470</v>
       </c>
-      <c r="B807" s="3" t="s">
+      <c r="B807" s="1" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A808" s="1" t="s">
+      <c r="A808" t="s">
         <v>1472</v>
       </c>
-      <c r="B808" s="3" t="s">
+      <c r="B808" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A809" s="1" t="s">
+      <c r="A809" t="s">
         <v>1474</v>
       </c>
-      <c r="B809" s="3" t="s">
+      <c r="B809" s="1" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A810" s="1" t="s">
+      <c r="A810" t="s">
         <v>1476</v>
       </c>
-      <c r="B810" s="3" t="s">
+      <c r="B810" s="1" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A811" s="1" t="s">
+      <c r="A811" t="s">
         <v>1478</v>
       </c>
-      <c r="B811" s="3" t="s">
+      <c r="B811" s="1" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A812" s="1" t="s">
+      <c r="A812" t="s">
         <v>1480</v>
       </c>
-      <c r="B812" s="3" t="s">
+      <c r="B812" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A813" s="1" t="s">
+      <c r="A813" t="s">
         <v>1482</v>
       </c>
-      <c r="B813" s="3" t="s">
+      <c r="B813" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A814" s="1" t="s">
+      <c r="A814" t="s">
         <v>1484</v>
       </c>
-      <c r="B814" s="3" t="s">
+      <c r="B814" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A815" s="1" t="s">
+      <c r="A815" t="s">
         <v>1486</v>
       </c>
-      <c r="B815" s="3" t="s">
+      <c r="B815" s="1" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A816" s="1" t="s">
+      <c r="A816" t="s">
         <v>1488</v>
       </c>
-      <c r="B816" s="3" t="s">
+      <c r="B816" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A817" s="1" t="s">
+      <c r="A817" t="s">
         <v>1490</v>
       </c>
-      <c r="B817" s="3" t="s">
+      <c r="B817" s="1" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A818" s="1" t="s">
+      <c r="A818" t="s">
         <v>1492</v>
       </c>
-      <c r="B818" s="3" t="s">
+      <c r="B818" s="1" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A819" s="1" t="s">
+      <c r="A819" t="s">
         <v>1494</v>
       </c>
-      <c r="B819" s="3" t="s">
+      <c r="B819" s="1" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A820" s="1" t="s">
+      <c r="A820" t="s">
         <v>1496</v>
       </c>
-      <c r="B820" s="3" t="s">
+      <c r="B820" s="1" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A821" s="1" t="s">
+      <c r="A821" t="s">
         <v>1498</v>
       </c>
-      <c r="B821" s="3" t="s">
+      <c r="B821" s="1" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A822" s="1" t="s">
+      <c r="A822" t="s">
         <v>1500</v>
       </c>
-      <c r="B822" s="3" t="s">
+      <c r="B822" s="1" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A823" s="1" t="s">
+      <c r="A823" t="s">
         <v>1502</v>
       </c>
-      <c r="B823" s="3" t="s">
+      <c r="B823" s="1" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A824" s="1" t="s">
+      <c r="A824" t="s">
         <v>1504</v>
       </c>
-      <c r="B824" s="3" t="s">
+      <c r="B824" s="1" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A825" s="1" t="s">
+      <c r="A825" t="s">
         <v>1506</v>
       </c>
-      <c r="B825" s="3" t="s">
+      <c r="B825" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A826" s="1" t="s">
+      <c r="A826" t="s">
         <v>1508</v>
       </c>
-      <c r="B826" s="3" t="s">
+      <c r="B826" s="1" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A827" s="1" t="s">
+      <c r="A827" t="s">
         <v>1510</v>
       </c>
-      <c r="B827" s="3" t="s">
+      <c r="B827" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A828" s="1" t="s">
+      <c r="A828" t="s">
         <v>1512</v>
       </c>
-      <c r="B828" s="3" t="s">
+      <c r="B828" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A829" s="1" t="s">
+      <c r="A829" t="s">
         <v>1513</v>
       </c>
-      <c r="B829" s="3" t="s">
+      <c r="B829" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A830" s="1" t="s">
+      <c r="A830" t="s">
         <v>1514</v>
       </c>
-      <c r="B830" s="3" t="s">
+      <c r="B830" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A831" s="1" t="s">
+      <c r="A831" t="s">
         <v>1515</v>
       </c>
-      <c r="B831" s="3" t="s">
+      <c r="B831" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A832" s="1" t="s">
+      <c r="A832" t="s">
         <v>1516</v>
       </c>
-      <c r="B832" s="3" t="s">
+      <c r="B832" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A833" s="1" t="s">
+      <c r="A833" t="s">
         <v>1517</v>
       </c>
-      <c r="B833" s="3" t="s">
+      <c r="B833" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A834" s="1" t="s">
+      <c r="A834" t="s">
         <v>1518</v>
       </c>
-      <c r="B834" s="3" t="s">
+      <c r="B834" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A835" s="1" t="s">
+      <c r="A835" t="s">
         <v>1519</v>
       </c>
-      <c r="B835" s="3" t="s">
+      <c r="B835" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A836" s="1" t="s">
+      <c r="A836" t="s">
         <v>1520</v>
       </c>
-      <c r="B836" s="3" t="s">
+      <c r="B836" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A837" s="1" t="s">
+      <c r="A837" t="s">
         <v>1521</v>
       </c>
-      <c r="B837" s="3" t="s">
+      <c r="B837" s="1" t="s">
         <v>1511</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://stockbit.com/symbol/SMMA" xr:uid="{22029315-1C31-4FDD-961C-DC0E5D9D5C3B}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://stockbit.com/symbol/KBLI" xr:uid="{ADFD21D0-1C04-43F5-957B-D38377EEF69C}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://stockbit.com/symbol/FUTR" xr:uid="{BDFE3168-75DE-4D14-9021-2F506D4657A4}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://stockbit.com/symbol/LAPD" xr:uid="{545C8E1F-70F4-4F7A-8366-4E1154F61AB9}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://stockbit.com/symbol/UDNG" xr:uid="{6F276883-C8FF-43D7-BE57-E6502217C9A2}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://stockbit.com/symbol/MAPI" xr:uid="{723D934E-7B1D-4FFE-A41F-3C21AA0A4BB5}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://stockbit.com/symbol/ASPI" xr:uid="{2F166CCF-13FF-4D3C-B596-84590F783E95}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://stockbit.com/symbol/WMUU" xr:uid="{E4831C28-937A-4C91-939F-3D831FAE0E94}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://stockbit.com/symbol/SMGR" xr:uid="{9E173C70-CD4D-40D6-9DE8-D0885CA10FD7}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://stockbit.com/symbol/COAL" xr:uid="{9B80BB18-CE29-4CA7-90CD-B33B728DEDA3}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://stockbit.com/symbol/IKAN" xr:uid="{9DFF75B1-F150-4305-9AE8-896FBB31DB2D}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://stockbit.com/symbol/PIPA" xr:uid="{A4631453-B3A9-4DA1-A7D3-F68D5DAA5626}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://stockbit.com/symbol/FIRE" xr:uid="{02649D2E-1D08-455D-A736-D28CC93D48AD}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://stockbit.com/symbol/INDF" xr:uid="{4E0425D6-E605-4A17-A075-41E28B0AC8E6}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://stockbit.com/symbol/BMBL" xr:uid="{98C21493-0DFD-493A-9082-35B8E6EF81A4}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://stockbit.com/symbol/OASA" xr:uid="{1E4267C5-63DB-4C58-96A7-1AC9A09E03A3}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://stockbit.com/symbol/KPIG" xr:uid="{D8611FB9-8CE4-4DA3-A9D0-1B031D7EDF9B}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://stockbit.com/symbol/MDKA" xr:uid="{5FA1A6AD-D4C1-4081-A8BB-123F7D35EF0D}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://stockbit.com/symbol/HDIT" xr:uid="{31D0118D-F0EE-4744-8686-80F8621E008E}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://stockbit.com/symbol/MNCN" xr:uid="{280CAC1A-B92B-4310-A54A-DA1B70B3FF98}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://stockbit.com/symbol/SMRA" xr:uid="{3262E9C1-DAE4-4103-8332-84E1ECECB881}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://stockbit.com/symbol/TLKM" xr:uid="{7AD5932B-62A4-4D0A-8017-A907C0A1CB7F}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://stockbit.com/symbol/PTPP" xr:uid="{98021CAA-609F-4875-B211-4D4EFDF1E7BD}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://stockbit.com/symbol/BMTR" xr:uid="{72E62092-4499-403B-9722-7F3C10F0A961}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://stockbit.com/symbol/BRMS" xr:uid="{3158CF4E-A79F-447D-B6CC-62DF5C06762E}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://stockbit.com/symbol/LPPF" xr:uid="{E7DB00CB-0C67-4708-A871-1A575E0F9C7F}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://stockbit.com/symbol/BBRI" xr:uid="{5F775C60-0C74-476D-A725-EA815D77BB8E}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://stockbit.com/symbol/RICY" xr:uid="{41453E25-AB0B-4C94-8B3D-009CF764A741}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://stockbit.com/symbol/ARII" xr:uid="{800F6880-66E9-4C31-BD2A-20D5306B4D19}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://stockbit.com/symbol/BLTA" xr:uid="{46D46D83-4CCF-44AB-A2BB-2D1A4E6B9D2B}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://stockbit.com/symbol/BAYU" xr:uid="{BB73D3C2-BC99-4D63-A71C-B4A3B568EF4A}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://stockbit.com/symbol/BFIN" xr:uid="{8357A843-0E8E-4032-A6AE-3571A794746D}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://stockbit.com/symbol/BHAT" xr:uid="{2D2F2052-916C-4D2E-AFF0-93BD207BC0FB}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://stockbit.com/symbol/ARKO" xr:uid="{5F5F6DD3-45B2-444A-BC14-86D194CC9DF5}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://stockbit.com/symbol/MINA" xr:uid="{C94FDCD9-6CD3-4A84-9633-ADB58FF84B79}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://stockbit.com/symbol/ASII" xr:uid="{7B4C00C7-2723-45E6-BD00-56A20F9FA24C}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://stockbit.com/symbol/INET" xr:uid="{73D7FB68-4321-44FC-BF66-DB1FF42B138B}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://stockbit.com/symbol/ERAA" xr:uid="{26C72E5E-0E8F-4339-B0F6-AADB13F58F72}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://stockbit.com/symbol/BUKA" xr:uid="{EF929685-D110-40C9-93B9-2E0EAADB675B}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://stockbit.com/symbol/COCO" xr:uid="{C3904313-DCB3-4245-8C2A-C18C58966C25}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://stockbit.com/symbol/CTTH" xr:uid="{D3981C3E-4FDB-4072-AB17-E4A566DE28A2}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://stockbit.com/symbol/COIN" xr:uid="{E00E35EA-48E3-4284-A94D-10D52EA93981}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://stockbit.com/symbol/PGAS" xr:uid="{954F6063-AEEB-4663-99DB-F5D626EC23DE}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://stockbit.com/symbol/CASA" xr:uid="{F0F95A9B-88A9-4156-A35F-F73778479C32}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://stockbit.com/symbol/BBCA" xr:uid="{B7755BF0-30BF-437D-884A-E502F656FD06}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://stockbit.com/symbol/CTRA" xr:uid="{362B280D-F3EA-4F8B-9007-9BE2A42E4B23}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://stockbit.com/symbol/ELSA" xr:uid="{BD3480F5-16E4-4475-97AC-433F353A90A8}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://stockbit.com/symbol/CASH" xr:uid="{6928E7C7-8B7E-4D96-A773-6BA5A6C15A72}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://stockbit.com/symbol/ENRG" xr:uid="{7759C08C-ABB4-4CA8-B0CF-99B5B762D3E7}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://stockbit.com/symbol/MEGA" xr:uid="{162B05C0-F1CF-45AE-AC2B-3E41C8DA5339}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://stockbit.com/symbol/NATO" xr:uid="{833860CD-55C5-40DE-9A55-7A5DB9E863F9}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://stockbit.com/symbol/AMRT" xr:uid="{0CC850C2-99BF-4847-B307-B5A9AB541271}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://stockbit.com/symbol/INCF" xr:uid="{29650934-E932-4F5B-AAC7-26FF62981B1C}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://stockbit.com/symbol/BEST" xr:uid="{E8D02120-5766-44F0-85A8-0A2C598E389B}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://stockbit.com/symbol/BOLA" xr:uid="{B50E5F3C-E3DD-4252-8901-11A828A032BD}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://stockbit.com/symbol/JPFA" xr:uid="{1B49931E-92A5-4655-BB4E-320D777994E3}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://stockbit.com/symbol/SMSM" xr:uid="{C3230430-0701-4BBC-8627-1392A38EC7F0}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://stockbit.com/symbol/RMKE" xr:uid="{7916B31C-F20A-427D-9562-3E18CFDB325E}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://stockbit.com/symbol/BMSR" xr:uid="{AFC42FB4-00A8-4180-90B0-006EFCC32B7F}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://stockbit.com/symbol/ASRI" xr:uid="{2C790ED8-4601-4A41-A8F2-76ACCCC75A13}"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://stockbit.com/symbol/GPRA" xr:uid="{E3AB98F8-2158-4C6B-961A-61A434E0C9A8}"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://stockbit.com/symbol/MSKY" xr:uid="{9C45FDFD-5EAB-4264-B6E9-77B5286FF643}"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://stockbit.com/symbol/ASHA" xr:uid="{25D08676-36CD-4FD8-908A-8258F025AD68}"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://stockbit.com/symbol/ASSA" xr:uid="{AB2EFD46-1CF0-43A4-8D98-E01EA4229627}"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://stockbit.com/symbol/SDMU" xr:uid="{8E01B72A-F878-4DCA-B030-8F20B9514AC4}"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://stockbit.com/symbol/INTP" xr:uid="{1BCA301A-C559-467A-B6D6-56F8BB6A9789}"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://stockbit.com/symbol/BBTN" xr:uid="{B2BEAEEB-3DE9-4094-A3C4-36FA851258D3}"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://stockbit.com/symbol/LSIP" xr:uid="{C3CCFBAD-87A8-4A51-95AE-14AFD86253B1}"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://stockbit.com/symbol/CFIN" xr:uid="{F6B8C361-E8C4-4050-ABB3-255CF5A9915B}"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://stockbit.com/symbol/GLVA" xr:uid="{AAFC4EA2-A86E-4438-9154-42ADE03318CD}"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://stockbit.com/symbol/UVCR" xr:uid="{DA85F686-BFB5-40B9-891D-71008AB981B4}"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://stockbit.com/symbol/BUDI" xr:uid="{4CD7B3E8-11DD-4690-A7EA-4858DD10863A}"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://stockbit.com/symbol/TBLA" xr:uid="{D9B01452-EFBE-48BF-BCB1-43EF8D460E5D}"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://stockbit.com/symbol/HOPE" xr:uid="{290D86DC-AE93-4E07-A4E6-9ECF52024328}"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://stockbit.com/symbol/WIFI" xr:uid="{DEF49C44-C64F-4B94-934C-A525DCFA5670}"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://stockbit.com/symbol/MAIN" xr:uid="{1D6C16CC-162A-4FD0-967D-1C10E2434E8F}"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://stockbit.com/symbol/SPTO" xr:uid="{7E0BF6D7-8211-4A07-8E46-39FD44DB7FF6}"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://stockbit.com/symbol/STTP" xr:uid="{12619646-D489-4F08-AFE8-029B03C35D0D}"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://stockbit.com/symbol/ACES" xr:uid="{844C2BA8-874C-48EC-BCF2-88A2F69F7B52}"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://stockbit.com/symbol/TRON" xr:uid="{9D29E7E5-0835-4A9D-B87E-30B86B4C3597}"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://stockbit.com/symbol/SRIL" xr:uid="{682431ED-96FA-457A-B05E-2620D49AC56F}"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://stockbit.com/symbol/CSMI" xr:uid="{9C988383-D19E-4165-B842-F2F6CBB61702}"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://stockbit.com/symbol/INKP" xr:uid="{A1FAC404-3AE4-4DEF-8E2B-EE366496B9F4}"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://stockbit.com/symbol/INPC" xr:uid="{6F55D54A-9C81-4A15-910B-F7AA6DFA3BB0}"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://stockbit.com/symbol/MLPL" xr:uid="{266E654A-86E2-4E2A-B0C5-071052C873DD}"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://stockbit.com/symbol/DOID" xr:uid="{2A1D64C4-A2C4-40C0-907D-42815919B774}"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://stockbit.com/symbol/BBNI" xr:uid="{4586F392-A186-48D3-8833-159E1D7F53E7}"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://stockbit.com/symbol/LPKR" xr:uid="{88FC7FC5-A86B-4FF2-9146-87AB788051DA}"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://stockbit.com/symbol/DILD" xr:uid="{477DBC8C-BF40-49EE-8647-BE3D0871AE75}"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://stockbit.com/symbol/LUCY" xr:uid="{7C2B2624-1D3E-4C7F-ADE7-7949576FD279}"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://stockbit.com/symbol/RUIS" xr:uid="{BEB45F7C-32F4-4692-B61A-9F186A885409}"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://stockbit.com/symbol/WTON" xr:uid="{3C64E821-F96B-46E8-975B-54EEDE6E68C0}"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://stockbit.com/symbol/MDLN" xr:uid="{980312CB-3FC0-4842-82A5-E937A1E888FA}"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://stockbit.com/symbol/EAST" xr:uid="{892DB716-7B87-43F8-872D-C5D4329ED83D}"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://stockbit.com/symbol/KLBF" xr:uid="{D95F9C2E-A27C-4751-9C79-80C59F69B320}"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://stockbit.com/symbol/REAL" xr:uid="{58CBD67D-56A9-40D3-A9FB-41FB3C033EAF}"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://stockbit.com/symbol/BUVA" xr:uid="{0122AF0A-C263-4C5D-A238-3B8585DD7853}"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://stockbit.com/symbol/MCAS" xr:uid="{E4465A2A-762F-4F66-8B2D-0DB11EFBF768}"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://stockbit.com/symbol/BMRI" xr:uid="{BB626347-1D42-4C77-AC60-354DB3396B2B}"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://stockbit.com/symbol/KBAG" xr:uid="{FF5FE378-2949-4E96-86F2-09A9DB59F0B8}"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://stockbit.com/symbol/IPTV" xr:uid="{3CC3202A-D69C-437C-BD7E-E9CD210B2039}"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://stockbit.com/symbol/MPPA" xr:uid="{14D73D63-0564-4A2B-97D5-12934F82D421}"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://stockbit.com/symbol/OILS" xr:uid="{08073747-5975-4164-8582-E3E641CFC1B7}"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://stockbit.com/symbol/ESIP" xr:uid="{80ABED0C-03BC-449C-98A0-09FA9D1CC18E}"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://stockbit.com/symbol/INDX" xr:uid="{363E8154-87FC-45FF-8952-B259947EB1AE}"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://stockbit.com/symbol/BMHS" xr:uid="{A9B9A48A-05FE-44FA-B402-BD13E0573B31}"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://stockbit.com/symbol/LTLS" xr:uid="{6232BB04-F73A-44E1-ADA5-B92CBA008CDA}"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://stockbit.com/symbol/DEWI" xr:uid="{BBB10037-2C7B-49BB-9D1A-A0410463E700}"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://stockbit.com/symbol/WINS" xr:uid="{C7F63CA3-7684-4E2A-8A05-309608C712CC}"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://stockbit.com/symbol/ADHI" xr:uid="{946B39E6-3944-406D-A4C4-2B1C051D87F6}"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://stockbit.com/symbol/BGTG" xr:uid="{0A1FA8F1-AF72-412C-9EC8-267E7E1BF2D7}"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://stockbit.com/symbol/IBOS" xr:uid="{03FFF2E8-A5D0-4A2F-AB7D-AE5E7F069FE9}"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://stockbit.com/symbol/JAST" xr:uid="{91FCC9BC-49FA-405E-85FD-3877A87651ED}"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://stockbit.com/symbol/IRSX" xr:uid="{33FE3BBD-5B28-473B-8322-69895BB1FA95}"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://stockbit.com/symbol/UNTR" xr:uid="{74A86D95-42BC-4F1E-8138-D38CB2E54618}"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://stockbit.com/symbol/DPNS" xr:uid="{DFA1F691-0C7F-4DF3-AC19-60B89759A5D6}"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://stockbit.com/symbol/TINS" xr:uid="{E9B2B2EF-D0C5-43C1-9F23-0252327084BD}"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://stockbit.com/symbol/MTDL" xr:uid="{04475578-B670-407F-966A-5C76BFCE696F}"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://stockbit.com/symbol/ATLA" xr:uid="{CA46B98A-370B-4F4D-82D5-377265EC795B}"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://stockbit.com/symbol/ANTM" xr:uid="{0ED4F425-07C9-45F6-9144-FADCA73D3180}"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://stockbit.com/symbol/UNIC" xr:uid="{4E17068C-E217-4148-8A60-42E259351297}"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://stockbit.com/symbol/BISI" xr:uid="{9E1F37EF-22EC-4B83-9171-2D2BA0896B44}"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://stockbit.com/symbol/AEGS" xr:uid="{15744423-0ACA-48CB-9769-9D70F0BBE9F5}"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://stockbit.com/symbol/PYFA" xr:uid="{7D935BD5-690A-4733-9526-29BA8CE84C87}"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://stockbit.com/symbol/JGLE" xr:uid="{2EAAF824-0772-45BF-B44C-4E1CCCF8F364}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://stockbit.com/symbol/SGRO" xr:uid="{33C5105F-7F7A-425D-ACC2-4DE2A4BD5CAB}"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://stockbit.com/symbol/ITMG" xr:uid="{8C3AB1B0-4AD1-4BB9-8ED4-C72DE8D52A27}"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://stockbit.com/symbol/GJTL" xr:uid="{8F340542-22AF-4929-9651-0769404A51CC}"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://stockbit.com/symbol/CPIN" xr:uid="{090F9530-B428-4A6D-8AD5-C55300F1A988}"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://stockbit.com/symbol/MORA" xr:uid="{CFF2D689-AAFC-4307-8ECB-2FF97946345C}"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://stockbit.com/symbol/ISSP" xr:uid="{5CBAD829-B912-4DEF-8B11-85282C52949E}"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://stockbit.com/symbol/MPMX" xr:uid="{6EDBDD92-B743-4078-9BC6-CC9816EBF60F}"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://stockbit.com/symbol/LEAD" xr:uid="{4D8FCAFE-F20A-437F-BB78-20C22AB7C9A6}"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://stockbit.com/symbol/BAPA" xr:uid="{C9B59640-078B-441C-BAF0-52DDB27FEBB3}"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://stockbit.com/symbol/ARNA" xr:uid="{33E92786-D73E-43AE-A95F-EA688B10F7CC}"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://stockbit.com/symbol/MUTU" xr:uid="{415A8889-F953-4536-B69F-526047C3E8CF}"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://stockbit.com/symbol/DKFT" xr:uid="{1188013E-A87A-4264-BBF0-4ADB5015B604}"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://stockbit.com/symbol/LOPI" xr:uid="{E041B190-1012-4447-B43D-3B56E0670425}"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://stockbit.com/symbol/CARE" xr:uid="{96F4EF7F-4392-49E2-AF35-AB6A39FD4747}"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://stockbit.com/symbol/ABBA" xr:uid="{67CB4F99-1F22-4DEF-97E8-055592F885F7}"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://stockbit.com/symbol/BRRC" xr:uid="{FC0CF9F5-5287-4758-A262-A990A107D4C3}"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://stockbit.com/symbol/BANK" xr:uid="{0EA2FD23-ACD8-443A-9688-434C56FA9B38}"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://stockbit.com/symbol/TOWR" xr:uid="{7D9C976C-7A27-4BB1-ABEB-8CA56CDEA473}"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://stockbit.com/symbol/APEX" xr:uid="{1DAF12A7-79FF-4739-8E20-728949A1C47D}"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://stockbit.com/symbol/PTBA" xr:uid="{35001764-946E-4FFB-98BA-C1683F664218}"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://stockbit.com/symbol/AKRA" xr:uid="{D251B404-1F20-48C0-ADFD-93306E3CEB54}"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://stockbit.com/symbol/AIMS" xr:uid="{0EB1BFF4-28F2-4D4A-8C8D-CF80EA817B07}"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://stockbit.com/symbol/LAJU" xr:uid="{034B2B4C-30C7-4EB3-9C5E-2C632331FF7D}"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://stockbit.com/symbol/FILM" xr:uid="{028E694C-57EE-499B-9977-78F27ECA8FF2}"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://stockbit.com/symbol/MEDS" xr:uid="{78C0698D-F2E7-4562-9DC2-FD00987C3FEA}"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://stockbit.com/symbol/DSNG" xr:uid="{C6E74461-79E2-477C-80AD-7BE91DE45A03}"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://stockbit.com/symbol/LPPS" xr:uid="{BA026B92-B289-4823-AE78-5495D9E8AB09}"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://stockbit.com/symbol/IATA" xr:uid="{3AF4642D-BF7D-46D2-92B3-3B2007606870}"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://stockbit.com/symbol/OLIV" xr:uid="{F424531E-A9B9-4BDE-BB71-221C818475B6}"/>
-    <hyperlink ref="A156" r:id="rId155" display="https://stockbit.com/symbol/IOTF" xr:uid="{CC2CB6C7-A31D-4A24-A2D9-D87774C76F2E}"/>
-    <hyperlink ref="A157" r:id="rId156" display="https://stockbit.com/symbol/PNLF" xr:uid="{258C27D8-C566-4529-B55D-9C4C0652E395}"/>
-    <hyperlink ref="A158" r:id="rId157" display="https://stockbit.com/symbol/NSSS" xr:uid="{F6CF7840-527F-4E53-AAC4-3469F344BD54}"/>
-    <hyperlink ref="A159" r:id="rId158" display="https://stockbit.com/symbol/NTBK" xr:uid="{92ED1E61-0208-4ACC-9FD5-9DABFC15FE93}"/>
-    <hyperlink ref="A160" r:id="rId159" display="https://stockbit.com/symbol/PICO" xr:uid="{A4615C1E-0BC5-463C-9CFC-C7B1F56A5ADB}"/>
-    <hyperlink ref="A161" r:id="rId160" display="https://stockbit.com/symbol/GZCO" xr:uid="{B9E0FC98-25A4-4A3F-9A6F-268B944F9C4A}"/>
-    <hyperlink ref="A162" r:id="rId161" display="https://stockbit.com/symbol/MICE" xr:uid="{8C2C7F82-D66D-463E-84A5-264CC8C2DAAB}"/>
-    <hyperlink ref="A163" r:id="rId162" display="https://stockbit.com/symbol/RATU" xr:uid="{04334311-322C-4EFB-8982-7E4BA8577750}"/>
-    <hyperlink ref="A164" r:id="rId163" display="https://stockbit.com/symbol/MPIX" xr:uid="{9007E328-F097-4076-8680-4729C7DC5637}"/>
-    <hyperlink ref="A165" r:id="rId164" display="https://stockbit.com/symbol/KRYA" xr:uid="{9FE0A674-30EF-4B04-9CC6-4508D867A314}"/>
-    <hyperlink ref="A166" r:id="rId165" display="https://stockbit.com/symbol/BUMI" xr:uid="{3BFCD794-93E8-4ECF-9041-CD274EDE351B}"/>
-    <hyperlink ref="A167" r:id="rId166" display="https://stockbit.com/symbol/PWON" xr:uid="{54723D6B-1FE3-4EC8-9A6C-79FD34ED4ABA}"/>
-    <hyperlink ref="A168" r:id="rId167" display="https://stockbit.com/symbol/MAPA" xr:uid="{FF26254A-A7C1-4AB5-93B7-BD3F6EE429EF}"/>
-    <hyperlink ref="A169" r:id="rId168" display="https://stockbit.com/symbol/MBTO" xr:uid="{C1495A98-7B9D-4FD9-91EC-ADBBA5B33A14}"/>
-    <hyperlink ref="A170" r:id="rId169" display="https://stockbit.com/symbol/PANS" xr:uid="{9F3A7179-B4A7-4A6E-B869-F582D560EA89}"/>
-    <hyperlink ref="A171" r:id="rId170" display="https://stockbit.com/symbol/DSFI" xr:uid="{ED641576-B757-4861-A5FC-5A17687A8C52}"/>
-    <hyperlink ref="A172" r:id="rId171" display="https://stockbit.com/symbol/BTPS" xr:uid="{45881291-F6AD-4A30-AF7D-0DC164BD7A8D}"/>
-    <hyperlink ref="A173" r:id="rId172" display="https://stockbit.com/symbol/PLAN" xr:uid="{0E826DF9-640F-4B7A-AC4A-696D6B0CB379}"/>
-    <hyperlink ref="A174" r:id="rId173" display="https://stockbit.com/symbol/TOTL" xr:uid="{AEAE8257-DD03-416E-A5DB-061F85D2E803}"/>
-    <hyperlink ref="A175" r:id="rId174" display="https://stockbit.com/symbol/FLMC" xr:uid="{E01B8FB9-9BF3-4ACF-9DD5-60833E8086FB}"/>
-    <hyperlink ref="A176" r:id="rId175" display="https://stockbit.com/symbol/GSMF" xr:uid="{F2D148D3-0F7F-451F-8428-EB370E3A8ED5}"/>
-    <hyperlink ref="A177" r:id="rId176" display="https://stockbit.com/symbol/PEHA" xr:uid="{C6B3BEE2-2B48-4DB2-93EF-97CE1F958D70}"/>
-    <hyperlink ref="A178" r:id="rId177" display="https://stockbit.com/symbol/MTPS" xr:uid="{CB3B6CDE-9C10-4253-8A92-9596C18E3164}"/>
-    <hyperlink ref="A179" r:id="rId178" display="https://stockbit.com/symbol/SPRE" xr:uid="{F0F69049-5FE8-462E-BF87-A46323CB23E4}"/>
-    <hyperlink ref="A180" r:id="rId179" display="https://stockbit.com/symbol/EXCL" xr:uid="{B8B55788-F957-4E86-8C60-AC5F00CD0971}"/>
-    <hyperlink ref="A181" r:id="rId180" display="https://stockbit.com/symbol/TNCA" xr:uid="{1B0D346C-775C-4063-9F57-C61EAB68901A}"/>
-    <hyperlink ref="A182" r:id="rId181" display="https://stockbit.com/symbol/DPUM" xr:uid="{78C98859-D285-420E-B992-EB0F7E93439F}"/>
-    <hyperlink ref="A183" r:id="rId182" display="https://stockbit.com/symbol/ASPR" xr:uid="{1F57209B-D8E0-4142-84D0-1136D0A919C2}"/>
-    <hyperlink ref="A184" r:id="rId183" display="https://stockbit.com/symbol/BSIM" xr:uid="{AF1E35DA-2B47-4BB8-B85C-BD3CDA940F04}"/>
-    <hyperlink ref="A185" r:id="rId184" display="https://stockbit.com/symbol/TRUK" xr:uid="{35FBDF37-FFA7-42CF-A2F0-3445B01E4E4F}"/>
-    <hyperlink ref="A186" r:id="rId185" display="https://stockbit.com/symbol/CGAS" xr:uid="{0F414216-31DB-4F7F-A7F8-CF8B16868F9A}"/>
-    <hyperlink ref="A187" r:id="rId186" display="https://stockbit.com/symbol/LPLI" xr:uid="{EEC3BDDB-EA97-47DA-BC01-B6FA316CF058}"/>
-    <hyperlink ref="A188" r:id="rId187" display="https://stockbit.com/symbol/WEGE" xr:uid="{3F584838-087F-44EA-8492-24B2AF954963}"/>
-    <hyperlink ref="A189" r:id="rId188" display="https://stockbit.com/symbol/PACK" xr:uid="{102F3AB5-ADE7-48B8-8884-0E9A27F5A26F}"/>
-    <hyperlink ref="A190" r:id="rId189" display="https://stockbit.com/symbol/SULI" xr:uid="{7B0B625E-20B9-4C8C-BDAB-3B2797D4A3E1}"/>
-    <hyperlink ref="A191" r:id="rId190" display="https://stockbit.com/symbol/TAYS" xr:uid="{6BA53EB1-2B06-496F-85C6-2BC1749A564E}"/>
-    <hyperlink ref="A192" r:id="rId191" display="https://stockbit.com/symbol/CHEM" xr:uid="{B90D5E59-F1CF-4370-97A6-2BCE4BBE1085}"/>
-    <hyperlink ref="A193" r:id="rId192" display="https://stockbit.com/symbol/DOOH" xr:uid="{D54AF14A-581C-4E23-BD7A-1BF8213BD850}"/>
-    <hyperlink ref="A194" r:id="rId193" display="https://stockbit.com/symbol/TOBA" xr:uid="{B91A9A11-3FEE-4853-88BF-67DBF5FA55EB}"/>
-    <hyperlink ref="A195" r:id="rId194" display="https://stockbit.com/symbol/INCI" xr:uid="{55631AAA-1E4C-44E9-ADEC-2BE455FF9880}"/>
-    <hyperlink ref="A196" r:id="rId195" display="https://stockbit.com/symbol/PTRO" xr:uid="{C443B0AD-D16D-4C2A-AC56-2F28AC5E58BB}"/>
-    <hyperlink ref="A197" r:id="rId196" display="https://stockbit.com/symbol/BALI" xr:uid="{62C657EC-AC4B-4C5B-94B6-2C7CFA6F3438}"/>
-    <hyperlink ref="A198" r:id="rId197" display="https://stockbit.com/symbol/SOFA" xr:uid="{84913FD0-CA0A-4B7C-9B3D-B310708855E7}"/>
-    <hyperlink ref="A199" r:id="rId198" display="https://stockbit.com/symbol/MLIA" xr:uid="{1762B288-EAD1-4F48-AAF6-40DDD8D2134E}"/>
-    <hyperlink ref="A200" r:id="rId199" display="https://stockbit.com/symbol/BDKR" xr:uid="{38EC733A-D0AA-45BA-8179-0D459401E6A9}"/>
-    <hyperlink ref="A201" r:id="rId200" display="https://stockbit.com/symbol/GRPH" xr:uid="{E9E170B7-ED63-4E46-B191-C04C318D669F}"/>
-    <hyperlink ref="A202" r:id="rId201" display="https://stockbit.com/symbol/TKIM" xr:uid="{2E4ADE87-8FD4-4851-B316-5BF85F4ADF6E}"/>
-    <hyperlink ref="A203" r:id="rId202" display="https://stockbit.com/symbol/KUAS" xr:uid="{5CE08EBD-FA82-4E8A-AA95-E6D5F6567A27}"/>
-    <hyperlink ref="A204" r:id="rId203" display="https://stockbit.com/symbol/FOLK" xr:uid="{31D102C2-4707-4E6F-B295-6473C271029E}"/>
-    <hyperlink ref="A205" r:id="rId204" display="https://stockbit.com/symbol/ADRO" xr:uid="{8E3E41C9-5F94-4622-B45B-2AD61B1A183C}"/>
-    <hyperlink ref="A206" r:id="rId205" display="https://stockbit.com/symbol/WIIM" xr:uid="{5803745E-8A9F-41EB-AF43-0763915E68A5}"/>
-    <hyperlink ref="A207" r:id="rId206" display="https://stockbit.com/symbol/WINR" xr:uid="{59158759-CAFF-418B-8543-9C5B0D007872}"/>
-    <hyperlink ref="A208" r:id="rId207" display="https://stockbit.com/symbol/NASI" xr:uid="{2B658B72-8BBA-4587-9318-8DA5C04F271E}"/>
-    <hyperlink ref="A209" r:id="rId208" display="https://stockbit.com/symbol/PADA" xr:uid="{F9CF9C6F-1117-4C60-9B08-C043AEC0253A}"/>
-    <hyperlink ref="A210" r:id="rId209" display="https://stockbit.com/symbol/PAMG" xr:uid="{E4CC15A4-4365-4783-8A1D-2238F75956FB}"/>
-    <hyperlink ref="A211" r:id="rId210" display="https://stockbit.com/symbol/HAJJ" xr:uid="{8344B450-CE99-4D4D-9255-33664CFF08E2}"/>
-    <hyperlink ref="A212" r:id="rId211" display="https://stockbit.com/symbol/TPMA" xr:uid="{158EDF75-3EA4-4FB3-8308-8632503D80FE}"/>
-    <hyperlink ref="A213" r:id="rId212" display="https://stockbit.com/symbol/HRTA" xr:uid="{98A9919B-434F-48E9-AA23-5A9419FA58E3}"/>
-    <hyperlink ref="A214" r:id="rId213" display="https://stockbit.com/symbol/EMAS" xr:uid="{37BD39DA-AA68-49E8-A8F6-06A0CC6979A8}"/>
-    <hyperlink ref="A215" r:id="rId214" display="https://stockbit.com/symbol/INDY" xr:uid="{FE2492CD-A709-4437-8348-0F27F53B9A77}"/>
-    <hyperlink ref="A216" r:id="rId215" display="https://stockbit.com/symbol/JKON" xr:uid="{2191B720-C52B-4FBC-A17D-E3B95DF2E3C8}"/>
-    <hyperlink ref="A217" r:id="rId216" display="https://stockbit.com/symbol/INTA" xr:uid="{E3C01A51-2146-4437-B2AF-7F7026DBA289}"/>
-    <hyperlink ref="A218" r:id="rId217" display="https://stockbit.com/symbol/ICON" xr:uid="{5F363207-2839-493B-844E-0E8343F05933}"/>
-    <hyperlink ref="A219" r:id="rId218" display="https://stockbit.com/symbol/KJEN" xr:uid="{884E34CB-4CCB-4E23-90CD-6C8DFA9AD5B5}"/>
-    <hyperlink ref="A220" r:id="rId219" display="https://stockbit.com/symbol/PNIN" xr:uid="{0B982EB2-8937-42F4-9EC3-E2541A2FAA65}"/>
-    <hyperlink ref="A221" r:id="rId220" display="https://stockbit.com/symbol/STAA" xr:uid="{FD6221B0-1DBA-4C2B-96B3-AFE1283F4E65}"/>
-    <hyperlink ref="A222" r:id="rId221" display="https://stockbit.com/symbol/DWGL" xr:uid="{54247798-A79A-4B93-9C29-9858D9BB442C}"/>
-    <hyperlink ref="A223" r:id="rId222" display="https://stockbit.com/symbol/MRAT" xr:uid="{E91589E3-6A04-4964-A42E-B57093646FF5}"/>
-    <hyperlink ref="A224" r:id="rId223" display="https://stockbit.com/symbol/WEHA" xr:uid="{D145C55A-FA5A-4D0F-B216-815C5B88F855}"/>
-    <hyperlink ref="A225" r:id="rId224" display="https://stockbit.com/symbol/LAND" xr:uid="{E1F12F4B-123A-43E7-A582-4070B878F4F0}"/>
-    <hyperlink ref="A226" r:id="rId225" display="https://stockbit.com/symbol/MSIN" xr:uid="{84F76A9F-B4CB-4D32-B1AA-DD96B38206F4}"/>
-    <hyperlink ref="A227" r:id="rId226" display="https://stockbit.com/symbol/VICO" xr:uid="{6E9B2F47-45A0-4DB5-9A61-A954E98D7AC1}"/>
-    <hyperlink ref="A228" r:id="rId227" display="https://stockbit.com/symbol/BSDE" xr:uid="{68EA7B82-B582-4555-B968-A465B1E98364}"/>
-    <hyperlink ref="A229" r:id="rId228" display="https://stockbit.com/symbol/TDPM" xr:uid="{AA373373-08B2-47DA-A347-27C186D07A6F}"/>
-    <hyperlink ref="A230" r:id="rId229" display="https://stockbit.com/symbol/BIKA" xr:uid="{7991148F-3168-412A-92B9-E1B0756B1917}"/>
-    <hyperlink ref="A231" r:id="rId230" display="https://stockbit.com/symbol/GULA" xr:uid="{B9308A85-81FA-4CC3-BD08-EAD087278C0B}"/>
-    <hyperlink ref="A232" r:id="rId231" display="https://stockbit.com/symbol/PTSP" xr:uid="{433F48D0-1763-4BE4-BCBE-2AC8944CCF69}"/>
-    <hyperlink ref="A233" r:id="rId232" display="https://stockbit.com/symbol/NICL" xr:uid="{94A34A8B-50AB-46A3-AF42-735FF710CE64}"/>
-    <hyperlink ref="A234" r:id="rId233" display="https://stockbit.com/symbol/BNBR" xr:uid="{F3AEC9D7-D4F6-4F9D-9BA4-C4E633B810C7}"/>
-    <hyperlink ref="A235" r:id="rId234" display="https://stockbit.com/symbol/BRPT" xr:uid="{2772B67A-0250-4874-B374-3168A6CE6EF4}"/>
-    <hyperlink ref="A236" r:id="rId235" display="https://stockbit.com/symbol/MBMA" xr:uid="{42308A2A-6E80-4C09-A722-36CCD17DD98A}"/>
-    <hyperlink ref="A237" r:id="rId236" display="https://stockbit.com/symbol/SBMA" xr:uid="{5856BB93-CDCC-4C36-BCA7-972EBD9B6657}"/>
-    <hyperlink ref="A238" r:id="rId237" display="https://stockbit.com/symbol/MPOW" xr:uid="{5E9811E4-80DC-4A48-8E91-BE0EDF0CA3FB}"/>
-    <hyperlink ref="A239" r:id="rId238" display="https://stockbit.com/symbol/EMTK" xr:uid="{F2AA48E8-C8ED-455E-967F-CCCE7EED3A7E}"/>
-    <hyperlink ref="A240" r:id="rId239" display="https://stockbit.com/symbol/ARTO" xr:uid="{D91804AF-4481-4E29-BD60-11D24FCCA666}"/>
-    <hyperlink ref="A241" r:id="rId240" display="https://stockbit.com/symbol/DYAN" xr:uid="{50DA4CFE-1742-4361-A9EF-D009C9892E63}"/>
-    <hyperlink ref="A242" r:id="rId241" display="https://stockbit.com/symbol/SOUL" xr:uid="{E2EB39E5-E537-4BD9-AD76-C986B2C3DB6C}"/>
-    <hyperlink ref="A243" r:id="rId242" display="https://stockbit.com/symbol/PTDU" xr:uid="{AA287C23-A792-4394-AC89-E42A523BD50D}"/>
-    <hyperlink ref="A244" r:id="rId243" display="https://stockbit.com/symbol/SICO" xr:uid="{4932618E-2E40-4F60-8F41-0F27F8D5D130}"/>
-    <hyperlink ref="A245" r:id="rId244" display="https://stockbit.com/symbol/BSML" xr:uid="{D63F0CA2-4450-420F-A1A4-2EF1C656538D}"/>
-    <hyperlink ref="A246" r:id="rId245" display="https://stockbit.com/symbol/JMAS" xr:uid="{6DDFA51E-C18B-4637-8234-557A8E28759F}"/>
-    <hyperlink ref="A247" r:id="rId246" display="https://stockbit.com/symbol/OBMD" xr:uid="{BE4DD224-B7E9-4A5A-94E6-111B24967E7D}"/>
-    <hyperlink ref="A248" r:id="rId247" display="https://stockbit.com/symbol/BBLD" xr:uid="{A93EFE20-9C7D-4FAC-B3B4-7A80CA3EAACC}"/>
-    <hyperlink ref="A249" r:id="rId248" display="https://stockbit.com/symbol/ELIT" xr:uid="{6BC8ED28-6AB7-45DD-9655-8E1BF29ECA65}"/>
-    <hyperlink ref="A250" r:id="rId249" display="https://stockbit.com/symbol/ZATA" xr:uid="{62C2FD37-D941-4E79-A997-AF12ADC8B92C}"/>
-    <hyperlink ref="A251" r:id="rId250" display="https://stockbit.com/symbol/JAYA" xr:uid="{5F1CD323-3412-4487-B797-9EC7372463D4}"/>
-    <hyperlink ref="A252" r:id="rId251" display="https://stockbit.com/symbol/OKAS" xr:uid="{E30990F3-0E12-4179-A632-E143937E0760}"/>
-    <hyperlink ref="A253" r:id="rId252" display="https://stockbit.com/symbol/AISA" xr:uid="{0324B0F8-3D10-4D28-A9E6-1A3059771E6E}"/>
-    <hyperlink ref="A254" r:id="rId253" display="https://stockbit.com/symbol/LUCK" xr:uid="{DE0413E1-64F1-45C9-BF4D-B9E7933F3FB7}"/>
-    <hyperlink ref="A255" r:id="rId254" display="https://stockbit.com/symbol/PART" xr:uid="{7EC2C668-5B60-49BA-B7A4-DBF4E466D014}"/>
-    <hyperlink ref="A256" r:id="rId255" display="https://stockbit.com/symbol/NAIK" xr:uid="{3453CC5D-6303-43BA-8BB8-C4B2783CA153}"/>
-    <hyperlink ref="A257" r:id="rId256" display="https://stockbit.com/symbol/SEMA" xr:uid="{2B08D094-EB2E-44C7-93FA-54C8CF9E5337}"/>
-    <hyperlink ref="A258" r:id="rId257" display="https://stockbit.com/symbol/NFCX" xr:uid="{21795586-5D40-4AE6-A2CD-E72918038D53}"/>
-    <hyperlink ref="A259" r:id="rId258" display="https://stockbit.com/symbol/SMLE" xr:uid="{97D82F33-1981-4EAE-BF2B-BB3DBC8F7A93}"/>
-    <hyperlink ref="A260" r:id="rId259" display="https://stockbit.com/symbol/CLPI" xr:uid="{4E8005FF-A95C-4F05-B965-1635E507FD86}"/>
-    <hyperlink ref="A261" r:id="rId260" display="https://stockbit.com/symbol/BACA" xr:uid="{ED6F5950-A396-49AA-8D78-309724BF49C0}"/>
-    <hyperlink ref="A262" r:id="rId261" display="https://stockbit.com/symbol/ASLI" xr:uid="{BAD03912-BF3E-45E8-9496-193706BEA876}"/>
-    <hyperlink ref="A263" r:id="rId262" display="https://stockbit.com/symbol/JSMR" xr:uid="{CBD4BEFB-D732-44F1-8F0F-9DE27616C507}"/>
-    <hyperlink ref="A264" r:id="rId263" display="https://stockbit.com/symbol/WOOD" xr:uid="{D172ED7A-2426-4317-8FD3-B4B90D796C7B}"/>
-    <hyperlink ref="A265" r:id="rId264" display="https://stockbit.com/symbol/BIKE" xr:uid="{EE72D05D-DAF3-46F0-A3A4-DCE44A576E47}"/>
-    <hyperlink ref="A266" r:id="rId265" display="https://stockbit.com/symbol/TMPO" xr:uid="{0707B700-BD15-423D-8CC4-E2C28810E3AA}"/>
-    <hyperlink ref="A267" r:id="rId266" display="https://stockbit.com/symbol/AGAR" xr:uid="{31A6AF77-1428-48C9-8BE7-39200145F242}"/>
-    <hyperlink ref="A268" r:id="rId267" display="https://stockbit.com/symbol/TRST" xr:uid="{86E220D5-1A1A-4A5F-847C-D114A036548C}"/>
-    <hyperlink ref="A269" r:id="rId268" display="https://stockbit.com/symbol/SOTS" xr:uid="{EFE2394E-5331-426E-91C8-E89F6485A978}"/>
-    <hyperlink ref="A270" r:id="rId269" display="https://stockbit.com/symbol/PJHB" xr:uid="{7500AAFE-3537-4E66-8EF3-7CFCE0C50E10}"/>
-    <hyperlink ref="A271" r:id="rId270" display="https://stockbit.com/symbol/UNTD" xr:uid="{40C416F4-0F50-4314-AE4A-14A9D8C25172}"/>
-    <hyperlink ref="A272" r:id="rId271" display="https://stockbit.com/symbol/KLAS" xr:uid="{C2F38486-28C4-4981-BEE0-60DECF85D24F}"/>
-    <hyperlink ref="A273" r:id="rId272" display="https://stockbit.com/symbol/BIRD" xr:uid="{968266E6-42F1-4261-929F-3FE05B70BCD9}"/>
-    <hyperlink ref="A274" r:id="rId273" display="https://stockbit.com/symbol/IMPC" xr:uid="{A8EA745E-AFCF-42D8-95E9-B7BCEBF15FF1}"/>
-    <hyperlink ref="A275" r:id="rId274" display="https://stockbit.com/symbol/CHIP" xr:uid="{8EE5500F-F305-413E-AE85-FE64A18E3EA1}"/>
-    <hyperlink ref="A276" r:id="rId275" display="https://stockbit.com/symbol/NIRO" xr:uid="{A3BB8B6A-D098-4D44-A0DB-016184F91FCA}"/>
-    <hyperlink ref="A277" r:id="rId276" display="https://stockbit.com/symbol/BJBR" xr:uid="{AA05E163-3031-4B81-B2E6-871F698D5E9B}"/>
-    <hyperlink ref="A278" r:id="rId277" display="https://stockbit.com/symbol/ITIC" xr:uid="{1EC0DD5A-2A0F-44E2-9D3A-48D82C9361F5}"/>
-    <hyperlink ref="A279" r:id="rId278" display="https://stockbit.com/symbol/RAJA" xr:uid="{EC1AE20D-9D40-4807-AE1B-5C778DF6F7D9}"/>
-    <hyperlink ref="A280" r:id="rId279" display="https://stockbit.com/symbol/DEFI" xr:uid="{E012104D-EEF0-42F6-8AD8-82C274A7E2EC}"/>
-    <hyperlink ref="A281" r:id="rId280" display="https://stockbit.com/symbol/AHAP" xr:uid="{490CA07E-5526-4C35-9E8E-B140A03F6524}"/>
-    <hyperlink ref="A282" r:id="rId281" display="https://stockbit.com/symbol/MGNA" xr:uid="{3E094D3C-7617-4FFB-986B-46440271F97A}"/>
-    <hyperlink ref="A283" r:id="rId282" display="https://stockbit.com/symbol/MSIE" xr:uid="{6B8A52C7-2673-4F9C-9580-8AE41CF59617}"/>
-    <hyperlink ref="A284" r:id="rId283" display="https://stockbit.com/symbol/BBSI" xr:uid="{FE670BEA-096D-4A17-BBD3-B51EADF9CBC6}"/>
-    <hyperlink ref="A285" r:id="rId284" display="https://stockbit.com/symbol/BIPP" xr:uid="{2071B66D-CC86-47D8-94B8-06096F0FB9FA}"/>
-    <hyperlink ref="A286" r:id="rId285" display="https://stockbit.com/symbol/ENZO" xr:uid="{C25021C4-FE7F-4C43-A5B7-7AC14865B5F3}"/>
-    <hyperlink ref="A287" r:id="rId286" display="https://stockbit.com/symbol/PPGL" xr:uid="{C0E2E7A2-9DE5-4659-AC40-80DEEA71F871}"/>
-    <hyperlink ref="A288" r:id="rId287" display="https://stockbit.com/symbol/LMAX" xr:uid="{D41E8B79-C070-4FD1-ACDF-34CAD412B8BB}"/>
-    <hyperlink ref="A289" r:id="rId288" display="https://stockbit.com/symbol/MDRN" xr:uid="{9724D37A-FE54-4C5B-99AA-0D87FD29E89E}"/>
-    <hyperlink ref="A290" r:id="rId289" display="https://stockbit.com/symbol/TOSK" xr:uid="{278F6C1A-35A7-4F27-8CFF-6460B3193FB9}"/>
-    <hyperlink ref="A291" r:id="rId290" display="https://stockbit.com/symbol/SFAN" xr:uid="{D47B124D-D609-47CD-BFCC-D93D4608507D}"/>
-    <hyperlink ref="A292" r:id="rId291" display="https://stockbit.com/symbol/BRNA" xr:uid="{20B22541-4D03-418C-BA4B-A958F35018F2}"/>
-    <hyperlink ref="A293" r:id="rId292" display="https://stockbit.com/symbol/JIHD" xr:uid="{3510F5C1-AF50-479F-B2E0-ED4894CD0D91}"/>
-    <hyperlink ref="A294" r:id="rId293" display="https://stockbit.com/symbol/VERN" xr:uid="{2B78E951-8F9C-4961-891E-AAA86DB7EF61}"/>
-    <hyperlink ref="A295" r:id="rId294" display="https://stockbit.com/symbol/HUMI" xr:uid="{845DB5AD-8101-417E-9A4E-9463950281C5}"/>
-    <hyperlink ref="A296" r:id="rId295" display="https://stockbit.com/symbol/PTMP" xr:uid="{752B4D4D-C101-4F4D-8A19-CB844B25A1BB}"/>
-    <hyperlink ref="A297" r:id="rId296" display="https://stockbit.com/symbol/MEDC" xr:uid="{4B31BA9A-DD4F-43D8-893E-260BFD2BF55C}"/>
-    <hyperlink ref="A298" r:id="rId297" display="https://stockbit.com/symbol/WAPO" xr:uid="{9AC81992-8392-4F1F-AB36-99754B5DDC66}"/>
-    <hyperlink ref="A299" r:id="rId298" display="https://stockbit.com/symbol/MKTR" xr:uid="{76CFA7DA-7EF5-4225-827F-89170648D187}"/>
-    <hyperlink ref="A300" r:id="rId299" display="https://stockbit.com/symbol/PPRI" xr:uid="{BC85AAAB-8D41-4B43-BA67-36F3978F2E26}"/>
-    <hyperlink ref="A301" r:id="rId300" display="https://stockbit.com/symbol/HBAT" xr:uid="{BAD79A86-5B35-4C1E-996E-5BE28BC5C3DE}"/>
-    <hyperlink ref="A302" r:id="rId301" display="https://stockbit.com/symbol/PEGE" xr:uid="{90D864AE-40B9-4D5E-9536-D89FCB6CD085}"/>
-    <hyperlink ref="A303" r:id="rId302" display="https://stockbit.com/symbol/TEBE" xr:uid="{EEABC41E-EE42-4E99-B14E-58B2BAAF1487}"/>
-    <hyperlink ref="A304" r:id="rId303" display="https://stockbit.com/symbol/FOOD" xr:uid="{367C77C9-F5A4-4327-8C5F-1AC7E34E76FA}"/>
-    <hyperlink ref="A305" r:id="rId304" display="https://stockbit.com/symbol/DFAM" xr:uid="{A1CD23C2-58F9-41B9-956E-EA9FACC6FAF0}"/>
-    <hyperlink ref="A306" r:id="rId305" display="https://stockbit.com/symbol/BELI" xr:uid="{0B9AC5E7-C763-4BAE-9F62-4046402BC5DB}"/>
-    <hyperlink ref="A307" r:id="rId306" display="https://stockbit.com/symbol/SSMS" xr:uid="{8E7A4E9B-A75C-4205-9CEC-A86F302D0081}"/>
-    <hyperlink ref="A308" r:id="rId307" display="https://stockbit.com/symbol/PRDA" xr:uid="{904FF731-2C39-47BE-A363-5CBAAF3860D4}"/>
-    <hyperlink ref="A309" r:id="rId308" display="https://stockbit.com/symbol/RGAS" xr:uid="{80C711B0-A8CF-4E33-9256-16E38A9F2EEC}"/>
-    <hyperlink ref="A310" r:id="rId309" display="https://stockbit.com/symbol/PTMR" xr:uid="{759A7035-027E-486D-8BCE-10B1549EADA2}"/>
-    <hyperlink ref="A311" r:id="rId310" display="https://stockbit.com/symbol/KARW" xr:uid="{A2A56375-5198-4222-941B-3EE1B8B6D2ED}"/>
-    <hyperlink ref="A312" r:id="rId311" display="https://stockbit.com/symbol/RAAM" xr:uid="{BAF437C8-5ADF-4C22-9777-9D3129D4B394}"/>
-    <hyperlink ref="A313" r:id="rId312" display="https://stockbit.com/symbol/MERI" xr:uid="{10AD5E78-0835-44F6-859D-08D142566F27}"/>
-    <hyperlink ref="A314" r:id="rId313" display="https://stockbit.com/symbol/TIRT" xr:uid="{A674DA51-0299-4614-9B00-5FFCDF9A4410}"/>
-    <hyperlink ref="A315" r:id="rId314" display="https://stockbit.com/symbol/BWPT" xr:uid="{51DFF975-3C5F-43A7-BEF6-DF09232A38A9}"/>
-    <hyperlink ref="A316" r:id="rId315" display="https://stockbit.com/symbol/ASJT" xr:uid="{8E34BADB-F2CD-477E-A10C-EA3DA3FEDAA1}"/>
-    <hyperlink ref="A317" r:id="rId316" display="https://stockbit.com/symbol/CBRE" xr:uid="{B5A8E2D7-3036-4187-92B5-F43434995B79}"/>
-    <hyperlink ref="A318" r:id="rId317" display="https://stockbit.com/symbol/TGUK" xr:uid="{53F44BEC-501B-4179-BBCE-C13F9FD556A1}"/>
-    <hyperlink ref="A319" r:id="rId318" display="https://stockbit.com/symbol/SINI" xr:uid="{CF9A3ABF-C231-4093-8D79-55BF3D3EC357}"/>
-    <hyperlink ref="A320" r:id="rId319" display="https://stockbit.com/symbol/KETR" xr:uid="{120EB5E7-12ED-46E1-9149-19AF49BD4C92}"/>
-    <hyperlink ref="A321" r:id="rId320" display="https://stockbit.com/symbol/IPCC" xr:uid="{2A984D6C-817E-4C8A-864D-2A3BF33CE6D8}"/>
-    <hyperlink ref="A322" r:id="rId321" display="https://stockbit.com/symbol/RALS" xr:uid="{DBD687BF-17B7-4662-A23A-CD144E0A7FA5}"/>
-    <hyperlink ref="A323" r:id="rId322" display="https://stockbit.com/symbol/APII" xr:uid="{99ABD0C2-146C-4ADC-B812-44B364886BDA}"/>
-    <hyperlink ref="A324" r:id="rId323" display="https://stockbit.com/symbol/EPAC" xr:uid="{324F2574-E172-4FE2-ACC7-8674B7D675A5}"/>
-    <hyperlink ref="A325" r:id="rId324" display="https://stockbit.com/symbol/TRIN" xr:uid="{17201B05-5AFE-4837-B80A-706D5FE0FEDA}"/>
-    <hyperlink ref="A326" r:id="rId325" display="https://stockbit.com/symbol/BAJA" xr:uid="{93D459C9-D687-47EE-9731-E4DCC9BF142C}"/>
-    <hyperlink ref="A327" r:id="rId326" display="https://stockbit.com/symbol/INAI" xr:uid="{18DD8725-4BA7-48EB-8C7F-21E94C2C54BC}"/>
-    <hyperlink ref="A328" r:id="rId327" display="https://stockbit.com/symbol/STRK" xr:uid="{8021D86A-C34E-43F1-948C-2A5C6E533755}"/>
-    <hyperlink ref="A329" r:id="rId328" display="https://stockbit.com/symbol/ASGR" xr:uid="{57B83701-E722-4F20-B71A-C6E398C13192}"/>
-    <hyperlink ref="A330" r:id="rId329" display="https://stockbit.com/symbol/FUJI" xr:uid="{0C2F2D78-A484-41AC-82D8-AA7000A62B07}"/>
-    <hyperlink ref="A331" r:id="rId330" display="https://stockbit.com/symbol/MMIX" xr:uid="{9319AA98-D05B-4370-9608-4DA875DD5FEE}"/>
-    <hyperlink ref="A332" r:id="rId331" display="https://stockbit.com/symbol/AYAM" xr:uid="{38C5F41A-932B-4E03-AB36-F5D73336F2BB}"/>
-    <hyperlink ref="A333" r:id="rId332" display="https://stockbit.com/symbol/IDEA" xr:uid="{8B8BF9A7-FE3E-40A0-B107-7C8B85E66538}"/>
-    <hyperlink ref="A334" r:id="rId333" display="https://stockbit.com/symbol/WSKT" xr:uid="{19E6008C-1BCD-4DCB-AA14-12F0499E079C}"/>
-    <hyperlink ref="A335" r:id="rId334" display="https://stockbit.com/symbol/KAQI" xr:uid="{9DB396C5-72BB-4E1B-9F30-9AE8A0C38398}"/>
-    <hyperlink ref="A336" r:id="rId335" display="https://stockbit.com/symbol/LRNA" xr:uid="{43CA8B8F-B8A7-4117-92C6-E833738FAD0F}"/>
-    <hyperlink ref="A337" r:id="rId336" display="https://stockbit.com/symbol/KOKA" xr:uid="{220DEA26-5844-4509-8794-95131FDAB77A}"/>
-    <hyperlink ref="A338" r:id="rId337" display="https://stockbit.com/symbol/PRIM" xr:uid="{356A6A3D-67E7-497C-A956-FEE64B1969D7}"/>
-    <hyperlink ref="A339" r:id="rId338" display="https://stockbit.com/symbol/BYAN" xr:uid="{747E6927-FCF5-4CC0-92E9-C6772021E49D}"/>
-    <hyperlink ref="A340" r:id="rId339" display="https://stockbit.com/symbol/OMRE" xr:uid="{66506208-63FE-48A2-926E-16B15B7A1447}"/>
-    <hyperlink ref="A341" r:id="rId340" display="https://stockbit.com/symbol/VTNY" xr:uid="{2EDD5F3B-AD24-4D9D-899A-A566087D9A0D}"/>
-    <hyperlink ref="A342" r:id="rId341" display="https://stockbit.com/symbol/KONI" xr:uid="{4EB89947-4029-46F4-B930-CF73D6914737}"/>
-    <hyperlink ref="A343" r:id="rId342" display="https://stockbit.com/symbol/CYBR" xr:uid="{73BC0185-2183-450C-9EDA-7514AC8C7EB8}"/>
-    <hyperlink ref="A344" r:id="rId343" display="https://stockbit.com/symbol/GEMA" xr:uid="{4C816162-05AA-4350-B3B2-7815EC5F4822}"/>
-    <hyperlink ref="A345" r:id="rId344" display="https://stockbit.com/symbol/FORE" xr:uid="{121A4A5B-3609-48B8-ABD5-D4FE83915450}"/>
-    <hyperlink ref="A346" r:id="rId345" display="https://stockbit.com/symbol/RDTX" xr:uid="{2E6A050E-9D4E-4F1B-B838-B07CC2E29C05}"/>
-    <hyperlink ref="A347" r:id="rId346" display="https://stockbit.com/symbol/LABS" xr:uid="{6C13170F-C2F2-4AE2-B481-66B3A9E94454}"/>
-    <hyperlink ref="A348" r:id="rId347" display="https://stockbit.com/symbol/NRCA" xr:uid="{A8498D8F-3CD2-4B4D-B5C8-208770D14F27}"/>
-    <hyperlink ref="A349" r:id="rId348" display="https://stockbit.com/symbol/NZIA" xr:uid="{E2981B1D-0612-4F93-AFBF-EF3C225FF96A}"/>
-    <hyperlink ref="A350" r:id="rId349" display="https://stockbit.com/symbol/CHEK" xr:uid="{57CD78EA-CC81-4F64-B725-76FD71E41754}"/>
-    <hyperlink ref="A351" r:id="rId350" display="https://stockbit.com/symbol/AYLS" xr:uid="{35155961-02DF-4225-A95F-93E1FBA83711}"/>
-    <hyperlink ref="A352" r:id="rId351" display="https://stockbit.com/symbol/FAST" xr:uid="{F7E3990C-1C3B-4F15-AC03-249B0277800D}"/>
-    <hyperlink ref="A353" r:id="rId352" display="https://stockbit.com/symbol/ISEA" xr:uid="{ABD1F984-BF08-4294-B620-B1AF6FCF9FE3}"/>
-    <hyperlink ref="A354" r:id="rId353" display="https://stockbit.com/symbol/LIVE" xr:uid="{32592EAC-0699-44D1-9E3A-FC65A4D47EAE}"/>
-    <hyperlink ref="A355" r:id="rId354" display="https://stockbit.com/symbol/JTPE" xr:uid="{8B71E3E4-C719-4C7B-92FE-2FA0B12D7FF4}"/>
-    <hyperlink ref="A356" r:id="rId355" display="https://stockbit.com/symbol/PKPK" xr:uid="{0EC6D35D-5C29-49EE-BAC5-52C4DC582C2B}"/>
-    <hyperlink ref="A357" r:id="rId356" display="https://stockbit.com/symbol/SGER" xr:uid="{751BCCBB-673E-4EC2-A960-E6AFB4D8FC7C}"/>
-    <hyperlink ref="A358" r:id="rId357" display="https://stockbit.com/symbol/DKHH" xr:uid="{BE7DA53C-47BD-404B-B0F1-6E14814747A1}"/>
-    <hyperlink ref="A359" r:id="rId358" display="https://stockbit.com/symbol/TFAS" xr:uid="{46EFF86D-11F2-405F-860D-FED8EF1FF84A}"/>
-    <hyperlink ref="A360" r:id="rId359" display="https://stockbit.com/symbol/MAYA" xr:uid="{D35BAAFB-5949-47EC-9053-F6315E75237F}"/>
-    <hyperlink ref="A361" r:id="rId360" display="https://stockbit.com/symbol/VAST" xr:uid="{2D170649-3E27-4E20-B94D-37234229CC97}"/>
-    <hyperlink ref="A362" r:id="rId361" display="https://stockbit.com/symbol/ACRO" xr:uid="{71C74D24-7BC7-4D9F-AF14-BF7419D2670C}"/>
-    <hyperlink ref="A363" r:id="rId362" display="https://stockbit.com/symbol/PTPS" xr:uid="{03F5B0D1-B783-4F0D-B885-E24B1BCAEE6B}"/>
-    <hyperlink ref="A364" r:id="rId363" display="https://stockbit.com/symbol/TRUS" xr:uid="{C76CF292-3F66-41E2-B454-21471C0A5E42}"/>
-    <hyperlink ref="A365" r:id="rId364" display="https://stockbit.com/symbol/BJTM" xr:uid="{F7D88CDC-074C-4EFC-AFF3-90273BEBCD40}"/>
-    <hyperlink ref="A366" r:id="rId365" display="https://stockbit.com/symbol/BEER" xr:uid="{D7FE90F6-A757-4183-B85A-F6831368D568}"/>
-    <hyperlink ref="A367" r:id="rId366" display="https://stockbit.com/symbol/SNLK" xr:uid="{F1D06221-0810-4B13-B760-146C5C7492B0}"/>
-    <hyperlink ref="A368" r:id="rId367" display="https://stockbit.com/symbol/MAHA" xr:uid="{7D1F9EA4-120A-490C-BE25-4D778D1DC5B4}"/>
-    <hyperlink ref="A369" r:id="rId368" display="https://stockbit.com/symbol/SWID" xr:uid="{E1EDD5B6-1C63-4B5B-A5C6-A9ACAA828FF7}"/>
-    <hyperlink ref="A370" r:id="rId369" display="https://stockbit.com/symbol/FAPA" xr:uid="{4E5BB54F-85B0-4DF3-AD19-404A63A4C3A3}"/>
-    <hyperlink ref="A371" r:id="rId370" display="https://stockbit.com/symbol/CRSN" xr:uid="{BE12783E-7AE5-4E69-925D-742548EF0E6D}"/>
-    <hyperlink ref="A372" r:id="rId371" display="https://stockbit.com/symbol/SRSN" xr:uid="{D2CD9539-FCD4-4642-9DFB-8DB37073B5F4}"/>
-    <hyperlink ref="A373" r:id="rId372" display="https://stockbit.com/symbol/HEXA" xr:uid="{AC1957E9-768D-4CF2-87B5-0AD1F6804FBD}"/>
-    <hyperlink ref="A374" r:id="rId373" display="https://stockbit.com/symbol/DSSA" xr:uid="{A8B41B7D-999B-4E54-9B15-862D7AA3BD72}"/>
-    <hyperlink ref="A375" r:id="rId374" display="https://stockbit.com/symbol/INCO" xr:uid="{CFFDEF76-6741-4A0C-947A-793DCC1E51CD}"/>
-    <hyperlink ref="A376" r:id="rId375" display="https://stockbit.com/symbol/BCAP" xr:uid="{341CECCE-8A61-4BCE-BED7-2183D3A60E02}"/>
-    <hyperlink ref="A377" r:id="rId376" display="https://stockbit.com/symbol/AXIO" xr:uid="{58670B41-B697-435A-897A-4ED4B4BED1F0}"/>
-    <hyperlink ref="A378" r:id="rId377" display="https://stockbit.com/symbol/TUGU" xr:uid="{AC6A4C5D-3DAA-43C1-B0B4-3D98B3669E33}"/>
-    <hyperlink ref="A379" r:id="rId378" display="https://stockbit.com/symbol/DGIK" xr:uid="{89F167D5-AB61-4675-B57D-AE083FCE5257}"/>
-    <hyperlink ref="A380" r:id="rId379" display="https://stockbit.com/symbol/AALI" xr:uid="{BBD5EDEC-E32A-4EE0-877A-F0742A36964E}"/>
-    <hyperlink ref="A381" r:id="rId380" display="https://stockbit.com/symbol/SUNI" xr:uid="{6AAE1C20-CA3B-4D48-93F1-3FD16DD3A5F3}"/>
-    <hyperlink ref="A382" r:id="rId381" display="https://stockbit.com/symbol/SIDO" xr:uid="{C13EC03B-5781-48AC-B6BA-5CEE41D5FD65}"/>
-    <hyperlink ref="A383" r:id="rId382" display="https://stockbit.com/symbol/OPMS" xr:uid="{E1AD95D4-E417-43A6-9282-678414E7CADE}"/>
-    <hyperlink ref="A384" r:id="rId383" display="https://stockbit.com/symbol/ZYRX" xr:uid="{CFF7B2D2-6931-4694-9679-D75674A04069}"/>
-    <hyperlink ref="A385" r:id="rId384" display="https://stockbit.com/symbol/BATR" xr:uid="{C4640C7F-8C63-49FE-829F-6F977C839694}"/>
-    <hyperlink ref="A386" r:id="rId385" display="https://stockbit.com/symbol/NAYZ" xr:uid="{B2135F02-17E0-4379-9BB7-27F807CE28A1}"/>
-    <hyperlink ref="A387" r:id="rId386" display="https://stockbit.com/symbol/TYRE" xr:uid="{635A8BF5-DE6E-44B9-BA63-52D23F3F8CC6}"/>
-    <hyperlink ref="A388" r:id="rId387" display="https://stockbit.com/symbol/DIVA" xr:uid="{A0A09237-1F10-4AFD-A72A-72C10DD7DC81}"/>
-    <hyperlink ref="A389" r:id="rId388" display="https://stockbit.com/symbol/RLCO" xr:uid="{91672F9C-D9BA-42BE-A348-97F19935873B}"/>
-    <hyperlink ref="A390" r:id="rId389" display="https://stockbit.com/symbol/HYGN" xr:uid="{68CAAFDB-5251-4C67-A26A-22DB349883B9}"/>
-    <hyperlink ref="A391" r:id="rId390" display="https://stockbit.com/symbol/AREA" xr:uid="{4420AA57-5E58-4245-B4C4-038A3BF25908}"/>
-    <hyperlink ref="A392" r:id="rId391" display="https://stockbit.com/symbol/PANR" xr:uid="{44751E89-8EDC-4759-89A4-47CB6D703E2D}"/>
-    <hyperlink ref="A393" r:id="rId392" display="https://stockbit.com/symbol/TCPI" xr:uid="{19922139-1051-47FA-AA65-E71B15A01732}"/>
-    <hyperlink ref="A394" r:id="rId393" display="https://stockbit.com/symbol/MANG" xr:uid="{84EEE727-214A-4806-B520-1B5489F0D5E4}"/>
-    <hyperlink ref="A395" r:id="rId394" display="https://stockbit.com/symbol/RCCC" xr:uid="{44B47084-A586-4AFD-9EC5-689B6D3BD10C}"/>
-    <hyperlink ref="A396" r:id="rId395" display="https://stockbit.com/symbol/SMGA" xr:uid="{B54211C7-7943-4660-9D08-74118E8D0F0C}"/>
-    <hyperlink ref="A397" r:id="rId396" display="https://stockbit.com/symbol/IKPM" xr:uid="{D702B6C0-ED93-4013-BEBE-9C6148574707}"/>
-    <hyperlink ref="A398" r:id="rId397" display="https://stockbit.com/symbol/PMUI" xr:uid="{AC4B1CF0-E076-4BF1-8441-688C22EF6C28}"/>
-    <hyperlink ref="A399" r:id="rId398" display="https://stockbit.com/symbol/BLOG" xr:uid="{26555F9B-5111-433D-8775-4DDB549E921D}"/>
-    <hyperlink ref="A400" r:id="rId399" display="https://stockbit.com/symbol/RSCH" xr:uid="{4A3B9251-60D0-4A5B-8CC0-76EFAE4069E2}"/>
-    <hyperlink ref="A401" r:id="rId400" display="https://stockbit.com/symbol/JATI" xr:uid="{BA5018D9-DBD6-437D-9AB3-21CFA777657D}"/>
-    <hyperlink ref="A402" r:id="rId401" display="https://stockbit.com/symbol/ATAP" xr:uid="{692D33C0-78C4-4BD2-A05A-E416A37D6223}"/>
-    <hyperlink ref="A403" r:id="rId402" display="https://stockbit.com/symbol/YOII" xr:uid="{E427A9D9-C4CF-459A-9C39-A22F1C8BCB7E}"/>
-    <hyperlink ref="A404" r:id="rId403" display="https://stockbit.com/symbol/ROCK" xr:uid="{5F837DEA-3BAB-4282-AB2A-2689E1F5EDB3}"/>
-    <hyperlink ref="A405" r:id="rId404" display="https://stockbit.com/symbol/TOOL" xr:uid="{DD7DF7BE-5726-4A23-A825-03370CEAEB70}"/>
-    <hyperlink ref="A406" r:id="rId405" display="https://stockbit.com/symbol/GTRA" xr:uid="{1BABEC48-7520-4D50-8F13-B30C1DF9FDD8}"/>
-    <hyperlink ref="A407" r:id="rId406" display="https://stockbit.com/symbol/TAMU" xr:uid="{19A3B097-4265-4585-A6D7-61151B980CF7}"/>
-    <hyperlink ref="A408" r:id="rId407" display="https://stockbit.com/symbol/GUNA" xr:uid="{5A0FC82E-8D96-4E0E-9046-75EC4CFAD813}"/>
-    <hyperlink ref="A409" r:id="rId408" display="https://stockbit.com/symbol/BAIK" xr:uid="{6A289052-D6AA-441E-8600-0C0FE83B9897}"/>
-    <hyperlink ref="A410" r:id="rId409" display="https://stockbit.com/symbol/HOMI" xr:uid="{1D47B0E9-2DC6-4A2F-B52B-54C24BD62957}"/>
-    <hyperlink ref="A411" r:id="rId410" display="https://stockbit.com/symbol/KRAS" xr:uid="{C6ED12E6-2C8B-4BA5-AF79-FE9F7F565464}"/>
-    <hyperlink ref="A412" r:id="rId411" display="https://stockbit.com/symbol/MKAP" xr:uid="{5939EDB6-B3C9-480B-88EB-D264C203696C}"/>
-    <hyperlink ref="A413" r:id="rId412" display="https://stockbit.com/symbol/POLI" xr:uid="{82390280-1BA1-4E09-9876-97E6C21F8D35}"/>
-    <hyperlink ref="A414" r:id="rId413" display="https://stockbit.com/symbol/DGNS" xr:uid="{3EDB20E7-F722-4FFC-90A0-8CDBDAAE1EA9}"/>
-    <hyperlink ref="A415" r:id="rId414" display="https://stockbit.com/symbol/VISI" xr:uid="{07AF987B-6171-4E1F-BC34-4DF7945D07EA}"/>
-    <hyperlink ref="A416" r:id="rId415" display="https://stockbit.com/symbol/MHKI" xr:uid="{E58EE070-5F80-43A0-918F-0FA3E113BB26}"/>
-    <hyperlink ref="A417" r:id="rId416" display="https://stockbit.com/symbol/AMMS" xr:uid="{E2E8DF73-CC89-404B-ACC4-FA7890B2E99C}"/>
-    <hyperlink ref="A418" r:id="rId417" display="https://stockbit.com/symbol/RMKO" xr:uid="{D2B92E29-407F-4DE8-AD9E-5844A79D62D3}"/>
-    <hyperlink ref="A419" r:id="rId418" display="https://stockbit.com/symbol/ALII" xr:uid="{B7573E5F-0311-479C-B10D-1CFEBA121337}"/>
-    <hyperlink ref="A420" r:id="rId419" display="https://stockbit.com/symbol/UCID" xr:uid="{9F1E920B-A6FB-464B-9548-9175D0693CA7}"/>
-    <hyperlink ref="A421" r:id="rId420" display="https://stockbit.com/symbol/NICK" xr:uid="{7B861225-383E-4D44-A79C-AB7B529ADC45}"/>
-    <hyperlink ref="A422" r:id="rId421" display="https://stockbit.com/symbol/HAIS" xr:uid="{221DE129-ED51-4A1B-8B9E-4B4BD663CB0A}"/>
-    <hyperlink ref="A423" r:id="rId422" display="https://stockbit.com/symbol/AUTO" xr:uid="{F592ED47-FC82-4264-BB3E-EC19FFEB126E}"/>
-    <hyperlink ref="A424" r:id="rId423" display="https://stockbit.com/symbol/UNIQ" xr:uid="{627330D4-9B91-43CA-86AB-54DDF22EE6B4}"/>
-    <hyperlink ref="A425" r:id="rId424" display="https://stockbit.com/symbol/NPGF" xr:uid="{00EA33C5-052C-4DDE-8749-4FCB3DA87CAF}"/>
-    <hyperlink ref="A426" r:id="rId425" display="https://stockbit.com/symbol/ERAL" xr:uid="{98D331A5-0249-4FBA-A8C0-3E2EB8E48698}"/>
-    <hyperlink ref="A427" r:id="rId426" display="https://stockbit.com/symbol/DOSS" xr:uid="{854D78D1-212D-4875-902A-AB4BBFEDEE99}"/>
-    <hyperlink ref="A428" r:id="rId427" display="https://stockbit.com/symbol/HGII" xr:uid="{CC7FA0C4-DC4B-41A4-B4C2-F3773E2934A3}"/>
-    <hyperlink ref="A429" r:id="rId428" display="https://stockbit.com/symbol/PSKT" xr:uid="{5FBE51AE-F62E-48DE-B9D6-F8CB80675951}"/>
-    <hyperlink ref="A430" r:id="rId429" display="https://stockbit.com/symbol/MARK" xr:uid="{0495A566-9E62-436E-B354-98CD2EBBED4F}"/>
-    <hyperlink ref="A431" r:id="rId430" display="https://stockbit.com/symbol/BKSL" xr:uid="{F3FFC474-93EA-4E79-AFD8-7AC20C030933}"/>
-    <hyperlink ref="A432" r:id="rId431" display="https://stockbit.com/symbol/BINA" xr:uid="{A7216BEA-F10B-44A6-8099-5DBE88C5D6D5}"/>
-    <hyperlink ref="A433" r:id="rId432" display="https://stockbit.com/symbol/RUNS" xr:uid="{4D0990EC-2F76-4A4C-A718-72FAB52A5244}"/>
-    <hyperlink ref="A434" r:id="rId433" display="https://stockbit.com/symbol/ICBP" xr:uid="{D7EA0583-CB75-46EE-8A70-A58C7A92F92C}"/>
-    <hyperlink ref="A435" r:id="rId434" display="https://stockbit.com/symbol/MAXI" xr:uid="{F509FCB8-7832-44FF-927F-9A39A5854D5B}"/>
-    <hyperlink ref="A436" r:id="rId435" display="https://stockbit.com/symbol/PORT" xr:uid="{D2297610-CECC-4917-9180-3D50339AA004}"/>
-    <hyperlink ref="A437" r:id="rId436" display="https://stockbit.com/symbol/CSIS" xr:uid="{C73E3F91-A7B6-4220-B2CB-3459CCED313A}"/>
-    <hyperlink ref="A438" r:id="rId437" display="https://stockbit.com/symbol/DMMX" xr:uid="{E47A0786-C661-4A96-ADCE-49F7157D4EB1}"/>
-    <hyperlink ref="A439" r:id="rId438" display="https://stockbit.com/symbol/MITI" xr:uid="{C35A0DF3-3F95-44ED-AD6A-DA3C215F20DB}"/>
-    <hyperlink ref="A440" r:id="rId439" display="https://stockbit.com/symbol/MCOR" xr:uid="{E2FB6EC4-FDC6-4CC4-8E46-133F0CCD0FB4}"/>
-    <hyperlink ref="A441" r:id="rId440" display="https://stockbit.com/symbol/BOBA" xr:uid="{E3BD4B4A-60BF-4FF4-BC03-EEED97BDEB7C}"/>
-    <hyperlink ref="A442" r:id="rId441" display="https://stockbit.com/symbol/GRIA" xr:uid="{000617D3-80F3-4B0A-BC21-541A15E799AA}"/>
-    <hyperlink ref="A443" r:id="rId442" display="https://stockbit.com/symbol/BVIC" xr:uid="{D6247941-F0E9-4F8C-9370-B468B96AD4EF}"/>
-    <hyperlink ref="A444" r:id="rId443" display="https://stockbit.com/symbol/SMDR" xr:uid="{950F1C41-13EA-4197-BDC8-D08AAF760FA6}"/>
-    <hyperlink ref="A445" r:id="rId444" display="https://stockbit.com/symbol/GOOD" xr:uid="{70AB547E-DD51-4742-95CB-F33D6B792D1F}"/>
-    <hyperlink ref="A446" r:id="rId445" display="https://stockbit.com/symbol/MYOH" xr:uid="{F4A075B0-0555-4A4D-BD0F-894519CD2C7F}"/>
-    <hyperlink ref="A447" r:id="rId446" display="https://stockbit.com/symbol/SOLA" xr:uid="{7EDB59D0-5238-4D4C-8560-09AE707F7429}"/>
-    <hyperlink ref="A448" r:id="rId447" display="https://stockbit.com/symbol/TRGU" xr:uid="{A9B9547C-3334-4E4E-B276-0F90B4B83A36}"/>
-    <hyperlink ref="A449" r:id="rId448" display="https://stockbit.com/symbol/KICI" xr:uid="{CED987DB-8B15-4356-BA75-657441F1FD3F}"/>
-    <hyperlink ref="A450" r:id="rId449" display="https://stockbit.com/symbol/MPXL" xr:uid="{2B0C201B-5CE5-453E-B019-7D4389CEF066}"/>
-    <hyperlink ref="A451" r:id="rId450" display="https://stockbit.com/symbol/IBFN" xr:uid="{0862903C-BA29-43F4-8726-10B618C37F30}"/>
-    <hyperlink ref="A452" r:id="rId451" display="https://stockbit.com/symbol/PNGO" xr:uid="{1F59220A-6E1C-407E-BF62-B55A1AC8BC8D}"/>
-    <hyperlink ref="A453" r:id="rId452" display="https://stockbit.com/symbol/ITMA" xr:uid="{A8FB2F44-FF9B-49F2-823E-CD0EFFF4363D}"/>
-    <hyperlink ref="A454" r:id="rId453" display="https://stockbit.com/symbol/AADI" xr:uid="{24E5D490-E262-4DCD-8854-5599456A5012}"/>
-    <hyperlink ref="A455" r:id="rId454" display="https://stockbit.com/symbol/AMMN" xr:uid="{B62C1DA5-39E8-4D9B-88CF-9CED245FD963}"/>
-    <hyperlink ref="A456" r:id="rId455" display="https://stockbit.com/symbol/SATU" xr:uid="{50A8CF83-E890-476F-AB22-66C91E19BFDA}"/>
-    <hyperlink ref="A457" r:id="rId456" display="https://stockbit.com/symbol/CLAY" xr:uid="{07AB62BF-0222-421F-8E89-63942C9360A0}"/>
-    <hyperlink ref="A458" r:id="rId457" display="https://stockbit.com/symbol/LFLO" xr:uid="{1E92AA38-7782-446A-B0C2-7886C5A67FFD}"/>
-    <hyperlink ref="A459" r:id="rId458" display="https://stockbit.com/symbol/DCII" xr:uid="{AEDA73C0-4BF4-4878-BF14-A6FF9AD3B0D2}"/>
-    <hyperlink ref="A460" r:id="rId459" display="https://stockbit.com/symbol/CMRY" xr:uid="{9A7BBE7B-D100-4BB5-ABC7-443868B2C217}"/>
-    <hyperlink ref="A461" r:id="rId460" display="https://stockbit.com/symbol/KMDS" xr:uid="{451CEE7A-3502-49C2-B738-45F04678B197}"/>
-    <hyperlink ref="A462" r:id="rId461" display="https://stockbit.com/symbol/INOV" xr:uid="{CC068774-407C-4F09-AE1E-7EC1FAB36D6E}"/>
-    <hyperlink ref="A463" r:id="rId462" display="https://stockbit.com/symbol/PEVE" xr:uid="{36939DA2-27DA-44E3-93EB-19AB4AB8DBE5}"/>
-    <hyperlink ref="A464" r:id="rId463" display="https://stockbit.com/symbol/GWSA" xr:uid="{81EC6BD7-FD90-4E6F-8CC9-D193CD5A59B2}"/>
-    <hyperlink ref="A465" r:id="rId464" display="https://stockbit.com/symbol/AMIN" xr:uid="{7119140C-AC78-438E-97DC-47D2C23C6012}"/>
-    <hyperlink ref="A466" r:id="rId465" display="https://stockbit.com/symbol/SHIP" xr:uid="{91736F1A-122F-48BE-B13A-37CEDF53C92D}"/>
-    <hyperlink ref="A467" r:id="rId466" display="https://stockbit.com/symbol/PDES" xr:uid="{C82B2E28-FC39-4A73-BA75-8C67335A406C}"/>
-    <hyperlink ref="A468" r:id="rId467" display="https://stockbit.com/symbol/SIMP" xr:uid="{417670B0-57AF-4988-8957-3E1995A8C989}"/>
-    <hyperlink ref="A469" r:id="rId468" display="https://stockbit.com/symbol/BOAT" xr:uid="{DE17F8C6-B6D8-4D09-86D0-E92EFD6985F1}"/>
-    <hyperlink ref="A470" r:id="rId469" display="https://stockbit.com/symbol/CINT" xr:uid="{8ED25C9A-021D-47F3-899A-35AC2E276BAB}"/>
-    <hyperlink ref="A471" r:id="rId470" display="https://stockbit.com/symbol/TCID" xr:uid="{BECDE687-138E-40F0-8ED4-88B2151C3F88}"/>
-    <hyperlink ref="A472" r:id="rId471" display="https://stockbit.com/symbol/TRUE" xr:uid="{F562A995-C61A-49C9-AFCB-B4C01A0CB804}"/>
-    <hyperlink ref="A473" r:id="rId472" display="https://stockbit.com/symbol/WINE" xr:uid="{72160D4B-5B80-4002-9E1E-E8BEB947D161}"/>
-    <hyperlink ref="A474" r:id="rId473" display="https://stockbit.com/symbol/MDIY" xr:uid="{B06A6729-1A2D-4CAF-8633-9986DE2914B8}"/>
-    <hyperlink ref="A475" r:id="rId474" display="https://stockbit.com/symbol/TIRA" xr:uid="{F9C21988-33AF-48F3-B2BF-1D0EDB124531}"/>
-    <hyperlink ref="A476" r:id="rId475" display="https://stockbit.com/symbol/PZZA" xr:uid="{EFEFC85D-4B5E-4042-A956-2FF0CAFF667A}"/>
-    <hyperlink ref="A477" r:id="rId476" display="https://stockbit.com/symbol/PGJO" xr:uid="{4E2597E2-C445-40C5-97F2-B738C7CA8228}"/>
-    <hyperlink ref="A478" r:id="rId477" display="https://stockbit.com/symbol/DMAS" xr:uid="{7E6473C4-AEB8-46B1-82DB-0C9B4AF72779}"/>
-    <hyperlink ref="A479" r:id="rId478" display="https://stockbit.com/symbol/PGLI" xr:uid="{6E5F1A49-D11D-43B4-A952-F06B3E753308}"/>
-    <hyperlink ref="A480" r:id="rId479" display="https://stockbit.com/symbol/PPRE" xr:uid="{348869DA-1B1D-4B42-ABC6-4FD4A2399A61}"/>
-    <hyperlink ref="A481" r:id="rId480" display="https://stockbit.com/symbol/MBSS" xr:uid="{388C62EA-BF4B-4600-85CE-2CAF80C79D40}"/>
-    <hyperlink ref="A482" r:id="rId481" display="https://stockbit.com/symbol/RIGS" xr:uid="{881F500E-E699-4651-9D36-21731445BC99}"/>
-    <hyperlink ref="A483" r:id="rId482" display="https://stockbit.com/symbol/LPIN" xr:uid="{AE48458F-32DA-4D07-9C6B-FC4499FD09DC}"/>
-    <hyperlink ref="A484" r:id="rId483" display="https://stockbit.com/symbol/SUPA" xr:uid="{189D48C6-E35C-4DC5-91AE-14B760091ADF}"/>
-    <hyperlink ref="A485" r:id="rId484" display="https://stockbit.com/symbol/FWCT" xr:uid="{B7C319BE-B3D2-4D18-9399-9BB2EFDA820A}"/>
-    <hyperlink ref="A486" r:id="rId485" display="https://stockbit.com/symbol/RISE" xr:uid="{65388D60-AE62-4850-9AFE-F5EDE24F0513}"/>
-    <hyperlink ref="A487" r:id="rId486" display="https://stockbit.com/symbol/HRUM" xr:uid="{B1119650-9F59-4E58-B894-CDFC5C24FEE7}"/>
-    <hyperlink ref="A488" r:id="rId487" display="https://stockbit.com/symbol/HALO" xr:uid="{CCB2B091-D4E4-42C3-87CC-23CC60D336B9}"/>
-    <hyperlink ref="A489" r:id="rId488" display="https://stockbit.com/symbol/GGRM" xr:uid="{B7C3308A-34A4-43B5-AA83-D1EFB34D082B}"/>
-    <hyperlink ref="A490" r:id="rId489" display="https://stockbit.com/symbol/AKPI" xr:uid="{19EAC49B-A54E-45FA-90AD-F1E959B229AC}"/>
-    <hyperlink ref="A491" r:id="rId490" display="https://stockbit.com/symbol/EKAD" xr:uid="{B89999EE-D56C-475C-9E8F-512E2C3A22FF}"/>
-    <hyperlink ref="A492" r:id="rId491" display="https://stockbit.com/symbol/KEEN" xr:uid="{C0AA61C9-58FE-4E0B-8CDF-7C803A69A6D4}"/>
-    <hyperlink ref="A493" r:id="rId492" display="https://stockbit.com/symbol/BATA" xr:uid="{B8AD5526-0F0E-4345-A5E4-3DC56B7EAA84}"/>
-    <hyperlink ref="A494" r:id="rId493" display="https://stockbit.com/symbol/ASLC" xr:uid="{4F907B92-16A1-427A-AE78-5FC3FEF6CEF6}"/>
-    <hyperlink ref="A495" r:id="rId494" display="https://stockbit.com/symbol/MDLA" xr:uid="{90B93FD6-CDED-4B28-8F33-63FC4648E6A4}"/>
-    <hyperlink ref="A496" r:id="rId495" display="https://stockbit.com/symbol/CANI" xr:uid="{0CDC4030-BD69-4ECB-AA6E-19C36D4A9D17}"/>
-    <hyperlink ref="A497" r:id="rId496" display="https://stockbit.com/symbol/SRAJ" xr:uid="{FC908950-3C5C-4FC3-BDCF-B23749B64FCB}"/>
-    <hyperlink ref="A498" r:id="rId497" display="https://stockbit.com/symbol/EMDE" xr:uid="{5CF99B29-666A-4595-AE84-585F2CFEB3DE}"/>
-    <hyperlink ref="A499" r:id="rId498" display="https://stockbit.com/symbol/CSAP" xr:uid="{1BDD0554-4821-4204-A907-68DCF1C86B0F}"/>
-    <hyperlink ref="A500" r:id="rId499" display="https://stockbit.com/symbol/MIKA" xr:uid="{1493EEB4-6C92-4CE6-A134-CD1DBD5B5F75}"/>
-    <hyperlink ref="A501" r:id="rId500" display="https://stockbit.com/symbol/SMBR" xr:uid="{B881207F-B240-4014-A54E-0E8CC77CAFF3}"/>
-    <hyperlink ref="A502" r:id="rId501" display="https://stockbit.com/symbol/SDPC" xr:uid="{20082EB6-4BDF-4D12-9170-853FA168F01B}"/>
-    <hyperlink ref="A503" r:id="rId502" display="https://stockbit.com/symbol/PSSI" xr:uid="{1A217998-1CD3-4C31-8DA1-1DFCC6221C93}"/>
-    <hyperlink ref="A504" r:id="rId503" display="https://stockbit.com/symbol/ISAT" xr:uid="{F4AB6417-1D5E-4625-8CB2-5D0590F1E52C}"/>
-    <hyperlink ref="A505" r:id="rId504" display="https://stockbit.com/symbol/SAME" xr:uid="{EEC888F2-2B1A-4628-88DC-A9E3176532C8}"/>
-    <hyperlink ref="A506" r:id="rId505" display="https://stockbit.com/symbol/POLA" xr:uid="{F4B7FA84-164D-4C39-AD50-46A7A7E43A16}"/>
-    <hyperlink ref="A507" r:id="rId506" display="https://stockbit.com/symbol/BRAM" xr:uid="{7FB57740-E1B9-4B4E-9E45-9CEE584B5266}"/>
-    <hyperlink ref="A508" r:id="rId507" display="https://stockbit.com/symbol/PANI" xr:uid="{3063E39E-3625-4CC7-BAA5-D84165A673FE}"/>
-    <hyperlink ref="A509" r:id="rId508" display="https://stockbit.com/symbol/CUAN" xr:uid="{21925904-3899-486D-98CF-84233A7EA482}"/>
-    <hyperlink ref="A510" r:id="rId509" display="https://stockbit.com/symbol/PTIS" xr:uid="{4428863D-18A3-4D3C-8A00-94EC27475AB1}"/>
-    <hyperlink ref="A511" r:id="rId510" display="https://stockbit.com/symbol/KKGI" xr:uid="{0D499D2B-92C9-4F79-B2BA-70297A4DD650}"/>
-    <hyperlink ref="A512" r:id="rId511" display="https://stockbit.com/symbol/BBKP" xr:uid="{99FCF4F9-3C02-44AE-845A-5AAB6600A352}"/>
-    <hyperlink ref="A513" r:id="rId512" display="https://stockbit.com/symbol/RONY" xr:uid="{6A66BE39-70EF-42AF-8E6D-FB9297F1D0E6}"/>
-    <hyperlink ref="A514" r:id="rId513" display="https://stockbit.com/symbol/BESS" xr:uid="{D7CACD07-CEC6-4276-827E-5B4F88651A89}"/>
-    <hyperlink ref="A515" r:id="rId514" display="https://stockbit.com/symbol/IRRA" xr:uid="{619A9AAE-22F8-4336-ACDA-78DFA0FFBC20}"/>
-    <hyperlink ref="A516" r:id="rId515" display="https://stockbit.com/symbol/SMIL" xr:uid="{866318DB-BAD5-4DCB-9FD6-A1FA969D1D60}"/>
-    <hyperlink ref="A517" r:id="rId516" display="https://stockbit.com/symbol/CSRA" xr:uid="{991D682E-5943-4149-AE56-836066CC4D31}"/>
-    <hyperlink ref="A518" r:id="rId517" display="https://stockbit.com/symbol/MTLA" xr:uid="{30EE088B-FCAF-4E0E-A696-C37B8A99010B}"/>
-    <hyperlink ref="A519" r:id="rId518" display="https://stockbit.com/symbol/ZONE" xr:uid="{937EBEF3-3079-4455-A2C4-6F7ABE12BCA1}"/>
-    <hyperlink ref="A520" r:id="rId519" display="https://stockbit.com/symbol/CRAB" xr:uid="{95FB2F7B-CC28-4CDB-97F6-4CF3DA4B017E}"/>
-    <hyperlink ref="A521" r:id="rId520" display="https://stockbit.com/symbol/GTSI" xr:uid="{ABE77C3B-FC3D-479A-BF1E-D6DF55F2E65A}"/>
-    <hyperlink ref="A522" r:id="rId521" display="https://stockbit.com/symbol/MTMH" xr:uid="{8C24C6A9-C240-4E25-B6B4-059A4C1EF399}"/>
-    <hyperlink ref="A523" r:id="rId522" display="https://stockbit.com/symbol/ARCI" xr:uid="{997A9702-0698-4139-AC91-A9D369892C2C}"/>
-    <hyperlink ref="A524" r:id="rId523" display="https://stockbit.com/symbol/BSBK" xr:uid="{AC76A8AB-9F51-4ADF-8C85-8BD90337FF7C}"/>
-    <hyperlink ref="A525" r:id="rId524" display="https://stockbit.com/symbol/ABMM" xr:uid="{97917F9B-6508-486E-B16B-BDD7765A74FF}"/>
-    <hyperlink ref="A526" r:id="rId525" display="https://stockbit.com/symbol/DLTA" xr:uid="{272CD971-07C0-47A4-8DE9-6C4C6ABECEC3}"/>
-    <hyperlink ref="A527" r:id="rId526" display="https://stockbit.com/symbol/VOKS" xr:uid="{C7AD96CC-0A62-41B2-B7BE-49763A755549}"/>
-    <hyperlink ref="A528" r:id="rId527" display="https://stockbit.com/symbol/LMSH" xr:uid="{5880DCD4-9A5C-4CA0-946C-ACA4DC5001A9}"/>
-    <hyperlink ref="A529" r:id="rId528" display="https://stockbit.com/symbol/CMNP" xr:uid="{24F974EC-C03A-4773-9DD9-08320AA47F32}"/>
-    <hyperlink ref="A530" r:id="rId529" display="https://stockbit.com/symbol/DAAZ" xr:uid="{87D6D573-4645-4F0F-8FD8-817D04137950}"/>
-    <hyperlink ref="A531" r:id="rId530" display="https://stockbit.com/symbol/POLL" xr:uid="{1AE607BB-0EFF-4221-8FCE-4C67AD89807F}"/>
-    <hyperlink ref="A532" r:id="rId531" display="https://stockbit.com/symbol/ELPI" xr:uid="{97056A5D-8CA6-4A69-9F5A-E3392B7F7FAD}"/>
-    <hyperlink ref="A533" r:id="rId532" display="https://stockbit.com/symbol/MINE" xr:uid="{DA3D09D8-DA0A-4244-8B01-347479CA9D08}"/>
-    <hyperlink ref="A534" r:id="rId533" display="https://stockbit.com/symbol/PDPP" xr:uid="{DE1F9AD5-3C17-440E-9334-624E4C14BD5C}"/>
-    <hyperlink ref="A535" r:id="rId534" display="https://stockbit.com/symbol/KSIX" xr:uid="{57B86284-62B5-4E51-AAFC-EE1386CFD8A6}"/>
-    <hyperlink ref="A536" r:id="rId535" display="https://stockbit.com/symbol/SAMF" xr:uid="{E47EC2CF-3537-4EBE-BE78-7EF480B403E0}"/>
-    <hyperlink ref="A537" r:id="rId536" display="https://stockbit.com/symbol/DGWG" xr:uid="{559A2F11-1693-4262-AFC6-A599D428120B}"/>
-    <hyperlink ref="A538" r:id="rId537" display="https://stockbit.com/symbol/NEST" xr:uid="{1DA72E04-B0F7-493D-8AB3-A2113361A8A7}"/>
-    <hyperlink ref="A539" r:id="rId538" display="https://stockbit.com/symbol/OBAT" xr:uid="{D389C522-B613-4417-BDCE-6072725A8A1C}"/>
-    <hyperlink ref="A540" r:id="rId539" display="https://stockbit.com/symbol/TMAS" xr:uid="{CCDB5FDC-6DCC-4D21-B3E4-15FCB1FDBB7F}"/>
-    <hyperlink ref="A541" r:id="rId540" display="https://stockbit.com/symbol/MPRO" xr:uid="{D1CAD37A-3CE9-42B4-A471-0D1E1C4C0E9A}"/>
-    <hyperlink ref="A542" r:id="rId541" display="https://stockbit.com/symbol/MYOR" xr:uid="{6E59834A-ED4F-495E-AABB-11F85C6BBF49}"/>
-    <hyperlink ref="A543" r:id="rId542" display="https://stockbit.com/symbol/PURI" xr:uid="{D06B1D98-1761-4907-84BD-81E3DD819BE0}"/>
-    <hyperlink ref="A544" r:id="rId543" display="https://stockbit.com/symbol/VICI" xr:uid="{395ED472-C2DA-480A-9F4A-247B61224884}"/>
-    <hyperlink ref="A545" r:id="rId544" display="https://stockbit.com/symbol/OMED" xr:uid="{8042B2F8-7898-41EF-8879-BE837791140A}"/>
-    <hyperlink ref="A546" r:id="rId545" display="https://stockbit.com/symbol/HRME" xr:uid="{6ABB1B71-1D0E-4280-98FB-75B562FADC58}"/>
-    <hyperlink ref="A547" r:id="rId546" display="https://stockbit.com/symbol/SURI" xr:uid="{7FD430B8-6339-455C-9C9B-DC367C814286}"/>
-    <hyperlink ref="A548" r:id="rId547" display="https://stockbit.com/symbol/NIKL" xr:uid="{E38E48C9-9E20-4734-BD1B-05F9EA33FC2F}"/>
-    <hyperlink ref="A549" r:id="rId548" display="https://stockbit.com/symbol/ULTJ" xr:uid="{A7BCE612-729A-4096-AE54-41F3D5B88644}"/>
-    <hyperlink ref="A550" r:id="rId549" display="https://stockbit.com/symbol/UFOE" xr:uid="{D9E50AB2-DBE6-4BCF-BB30-D08D8CDF08B2}"/>
-    <hyperlink ref="A551" r:id="rId550" display="https://stockbit.com/symbol/MIDI" xr:uid="{664AF9DB-30BB-47FD-835C-F372AD2366D5}"/>
-    <hyperlink ref="A552" r:id="rId551" display="https://stockbit.com/symbol/ASBI" xr:uid="{0A53EF9F-81D0-4F3D-83BF-5078B63BECA9}"/>
-    <hyperlink ref="A553" r:id="rId552" display="https://stockbit.com/symbol/ARTA" xr:uid="{3BA1818E-CA2B-4BA9-A945-DE1D43B57407}"/>
-    <hyperlink ref="A554" r:id="rId553" display="https://stockbit.com/symbol/DATA" xr:uid="{A267A573-9875-4F97-AE07-77CE7261B97C}"/>
-    <hyperlink ref="A555" r:id="rId554" display="https://stockbit.com/symbol/SHID" xr:uid="{E9F6703D-4592-4336-BC29-0293D3642F5F}"/>
-    <hyperlink ref="A556" r:id="rId555" display="https://stockbit.com/symbol/RELI" xr:uid="{A35BF3CA-EAEF-45C2-95DB-3BE8190CE9F9}"/>
-    <hyperlink ref="A557" r:id="rId556" display="https://stockbit.com/symbol/MSTI" xr:uid="{E385719D-B0BF-4CDA-96C3-02BA5A74C88A}"/>
-    <hyperlink ref="A558" r:id="rId557" display="https://stockbit.com/symbol/AVIA" xr:uid="{B949709C-C4E8-4AC6-A1B8-BE6C334AEBDF}"/>
-    <hyperlink ref="A559" r:id="rId558" display="https://stockbit.com/symbol/MGLV" xr:uid="{91D2EE0D-F0C8-4214-B886-4FB530D6044C}"/>
-    <hyperlink ref="A560" r:id="rId559" display="https://stockbit.com/symbol/SOCI" xr:uid="{B6515BB5-A61C-4D3F-8245-0A0A02E6DA36}"/>
-    <hyperlink ref="A561" r:id="rId560" display="https://stockbit.com/symbol/UNVR" xr:uid="{7C32DCB3-744D-4EF0-ACB9-33C1239156DE}"/>
-    <hyperlink ref="A562" r:id="rId561" display="https://stockbit.com/symbol/MTEL" xr:uid="{AC5A5C3C-176B-4AC8-8B70-B721EF454B79}"/>
-    <hyperlink ref="A563" r:id="rId562" display="https://stockbit.com/symbol/UANG" xr:uid="{024D2B08-9567-4182-BFC4-F26C58089592}"/>
-    <hyperlink ref="A564" r:id="rId563" display="https://stockbit.com/symbol/GDYR" xr:uid="{D50C4CE0-9C0A-4FEB-B917-3A900D85E787}"/>
-    <hyperlink ref="A565" r:id="rId564" display="https://stockbit.com/symbol/PBID" xr:uid="{9BC4BE7C-B653-4D92-8A44-9C2CDFB8E2E6}"/>
-    <hyperlink ref="A566" r:id="rId565" display="https://stockbit.com/symbol/NISP" xr:uid="{AFDC4C86-2CBC-4B4E-A566-AAF503D20A36}"/>
-    <hyperlink ref="A567" r:id="rId566" display="https://stockbit.com/symbol/ASDM" xr:uid="{0B3B3D34-45A6-410F-875A-99BDF042DFB1}"/>
-    <hyperlink ref="A568" r:id="rId567" display="https://stockbit.com/symbol/PSAT" xr:uid="{7714DBA0-7ABA-405C-BC1F-054FFB28A9EC}"/>
-    <hyperlink ref="A569" r:id="rId568" display="https://stockbit.com/symbol/IPOL" xr:uid="{B7B812FC-1CB3-472C-9806-56B4AAC574FC}"/>
-    <hyperlink ref="A570" r:id="rId569" display="https://stockbit.com/symbol/BIMA" xr:uid="{20DFC93D-20F6-46A4-9691-1C4495084AA6}"/>
-    <hyperlink ref="A571" r:id="rId570" display="https://stockbit.com/symbol/POWR" xr:uid="{6F095746-258A-4DA8-8E31-2E63B1D61CF3}"/>
-    <hyperlink ref="A572" r:id="rId571" display="https://stockbit.com/symbol/ADMG" xr:uid="{B3F6E90E-A942-4AA8-9DB6-626F9EFBC46D}"/>
-    <hyperlink ref="A573" r:id="rId572" display="https://stockbit.com/symbol/BUAH" xr:uid="{586E6728-1D68-4BC2-A21E-0B3A23678FC7}"/>
-    <hyperlink ref="A574" r:id="rId573" display="https://stockbit.com/symbol/GRPM" xr:uid="{0F830019-CC87-4BD6-A560-C83F77192DCA}"/>
-    <hyperlink ref="A575" r:id="rId574" display="https://stockbit.com/symbol/HATM" xr:uid="{AFE88BD5-72D8-45CD-9D91-24A618816F3F}"/>
-    <hyperlink ref="A576" r:id="rId575" display="https://stockbit.com/symbol/GHON" xr:uid="{9990F590-2D6B-4218-8904-5D80CD232BE8}"/>
-    <hyperlink ref="A577" r:id="rId576" display="https://stockbit.com/symbol/ALDO" xr:uid="{EC013EF9-CC4C-4358-B2FB-C76A511F51D3}"/>
-    <hyperlink ref="A578" r:id="rId577" display="https://stockbit.com/symbol/WGSH" xr:uid="{95BBE4FD-2EE0-4767-B541-FBD880208267}"/>
-    <hyperlink ref="A579" r:id="rId578" display="https://stockbit.com/symbol/ABDA" xr:uid="{D7E4199D-491A-46E2-8AB4-0FAF76BD8AAD}"/>
-    <hyperlink ref="A580" r:id="rId579" display="https://stockbit.com/symbol/AMFG" xr:uid="{F616D724-9B9E-40BA-9417-23D56D468DC5}"/>
-    <hyperlink ref="A581" r:id="rId580" display="https://stockbit.com/symbol/AGRO" xr:uid="{1C6A8F0A-91B6-421B-AEB9-55C2F88E4DE0}"/>
-    <hyperlink ref="A582" r:id="rId581" display="https://stockbit.com/symbol/CEKA" xr:uid="{D5DF5B6F-65AD-48CC-B26C-FC1DE8A5EE86}"/>
-    <hyperlink ref="A583" r:id="rId582" display="https://stockbit.com/symbol/SCMA" xr:uid="{C2C340E4-84FD-4AB5-91F2-58346B2F4CFB}"/>
-    <hyperlink ref="A584" r:id="rId583" display="https://stockbit.com/symbol/BABP" xr:uid="{DF0C22BB-7479-4701-9BCA-626E672D68A0}"/>
-    <hyperlink ref="A585" r:id="rId584" display="https://stockbit.com/symbol/CBDK" xr:uid="{566A2155-0CF5-4DFE-9DA3-B4CC33D39A63}"/>
-    <hyperlink ref="A586" r:id="rId585" display="https://stockbit.com/symbol/MERK" xr:uid="{CE04B962-3B1B-4CC9-AB05-AC0300505652}"/>
-    <hyperlink ref="A587" r:id="rId586" display="https://stockbit.com/symbol/MGRO" xr:uid="{19FA5F8A-CEFA-4F4C-A007-E3D9852E222F}"/>
-    <hyperlink ref="A588" r:id="rId587" display="https://stockbit.com/symbol/ECII" xr:uid="{8C4E9226-2DC4-472B-B6EF-5DED7F022A80}"/>
-    <hyperlink ref="A589" r:id="rId588" display="https://stockbit.com/symbol/CLEO" xr:uid="{FFF64AB5-2B79-4E9D-BD9F-496357EEA724}"/>
-    <hyperlink ref="A590" r:id="rId589" display="https://stockbit.com/symbol/INDO" xr:uid="{BBDFE7C8-9DDC-4E3E-B30F-42BE7E93DA73}"/>
-    <hyperlink ref="A591" r:id="rId590" display="https://stockbit.com/symbol/SCNP" xr:uid="{53ADF382-4B98-4A62-A6CE-EEDAE76E7775}"/>
-    <hyperlink ref="A592" r:id="rId591" display="https://stockbit.com/symbol/BREN" xr:uid="{DB5984C0-5EAF-489B-8BF8-B1887205D51C}"/>
-    <hyperlink ref="A593" r:id="rId592" display="https://stockbit.com/symbol/TAPG" xr:uid="{CC020DA6-7A66-4FDD-9BD4-7968A78A3E91}"/>
-    <hyperlink ref="A594" r:id="rId593" display="https://stockbit.com/symbol/TRIS" xr:uid="{21471E73-3063-4AEF-BA29-2F50720EDDAF}"/>
-    <hyperlink ref="A595" r:id="rId594" display="https://stockbit.com/symbol/KDSI" xr:uid="{0C0B9BAA-1FDF-4288-87A7-646BB0D1F70E}"/>
-    <hyperlink ref="A596" r:id="rId595" display="https://stockbit.com/symbol/IPCM" xr:uid="{0049BE7E-57C4-4663-8B52-3FF6400FADBA}"/>
-    <hyperlink ref="A597" r:id="rId596" display="https://stockbit.com/symbol/FMII" xr:uid="{736BB05C-E7AB-4A98-A089-E3510931CEB8}"/>
-    <hyperlink ref="A598" r:id="rId597" display="https://stockbit.com/symbol/SKBM" xr:uid="{770613BB-E131-4D67-9218-B84CCE9A0EF6}"/>
-    <hyperlink ref="A599" r:id="rId598" display="https://stockbit.com/symbol/KDTN" xr:uid="{9CBD9C23-4748-4E2A-9FDF-B647CAF96726}"/>
-    <hyperlink ref="A600" r:id="rId599" display="https://stockbit.com/symbol/INAF" xr:uid="{7A5F26AB-33A6-4D71-9384-45DBE698452E}"/>
-    <hyperlink ref="A601" r:id="rId600" display="https://stockbit.com/symbol/BLUE" xr:uid="{D0C24540-2B47-47EA-9E8E-2D17AC6F8259}"/>
-    <hyperlink ref="A602" r:id="rId601" display="https://stockbit.com/symbol/ADMR" xr:uid="{718A6B61-1B72-4B45-B12A-1D81B2CADFAF}"/>
-    <hyperlink ref="A603" r:id="rId602" display="https://stockbit.com/symbol/NETV" xr:uid="{A7668962-E6AB-4A6C-892E-E3E2C7CA2406}"/>
-    <hyperlink ref="A604" r:id="rId603" display="https://stockbit.com/symbol/ALKA" xr:uid="{227154A2-8116-4995-9AD2-B2372A3F884E}"/>
-    <hyperlink ref="A605" r:id="rId604" display="https://stockbit.com/symbol/PNBN" xr:uid="{E1A3B440-E5EA-49D9-91AC-6B7A03C3D7CD}"/>
-    <hyperlink ref="A606" r:id="rId605" display="https://stockbit.com/symbol/SMKL" xr:uid="{9CD7A873-8288-444B-8278-325F5FF2F78C}"/>
-    <hyperlink ref="A607" r:id="rId606" display="https://stockbit.com/symbol/SKRN" xr:uid="{56509169-66D3-4CA4-AF0A-68C44FF461C8}"/>
-    <hyperlink ref="A608" r:id="rId607" display="https://stockbit.com/symbol/INPS" xr:uid="{42796FFF-6D6B-4CB2-896C-EB8C3F59B12D}"/>
-    <hyperlink ref="A609" r:id="rId608" display="https://stockbit.com/symbol/PBSA" xr:uid="{A232BDBC-6679-4E60-A2FB-EBDF1377A7B3}"/>
-    <hyperlink ref="A610" r:id="rId609" display="https://stockbit.com/symbol/AWAN" xr:uid="{3DEBCA35-8746-4D01-9DC2-CD06B3260177}"/>
-    <hyperlink ref="A611" r:id="rId610" display="https://stockbit.com/symbol/RANC" xr:uid="{B797A99C-5C08-48B7-A4FA-CA0573478C3B}"/>
-    <hyperlink ref="A612" r:id="rId611" display="https://stockbit.com/symbol/CASS" xr:uid="{30736B36-D3CD-4F6A-B1BD-76CD2545B5EB}"/>
-    <hyperlink ref="A613" r:id="rId612" display="https://stockbit.com/symbol/JARR" xr:uid="{807CE620-D853-46AA-9515-5E4368FC455B}"/>
-    <hyperlink ref="A614" r:id="rId613" display="https://stockbit.com/symbol/FORU" xr:uid="{68B7987B-1B75-4239-93FD-96F09AE72C98}"/>
-    <hyperlink ref="A615" r:id="rId614" display="https://stockbit.com/symbol/SMMT" xr:uid="{CCAA0FDB-7776-4C5F-A667-51E80A3D35E9}"/>
-    <hyperlink ref="A616" r:id="rId615" display="https://stockbit.com/symbol/PSGO" xr:uid="{F1A5313A-A5F3-48A1-9837-8FC198120208}"/>
-    <hyperlink ref="A617" r:id="rId616" display="https://stockbit.com/symbol/HILL" xr:uid="{30D2530D-C478-46E0-8822-FCAB5BABECAC}"/>
-    <hyperlink ref="A618" r:id="rId617" display="https://stockbit.com/symbol/POLU" xr:uid="{AAC2677A-522F-4F2E-A36B-0E864DB74520}"/>
-    <hyperlink ref="A619" r:id="rId618" display="https://stockbit.com/symbol/HELI" xr:uid="{6C2A540A-2D71-4813-B3E0-95C4C203C7C6}"/>
-    <hyperlink ref="A620" r:id="rId619" display="https://stockbit.com/symbol/APLN" xr:uid="{3F4DDB16-9767-4FED-A00C-61A2149B02C7}"/>
-    <hyperlink ref="A621" r:id="rId620" display="https://stockbit.com/symbol/CAKK" xr:uid="{C0851F72-2486-4C1E-B8D5-6EEF62014709}"/>
-    <hyperlink ref="A622" r:id="rId621" display="https://stockbit.com/symbol/CTBN" xr:uid="{209CBBCE-9E90-4262-B077-DFA36926C088}"/>
-    <hyperlink ref="A623" r:id="rId622" display="https://stockbit.com/symbol/INTD" xr:uid="{87B01DCE-9CF6-4393-AD8E-FC3AFE863567}"/>
-    <hyperlink ref="A624" r:id="rId623" display="https://stockbit.com/symbol/BUKK" xr:uid="{1FD24640-DCE4-463C-B366-A10C50B5774E}"/>
-    <hyperlink ref="A625" r:id="rId624" display="https://stockbit.com/symbol/MDKI" xr:uid="{D18645B0-99C2-41B1-A9A3-8EFE72D3FD11}"/>
-    <hyperlink ref="A626" r:id="rId625" display="https://stockbit.com/symbol/IMAS" xr:uid="{3A05F07F-052E-4C95-991D-AAB4023D54AE}"/>
-    <hyperlink ref="A627" r:id="rId626" display="https://stockbit.com/symbol/BNII" xr:uid="{9733B2B4-D1AA-47A2-9B34-933A9AF3ECB2}"/>
-    <hyperlink ref="A628" r:id="rId627" display="https://stockbit.com/symbol/AMAN" xr:uid="{136E8C70-9BE6-4464-8E71-F7699CB2B69D}"/>
-    <hyperlink ref="A629" r:id="rId628" display="https://stockbit.com/symbol/PGEO" xr:uid="{F8F562AC-71D8-475D-AFAE-2A301588CE35}"/>
-    <hyperlink ref="A630" r:id="rId629" display="https://stockbit.com/symbol/GDST" xr:uid="{B2354C2D-63BE-46F8-A237-098A9E483B62}"/>
-    <hyperlink ref="A631" r:id="rId630" display="https://stockbit.com/symbol/KOPI" xr:uid="{1C39E390-5737-4FB5-8BE9-6B6D2FAEF198}"/>
-    <hyperlink ref="A632" r:id="rId631" display="https://stockbit.com/symbol/TFCO" xr:uid="{F07F18A8-B9C8-4D8A-87B0-AB47B0011B16}"/>
-    <hyperlink ref="A633" r:id="rId632" display="https://stockbit.com/symbol/ATIC" xr:uid="{EDBD04A0-221F-4B33-9756-D21CB74F01A7}"/>
-    <hyperlink ref="A634" r:id="rId633" display="https://stockbit.com/symbol/IGAR" xr:uid="{52E541B4-BCA2-4BED-AC08-C8C43FE1EE78}"/>
-    <hyperlink ref="A635" r:id="rId634" display="https://stockbit.com/symbol/TPIA" xr:uid="{C0B91DA2-45F4-431E-9582-26F71237E5BD}"/>
-    <hyperlink ref="A636" r:id="rId635" display="https://stockbit.com/symbol/HERO" xr:uid="{A7EFE64D-4398-4987-AA5D-E9141F6058ED}"/>
-    <hyperlink ref="A637" r:id="rId636" display="https://stockbit.com/symbol/BMAS" xr:uid="{D15C09B2-B998-4F94-B9B3-1FF4315175DE}"/>
-    <hyperlink ref="A638" r:id="rId637" display="https://stockbit.com/symbol/CMNT" xr:uid="{6D7D702B-FFD1-4271-A2B4-04EC71734AED}"/>
-    <hyperlink ref="A639" r:id="rId638" display="https://stockbit.com/symbol/TRJA" xr:uid="{9D9600B0-19B9-43FA-986E-F0017F27A586}"/>
-    <hyperlink ref="A640" r:id="rId639" display="https://stockbit.com/symbol/BBSS" xr:uid="{F753D78F-FCA2-4CAB-BCC5-7C1307B79552}"/>
-    <hyperlink ref="A641" r:id="rId640" display="https://stockbit.com/symbol/GOLD" xr:uid="{8C323C41-1384-44EF-862A-426D101D8E59}"/>
-    <hyperlink ref="A642" r:id="rId641" display="https://stockbit.com/symbol/NCKL" xr:uid="{0A9C07F3-BE8A-42BB-AB40-74ACE66D63C3}"/>
-    <hyperlink ref="A643" r:id="rId642" display="https://stockbit.com/symbol/GEMS" xr:uid="{404C51AA-E951-4485-A2FC-3EB1CB7BA385}"/>
-    <hyperlink ref="A644" r:id="rId643" display="https://stockbit.com/symbol/NICE" xr:uid="{E1D0E042-EDC1-4011-A145-C74EB17F1E7C}"/>
-    <hyperlink ref="A645" r:id="rId644" display="https://stockbit.com/symbol/DRMA" xr:uid="{899568BF-C688-4E7A-A163-C0E0D3587E5C}"/>
-    <hyperlink ref="A646" r:id="rId645" display="https://stockbit.com/symbol/LCKM" xr:uid="{1E967445-D3A6-4903-B006-D0F05CD5364A}"/>
-    <hyperlink ref="A647" r:id="rId646" display="https://stockbit.com/symbol/KEJU" xr:uid="{5CB9914B-801A-467E-9E79-E8A0A44440AF}"/>
-    <hyperlink ref="A648" r:id="rId647" display="https://stockbit.com/symbol/GLOB" xr:uid="{227D51BA-6F03-44E4-96DC-29E23AB6E88C}"/>
-    <hyperlink ref="A649" r:id="rId648" display="https://stockbit.com/symbol/RODA" xr:uid="{2E386BFE-4FC8-4EAF-95FE-EB9848386E3F}"/>
-    <hyperlink ref="A650" r:id="rId649" display="https://stockbit.com/symbol/BTON" xr:uid="{DB45D006-2B35-4A3B-9129-35F4148E99FE}"/>
-    <hyperlink ref="A651" r:id="rId650" display="https://stockbit.com/symbol/KOCI" xr:uid="{7DBD0680-513D-442C-B1DC-946269B4B74E}"/>
-    <hyperlink ref="A652" r:id="rId651" display="https://stockbit.com/symbol/BPFI" xr:uid="{0625A902-41F8-45FD-9923-C185717FBA98}"/>
-    <hyperlink ref="A653" r:id="rId652" display="https://stockbit.com/symbol/KAEF" xr:uid="{DD6C1250-4080-4F96-A91F-A329FCE2C7E1}"/>
-    <hyperlink ref="A654" r:id="rId653" display="https://stockbit.com/symbol/BPII" xr:uid="{9FDD42E7-1CA5-4B2D-BB74-090C401C9F62}"/>
-    <hyperlink ref="A655" r:id="rId654" display="https://stockbit.com/symbol/MTSM" xr:uid="{46DE0D28-C517-48A3-8ED4-5DF1A8A57699}"/>
-    <hyperlink ref="A656" r:id="rId655" display="https://stockbit.com/symbol/AMAG" xr:uid="{BEC91476-694A-469C-A3A1-54FACAB3E665}"/>
-    <hyperlink ref="A657" r:id="rId656" display="https://stockbit.com/symbol/IFSH" xr:uid="{1E50FAB2-DE43-4C44-B23F-C4697FBF90FD}"/>
-    <hyperlink ref="A658" r:id="rId657" display="https://stockbit.com/symbol/BOLT" xr:uid="{D3042A95-C183-474B-9811-292F3D26430B}"/>
-    <hyperlink ref="A659" r:id="rId658" display="https://stockbit.com/symbol/GOLF" xr:uid="{234388CF-BCAA-4117-BA68-8AE3601DD628}"/>
-    <hyperlink ref="A660" r:id="rId659" display="https://stockbit.com/symbol/MDIA" xr:uid="{BF9FAF8C-711A-404B-8BFF-8EC7C3FE3771}"/>
-    <hyperlink ref="A661" r:id="rId660" display="https://stockbit.com/symbol/ADCP" xr:uid="{C4D41F9C-CC0A-4229-8805-525FFBE19A91}"/>
-    <hyperlink ref="A662" r:id="rId661" display="https://stockbit.com/symbol/YUPI" xr:uid="{7C586678-6A8B-4795-8077-15172755DA23}"/>
-    <hyperlink ref="A663" r:id="rId662" display="https://stockbit.com/symbol/PTSN" xr:uid="{DDB6159B-6B0A-4383-9624-F4B6BECFF27E}"/>
-    <hyperlink ref="A664" r:id="rId663" display="https://stockbit.com/symbol/BEEF" xr:uid="{14233A75-6506-4A43-99A3-6C9A3B2D7344}"/>
-    <hyperlink ref="A665" r:id="rId664" display="https://stockbit.com/symbol/KINO" xr:uid="{F9614375-7873-4C37-A723-576A8FC48BC8}"/>
-    <hyperlink ref="A666" r:id="rId665" display="https://stockbit.com/symbol/BNLI" xr:uid="{15368AD6-1E52-41DC-BF75-F427A07721B8}"/>
-    <hyperlink ref="A667" r:id="rId666" display="https://stockbit.com/symbol/CDIA" xr:uid="{3269A430-2902-4F4A-8281-9E6EBAA9BA71}"/>
-    <hyperlink ref="A668" r:id="rId667" display="https://stockbit.com/symbol/SRTG" xr:uid="{3966C961-4D76-48CA-91DC-9F95C61DA388}"/>
-    <hyperlink ref="A669" r:id="rId668" display="https://stockbit.com/symbol/TBMS" xr:uid="{56EC648A-1BFB-4A62-80B1-9585559CBB92}"/>
-    <hyperlink ref="A670" r:id="rId669" display="https://stockbit.com/symbol/LION" xr:uid="{A11F9C02-D84A-4CCF-8181-F213FFA8D090}"/>
-    <hyperlink ref="A671" r:id="rId670" display="https://stockbit.com/symbol/BBHI" xr:uid="{06A1A44D-90FB-4096-B600-8EC167B69233}"/>
-    <hyperlink ref="A672" r:id="rId671" display="https://stockbit.com/symbol/PUDP" xr:uid="{9D9EA129-F270-4348-A079-1E9E39AECDB4}"/>
-    <hyperlink ref="A673" r:id="rId672" display="https://stockbit.com/symbol/MBAP" xr:uid="{59851901-8759-49C4-AE8D-E9106463B912}"/>
-    <hyperlink ref="A674" r:id="rId673" display="https://stockbit.com/symbol/KOBX" xr:uid="{E8AAF2BD-AB69-42AD-8557-F455153CC444}"/>
-    <hyperlink ref="A675" r:id="rId674" display="https://stockbit.com/symbol/JRPT" xr:uid="{B3DBFEC8-C610-41A2-B4F8-DA2F1CA3AD8C}"/>
-    <hyperlink ref="A676" r:id="rId675" display="https://stockbit.com/symbol/MLPT" xr:uid="{763B888D-0820-4936-ACF1-B4DF060A014C}"/>
-    <hyperlink ref="A677" r:id="rId676" display="https://stockbit.com/symbol/PTPW" xr:uid="{20E010EA-C945-48D2-BAD1-DB5FF97F26BE}"/>
-    <hyperlink ref="A678" r:id="rId677" display="https://stockbit.com/symbol/MLBI" xr:uid="{E6AFE602-94C2-48B7-882F-06B4E6D0ADC1}"/>
-    <hyperlink ref="A679" r:id="rId678" display="https://stockbit.com/symbol/BPTR" xr:uid="{8A3F2F51-9AFF-4A8A-B91B-A44E4BE15D49}"/>
-    <hyperlink ref="A680" r:id="rId679" display="https://stockbit.com/symbol/CAMP" xr:uid="{F0F5C678-0615-41E7-9860-B1E94C59A3E6}"/>
-    <hyperlink ref="A681" r:id="rId680" display="https://stockbit.com/symbol/TSPC" xr:uid="{BEF41B9E-25A5-4259-9751-1D5D0708524A}"/>
-    <hyperlink ref="A682" r:id="rId681" display="https://stockbit.com/symbol/IPAC" xr:uid="{4257F16F-20A4-47B7-93FC-993BEFEC8B91}"/>
-    <hyperlink ref="A683" r:id="rId682" display="https://stockbit.com/symbol/KOIN" xr:uid="{69F638AE-C9D3-464B-9D54-2E6FE4D13D4D}"/>
-    <hyperlink ref="A684" r:id="rId683" display="https://stockbit.com/symbol/ENAK" xr:uid="{9ED3F568-17B9-43D6-9C66-7B053BE8E566}"/>
-    <hyperlink ref="A685" r:id="rId684" display="https://stockbit.com/symbol/GMTD" xr:uid="{8241988A-8178-4AD0-919A-B2ADEA4362C1}"/>
-    <hyperlink ref="A686" r:id="rId685" display="https://stockbit.com/symbol/LPCK" xr:uid="{A969A798-0127-4D4F-AF3D-72AA8B1C809B}"/>
-    <hyperlink ref="A687" r:id="rId686" display="https://stockbit.com/symbol/MOLI" xr:uid="{4BCDF97F-7617-4673-8B03-04F5D39AD069}"/>
-    <hyperlink ref="A688" r:id="rId687" display="https://stockbit.com/symbol/SKLT" xr:uid="{A30E8F3B-7DCD-4C19-B2C3-06DC76047469}"/>
-    <hyperlink ref="A689" r:id="rId688" display="https://stockbit.com/symbol/IDPR" xr:uid="{57859552-FAE9-4626-83BE-189F46E97B1C}"/>
-    <hyperlink ref="A690" r:id="rId689" display="https://stockbit.com/symbol/BRIS" xr:uid="{CC8392C2-5317-4A09-9AB9-162376B0DD07}"/>
-    <hyperlink ref="A691" r:id="rId690" display="https://stockbit.com/symbol/KLIN" xr:uid="{3431279E-DE9F-4BC0-9D8D-7C51181DB5BA}"/>
-    <hyperlink ref="A692" r:id="rId691" display="https://stockbit.com/symbol/CCSI" xr:uid="{96E5C8A4-408F-4D35-BE37-8918E0F13A83}"/>
-    <hyperlink ref="A693" r:id="rId692" display="https://stockbit.com/symbol/URBN" xr:uid="{AEF55144-633E-4577-8AF5-2DDFE2974AA5}"/>
-    <hyperlink ref="A694" r:id="rId693" display="https://stockbit.com/symbol/SIPD" xr:uid="{B253FA89-A0D7-4DA9-A818-87DC56612D0D}"/>
-    <hyperlink ref="A695" r:id="rId694" display="https://stockbit.com/symbol/KBLM" xr:uid="{9875C79E-E4FD-479B-B2B9-7A648707F87D}"/>
-    <hyperlink ref="A696" r:id="rId695" display="https://stockbit.com/symbol/SCCO" xr:uid="{ADEEFB16-3F3D-48A2-8BDC-DA1D7F238962}"/>
-    <hyperlink ref="A697" r:id="rId696" display="https://stockbit.com/symbol/SOHO" xr:uid="{5648DC23-5CA6-4463-9A04-12B988F3B5E8}"/>
-    <hyperlink ref="A698" r:id="rId697" display="https://stockbit.com/symbol/DNET" xr:uid="{F30FB0A0-08F7-4E7E-85B3-0B558E043275}"/>
-    <hyperlink ref="A699" r:id="rId698" display="https://stockbit.com/symbol/CBUT" xr:uid="{1BCD7D41-50F0-4495-801E-43DEFB244371}"/>
-    <hyperlink ref="A700" r:id="rId699" display="https://stockbit.com/symbol/BBMD" xr:uid="{9325CA42-14EC-49C7-8A14-FD02B09BAB5F}"/>
-    <hyperlink ref="A701" r:id="rId700" display="https://stockbit.com/symbol/BLTZ" xr:uid="{FA72DD8A-E9ED-4761-AC44-747F23475A06}"/>
-    <hyperlink ref="A702" r:id="rId701" display="https://stockbit.com/symbol/WIKA" xr:uid="{1FFB0A75-D73C-4DCD-ADE6-E402BBC2C80E}"/>
-    <hyperlink ref="A703" r:id="rId702" display="https://stockbit.com/symbol/SAPX" xr:uid="{CE148DC0-0D04-41CD-B051-1498AD0F8548}"/>
-    <hyperlink ref="A704" r:id="rId703" display="https://stockbit.com/symbol/BBRM" xr:uid="{E58A0860-C183-4615-B301-85E859E6AE48}"/>
-    <hyperlink ref="A705" r:id="rId704" display="https://stockbit.com/symbol/YPAS" xr:uid="{BA469E5B-B0AC-4C17-AAE2-20652C3D5FAE}"/>
-    <hyperlink ref="A706" r:id="rId705" display="https://stockbit.com/symbol/ASRM" xr:uid="{81453A21-F7FF-4F6B-A98C-BC4F4948E74D}"/>
-    <hyperlink ref="A707" r:id="rId706" display="https://stockbit.com/symbol/HITS" xr:uid="{42C6594B-C486-4F5B-A2F7-CEE901ACBA0D}"/>
-    <hyperlink ref="A708" r:id="rId707" display="https://stockbit.com/symbol/INPP" xr:uid="{17F21755-8452-4EF7-841A-7D0A14303EC6}"/>
-    <hyperlink ref="A709" r:id="rId708" display="https://stockbit.com/symbol/AMOR" xr:uid="{88D27441-2E79-4376-AF9D-731BF6DBBA29}"/>
-    <hyperlink ref="A710" r:id="rId709" display="https://stockbit.com/symbol/MASB" xr:uid="{8C429D42-2B95-4C18-B636-7B15D83B2941}"/>
-    <hyperlink ref="A711" r:id="rId710" display="https://stockbit.com/symbol/ACST" xr:uid="{9EA29379-96BE-4431-900B-D6205A2D7938}"/>
-    <hyperlink ref="A712" r:id="rId711" display="https://stockbit.com/symbol/BSSR" xr:uid="{D9E2A135-A0FC-4C63-916B-A847BFB9F3BB}"/>
-    <hyperlink ref="A713" r:id="rId712" display="https://stockbit.com/symbol/FISH" xr:uid="{B0F16097-6C1D-418C-886F-2B27A08480E0}"/>
-    <hyperlink ref="A714" r:id="rId713" display="https://stockbit.com/symbol/MMLP" xr:uid="{B17028E6-AC30-43A9-BFF0-F6A98271EBF7}"/>
-    <hyperlink ref="A715" r:id="rId714" display="https://stockbit.com/symbol/PALM" xr:uid="{CABE95EC-58F3-496B-BD19-861E6657195B}"/>
-    <hyperlink ref="A716" r:id="rId715" display="https://stockbit.com/symbol/ADES" xr:uid="{00C3FE49-DCEF-4487-B191-59507B59D687}"/>
-    <hyperlink ref="A717" r:id="rId716" display="https://stockbit.com/symbol/ESTI" xr:uid="{D8EE79B8-DEE8-4706-AABD-FA95835DF020}"/>
-    <hyperlink ref="A718" r:id="rId717" display="https://stockbit.com/symbol/ESTA" xr:uid="{F36A8E3C-9575-4A7A-8204-ABF691CB9757}"/>
-    <hyperlink ref="A719" r:id="rId718" display="https://stockbit.com/symbol/KING" xr:uid="{CEAA8891-6D4C-4CA5-8308-A3A8EB29CB5E}"/>
-    <hyperlink ref="A720" r:id="rId719" display="https://stockbit.com/symbol/PJAA" xr:uid="{696BE1E3-227E-4217-8D24-BEAD9EC1B4B1}"/>
-    <hyperlink ref="A721" r:id="rId720" display="https://stockbit.com/symbol/JSPT" xr:uid="{218FEFF3-2CD0-4B2A-A098-80F8CBBCD25A}"/>
-    <hyperlink ref="A722" r:id="rId721" display="https://stockbit.com/symbol/JECC" xr:uid="{1281869E-D1C8-42B9-81C8-A409EF619922}"/>
-    <hyperlink ref="A723" r:id="rId722" display="https://stockbit.com/symbol/SDRA" xr:uid="{3676D76B-4499-4B5D-A71E-CAE052412A0B}"/>
-    <hyperlink ref="A724" r:id="rId723" display="https://stockbit.com/symbol/TALF" xr:uid="{54AE88F5-6BF2-48C8-A43F-9BCC030507D7}"/>
-    <hyperlink ref="A725" r:id="rId724" display="https://stockbit.com/symbol/BNBA" xr:uid="{1E0F5BAD-CD7A-4F2F-80F5-DC3354AA5D3E}"/>
-    <hyperlink ref="A726" r:id="rId725" display="https://stockbit.com/symbol/IMJS" xr:uid="{C9867CA0-317C-47A4-BF76-F87663DA002A}"/>
-    <hyperlink ref="A727" r:id="rId726" display="https://stockbit.com/symbol/TBIG" xr:uid="{08168F7C-5651-4385-8B01-F5F22EEA131D}"/>
-    <hyperlink ref="A728" r:id="rId727" display="https://stockbit.com/symbol/GGRP" xr:uid="{5C065716-AA86-4177-949F-B6A74812F823}"/>
-    <hyperlink ref="A729" r:id="rId728" display="https://stockbit.com/symbol/IFII" xr:uid="{ADB13783-ABDA-4C6F-99EC-E0D23708EA32}"/>
-    <hyperlink ref="A730" r:id="rId729" display="https://stockbit.com/symbol/CNMA" xr:uid="{31C0573D-5E41-44A2-92CC-CE165689DC0F}"/>
-    <hyperlink ref="A731" r:id="rId730" display="https://stockbit.com/symbol/PSDN" xr:uid="{4999CCEC-73DD-4231-9823-2192A16D63A7}"/>
-    <hyperlink ref="A732" r:id="rId731" display="https://stockbit.com/symbol/PRAY" xr:uid="{D4956A3E-5388-41D3-92FC-6D664902D487}"/>
-    <hyperlink ref="A733" r:id="rId732" display="https://stockbit.com/symbol/EDGE" xr:uid="{4131085F-DE4B-40C7-8ABF-2842518091F2}"/>
-    <hyperlink ref="A734" r:id="rId733" display="https://stockbit.com/symbol/PNSE" xr:uid="{3C1CB5AC-D44D-486E-BA42-B58949C6019C}"/>
-    <hyperlink ref="A735" r:id="rId734" display="https://stockbit.com/symbol/MAPB" xr:uid="{8EADA8D4-9026-4CC6-A41B-F84134999160}"/>
-    <hyperlink ref="A736" r:id="rId735" display="https://stockbit.com/symbol/BTPN" xr:uid="{27F6DCF2-2587-42FE-AD1C-04D99D8ACDA8}"/>
-    <hyperlink ref="A737" r:id="rId736" display="https://stockbit.com/symbol/BELL" xr:uid="{54C6FC6E-9470-4174-918C-6D16FDA9C004}"/>
-    <hyperlink ref="A738" r:id="rId737" display="https://stockbit.com/symbol/GIAA" xr:uid="{C0FAE6D1-8656-4653-B76A-43EEFD1350BA}"/>
-    <hyperlink ref="A739" r:id="rId738" display="https://stockbit.com/symbol/APLI" xr:uid="{15AAAF71-0D15-438F-8749-7C2BA85BF3DC}"/>
-    <hyperlink ref="A740" r:id="rId739" display="https://stockbit.com/symbol/INDS" xr:uid="{1AE8C906-8E61-4E3C-B3BF-CB3703A16483}"/>
-    <hyperlink ref="A741" r:id="rId740" display="https://stockbit.com/symbol/DMND" xr:uid="{47DB3A09-41C7-4896-87BD-8C5F61FD4AB7}"/>
-    <hyperlink ref="A742" r:id="rId741" display="https://stockbit.com/symbol/DVLA" xr:uid="{FB60438C-320D-42BD-9311-B240EA7F578B}"/>
-    <hyperlink ref="A743" r:id="rId742" display="https://stockbit.com/symbol/BCIC" xr:uid="{74DDD230-4BA0-4FC7-B876-F80A0B373917}"/>
-    <hyperlink ref="A744" r:id="rId743" display="https://stockbit.com/symbol/CITY" xr:uid="{E5D78436-7AA9-4D36-A23A-0E54ABBE5A34}"/>
-    <hyperlink ref="A745" r:id="rId744" display="https://stockbit.com/symbol/CENT" xr:uid="{3405F10E-B188-4EA2-BEB3-0B6EE37F9715}"/>
-    <hyperlink ref="A746" r:id="rId745" display="https://stockbit.com/symbol/MTWI" xr:uid="{381BC9AD-AE66-4576-8B93-ECFEB18CC85F}"/>
-    <hyperlink ref="A747" r:id="rId746" display="https://stockbit.com/symbol/BLES" xr:uid="{6B055B67-5CEF-4CB0-AD00-01F5D868D794}"/>
-    <hyperlink ref="A748" r:id="rId747" display="https://stockbit.com/symbol/SURE" xr:uid="{C6301129-3684-4295-A079-E113E30DBAF4}"/>
-    <hyperlink ref="A749" r:id="rId748" display="https://stockbit.com/symbol/PNBS" xr:uid="{DC26EF68-07D0-465E-80EB-1EA5495DE0BF}"/>
-    <hyperlink ref="A750" r:id="rId749" display="https://stockbit.com/symbol/CITA" xr:uid="{44C2288A-D7E7-435C-A0A8-5F2E965B72FC}"/>
-    <hyperlink ref="A751" r:id="rId750" display="https://stockbit.com/symbol/CBPE" xr:uid="{691A5C27-BDEC-4519-A5F2-A9028B9C1093}"/>
-    <hyperlink ref="A752" r:id="rId751" display="https://stockbit.com/symbol/BSWD" xr:uid="{5F728A86-C311-4902-8922-25DAC180D30D}"/>
-    <hyperlink ref="A753" r:id="rId752" display="https://stockbit.com/symbol/AMAR" xr:uid="{6974EE9C-2CC9-45ED-93EA-36DAC63C55C6}"/>
-    <hyperlink ref="A754" r:id="rId753" display="https://stockbit.com/symbol/DAYA" xr:uid="{832A9CDD-0696-451E-B523-EF7CF7F11B56}"/>
-    <hyperlink ref="A755" r:id="rId754" display="https://stockbit.com/symbol/BABY" xr:uid="{0DA849A6-1E2E-4FFE-BFA3-0E4BE665503F}"/>
-    <hyperlink ref="A756" r:id="rId755" display="https://stockbit.com/symbol/IKBI" xr:uid="{68E92290-433B-42CE-8450-520C8B1754E5}"/>
-    <hyperlink ref="A757" r:id="rId756" display="https://stockbit.com/symbol/INDR" xr:uid="{EE9DD6EA-BD90-427F-83FC-10A0110ED05C}"/>
-    <hyperlink ref="A758" r:id="rId757" display="https://stockbit.com/symbol/NELY" xr:uid="{D583664E-BE8D-45F2-9FAE-4E840D3A3EE5}"/>
-    <hyperlink ref="A759" r:id="rId758" display="https://stockbit.com/symbol/SSTM" xr:uid="{B243AE38-12BB-4EFE-8194-1E49806A7B68}"/>
-    <hyperlink ref="A760" r:id="rId759" display="https://stockbit.com/symbol/SILO" xr:uid="{940F253D-727A-46CA-9150-23FAFA1749DC}"/>
-    <hyperlink ref="A761" r:id="rId760" display="https://stockbit.com/symbol/PGUN" xr:uid="{63E1FC2F-E611-4662-B478-8DF1291471E8}"/>
-    <hyperlink ref="A762" r:id="rId761" display="https://stockbit.com/symbol/HDFA" xr:uid="{61D26FA2-DFD6-41AF-A9F3-17688F049BC4}"/>
-    <hyperlink ref="A763" r:id="rId762" display="https://stockbit.com/symbol/ROTI" xr:uid="{F2894120-C806-481E-990D-557A8FE241D8}"/>
-    <hyperlink ref="A764" r:id="rId763" display="https://stockbit.com/symbol/MKPI" xr:uid="{B0C168AE-F09B-4F29-BFE4-17D538F5B6C6}"/>
-    <hyperlink ref="A765" r:id="rId764" display="https://stockbit.com/symbol/LMPI" xr:uid="{C834679D-340E-46D7-9FDD-B87F93894246}"/>
-    <hyperlink ref="A766" r:id="rId765" display="https://stockbit.com/symbol/MSJA" xr:uid="{90A113C7-7089-4F5A-B03B-6598BD4C4EC1}"/>
-    <hyperlink ref="A767" r:id="rId766" display="https://stockbit.com/symbol/SONA" xr:uid="{5E73D8C4-F4BD-4590-8C90-5D61BA71D028}"/>
-    <hyperlink ref="A768" r:id="rId767" display="https://stockbit.com/symbol/CMPP" xr:uid="{C7B784CD-1600-4A7F-8D2F-8CF993CC9047}"/>
-    <hyperlink ref="A769" r:id="rId768" display="https://stockbit.com/symbol/DUTI" xr:uid="{A1DD4BA5-5407-46C3-9F50-769F46BF314C}"/>
-    <hyperlink ref="A770" r:id="rId769" display="https://stockbit.com/symbol/ARGO" xr:uid="{B0B6A86D-FD9A-42F7-8030-53656937FA1E}"/>
-    <hyperlink ref="A771" r:id="rId770" display="https://stockbit.com/symbol/NOBU" xr:uid="{44798FA1-3874-4437-9A93-9C136BB0FB5F}"/>
-    <hyperlink ref="A772" r:id="rId771" display="https://stockbit.com/symbol/AGII" xr:uid="{FDB65C74-B433-4463-9144-F36F57FB314B}"/>
-    <hyperlink ref="A773" r:id="rId772" display="https://stockbit.com/symbol/AGRS" xr:uid="{B6CB230A-AE03-4089-B37C-253C29E3255B}"/>
-    <hyperlink ref="A774" r:id="rId773" display="https://stockbit.com/symbol/SMAR" xr:uid="{2373953E-9F82-4CBB-82DC-4C6474173FBA}"/>
-    <hyperlink ref="A775" r:id="rId774" display="https://stockbit.com/symbol/BKDP" xr:uid="{DDD29D77-4B37-44B9-B9F9-563A278CF9A6}"/>
-    <hyperlink ref="A776" r:id="rId775" display="https://stockbit.com/symbol/BDMN" xr:uid="{F3D7212A-96A9-4883-A05E-257BFAE0C473}"/>
-    <hyperlink ref="A777" r:id="rId776" display="https://stockbit.com/symbol/DNAR" xr:uid="{007A7570-F48C-4E65-A1A6-1547D28EEDB2}"/>
-    <hyperlink ref="A778" r:id="rId777" display="https://stockbit.com/symbol/AKSI" xr:uid="{4FE23E87-5E87-4311-B8C8-D588CCC73CBA}"/>
-    <hyperlink ref="A779" r:id="rId778" display="https://stockbit.com/symbol/GTBO" xr:uid="{FFB63E92-0B26-4998-811D-E001334C3B1E}"/>
-    <hyperlink ref="A780" r:id="rId779" display="https://stockbit.com/symbol/LPGI" xr:uid="{C19C06E6-4FD0-48C9-AC84-C49B2814FF74}"/>
-    <hyperlink ref="A781" r:id="rId780" display="https://stockbit.com/symbol/DEPO" xr:uid="{91D28DBA-E85D-43CD-8D36-88824FDB7827}"/>
-    <hyperlink ref="A782" r:id="rId781" display="https://stockbit.com/symbol/BNGA" xr:uid="{E4EAE58A-6AD4-43A3-BBD7-856FD21552B1}"/>
-    <hyperlink ref="A783" r:id="rId782" display="https://stockbit.com/symbol/MCOL" xr:uid="{88302C8A-87F7-4530-A54F-D9E54385500C}"/>
-    <hyperlink ref="A784" r:id="rId783" display="https://stockbit.com/symbol/SPMA" xr:uid="{66BB3BB9-B247-42AF-8134-AD2C4AD7AC02}"/>
-    <hyperlink ref="A785" r:id="rId784" display="https://stockbit.com/symbol/EPMT" xr:uid="{D4B4017D-9ECA-4505-A244-84AB1889DC9E}"/>
-    <hyperlink ref="A786" r:id="rId785" display="https://stockbit.com/symbol/TOTO" xr:uid="{15CC57CA-1088-4E1F-8DF2-61F12FB6EEF2}"/>
-    <hyperlink ref="A787" r:id="rId786" display="https://stockbit.com/symbol/TGKA" xr:uid="{804D969C-92BC-48FA-A92A-D0EB70CB8400}"/>
-    <hyperlink ref="A788" r:id="rId787" display="https://stockbit.com/symbol/KMTR" xr:uid="{52C92452-112E-4128-AACD-717060DA5091}"/>
-    <hyperlink ref="A789" r:id="rId788" display="https://stockbit.com/symbol/PSAB" xr:uid="{E6649DF5-BC12-4262-9C97-FFE1260BB32D}"/>
-    <hyperlink ref="A790" r:id="rId789" display="https://stockbit.com/symbol/ERTX" xr:uid="{DAA5A4BE-6E48-43F7-B523-193CA625126B}"/>
-    <hyperlink ref="A791" r:id="rId790" display="https://stockbit.com/symbol/VRNA" xr:uid="{1FB84BB2-7A1D-411E-8927-6922C6AEFA9E}"/>
-    <hyperlink ref="A792" r:id="rId791" display="https://stockbit.com/symbol/TLDN" xr:uid="{FDEE802B-BB3F-444C-B49D-08FBA7DB7E78}"/>
-    <hyperlink ref="A793" r:id="rId792" display="https://stockbit.com/symbol/TIFA" xr:uid="{764FFB5A-7581-4FA9-B88B-B0F846BCC3F2}"/>
-    <hyperlink ref="A794" r:id="rId793" display="https://stockbit.com/symbol/DART" xr:uid="{4B2053BD-7423-4612-AB09-E76EE7877124}"/>
-    <hyperlink ref="A795" r:id="rId794" display="https://stockbit.com/symbol/FPNI" xr:uid="{5F4C28A5-5595-4257-9108-4448EC12C215}"/>
-    <hyperlink ref="A796" r:id="rId795" display="https://stockbit.com/symbol/LIFE" xr:uid="{24BA89B6-A695-4315-B6C3-2BE5A86FAE56}"/>
-    <hyperlink ref="A797" r:id="rId796" display="https://stockbit.com/symbol/HMSP" xr:uid="{BA89C270-F218-4E2C-8D35-085BC444D99D}"/>
-    <hyperlink ref="A798" r:id="rId797" display="https://stockbit.com/symbol/JAWA" xr:uid="{B44592E3-9E08-40E6-9785-E168298EE523}"/>
-    <hyperlink ref="A799" r:id="rId798" display="https://stockbit.com/symbol/BKSW" xr:uid="{6309D759-DCF2-4A52-B7CD-603637B9586C}"/>
-    <hyperlink ref="A800" r:id="rId799" display="https://stockbit.com/symbol/WOMF" xr:uid="{C07447D2-154D-4893-B538-4663786F8791}"/>
-    <hyperlink ref="A801" r:id="rId800" display="https://stockbit.com/symbol/PMJS" xr:uid="{FD7B16F3-2FFE-4F20-9408-8C63B7ADE83A}"/>
-    <hyperlink ref="A802" r:id="rId801" display="https://stockbit.com/symbol/VINS" xr:uid="{7920FDF2-B607-4FFE-A47F-0B550D707C5A}"/>
-    <hyperlink ref="A803" r:id="rId802" display="https://stockbit.com/symbol/BINO" xr:uid="{19B829C2-ABE3-4AC2-965F-91B2303E60AE}"/>
-    <hyperlink ref="A804" r:id="rId803" display="https://stockbit.com/symbol/SAFE" xr:uid="{9FBC29C5-90FE-4B5A-8C34-C07F5C250ED5}"/>
-    <hyperlink ref="A805" r:id="rId804" display="https://stockbit.com/symbol/LINK" xr:uid="{71B50EFF-3866-4810-9CCF-FA3C7588BE2D}"/>
-    <hyperlink ref="A806" r:id="rId805" display="https://stockbit.com/symbol/ADMF" xr:uid="{A8E9A1BA-62FD-4F5B-9DF7-4093F1572CBD}"/>
-    <hyperlink ref="A807" r:id="rId806" display="https://stockbit.com/symbol/INRU" xr:uid="{3ED93DE4-0783-4BD1-B1C4-EA870B74022F}"/>
-    <hyperlink ref="A808" r:id="rId807" display="https://stockbit.com/symbol/RSGK" xr:uid="{99C25EA6-F2E6-41AC-9561-3AC96FC85F3F}"/>
-    <hyperlink ref="A809" r:id="rId808" display="https://stockbit.com/symbol/TRIO" xr:uid="{6EB4BEA5-D784-4097-BB3D-E9F20DE204C3}"/>
-    <hyperlink ref="A810" r:id="rId809" display="https://stockbit.com/symbol/VIVA" xr:uid="{BDB39485-B761-4AB2-8C8C-373F12CC98B1}"/>
-    <hyperlink ref="A811" r:id="rId810" display="https://stockbit.com/symbol/WICO" xr:uid="{E38442DE-F572-49D6-99BA-48AE53C9BA45}"/>
-    <hyperlink ref="A812" r:id="rId811" display="https://stockbit.com/symbol/OCAP" xr:uid="{C03D0808-48DA-43E6-B4E0-C1A379976A12}"/>
-    <hyperlink ref="A813" r:id="rId812" display="https://stockbit.com/symbol/SOSS" xr:uid="{2C5248D7-461D-4B42-BA92-CC67F8B559E9}"/>
-    <hyperlink ref="A814" r:id="rId813" display="https://stockbit.com/symbol/GMFI" xr:uid="{F7B7B393-D53C-4501-B79E-4CC9C8897FDC}"/>
-    <hyperlink ref="A815" r:id="rId814" display="https://stockbit.com/symbol/ALMI" xr:uid="{67789062-5D5B-4457-849E-3837BFF854D7}"/>
-    <hyperlink ref="A816" r:id="rId815" display="https://stockbit.com/symbol/PLIN" xr:uid="{161417FB-A970-48D0-959F-9BE61AC4D79F}"/>
-    <hyperlink ref="A817" r:id="rId816" display="https://stockbit.com/symbol/ANJT" xr:uid="{217CC17E-D5BA-47B2-9001-FA8E9E96E082}"/>
-    <hyperlink ref="A818" r:id="rId817" display="https://stockbit.com/symbol/CNTX" xr:uid="{D055ED75-9C14-434F-B69C-1D7C941EEC88}"/>
-    <hyperlink ref="A819" r:id="rId818" display="https://stockbit.com/symbol/SCPI" xr:uid="{2D92E11F-7161-444B-86C9-7138AC016C76}"/>
-    <hyperlink ref="A820" r:id="rId819" display="https://stockbit.com/symbol/SMCB" xr:uid="{776B047E-9195-4C64-8F90-80313247F8BB}"/>
-    <hyperlink ref="A821" r:id="rId820" display="https://stockbit.com/symbol/SMDM" xr:uid="{0F9695F4-EEB9-4F43-AC38-404DDF8351A9}"/>
-    <hyperlink ref="A822" r:id="rId821" display="https://stockbit.com/symbol/META" xr:uid="{C5ED0884-D9BB-4DFC-93B9-0845EC30C9C9}"/>
-    <hyperlink ref="A823" r:id="rId822" display="https://stockbit.com/symbol/MFMI" xr:uid="{FFB7380D-6D0B-4CAA-83F0-36570D583AEC}"/>
-    <hyperlink ref="A824" r:id="rId823" display="https://stockbit.com/symbol/FASW" xr:uid="{163F12D6-BE8D-4C2C-B7F2-2F74DAA267E0}"/>
-    <hyperlink ref="A825" r:id="rId824" display="https://stockbit.com/symbol/SUPR" xr:uid="{4E06BDDE-BED8-46FD-828A-DB208131760E}"/>
-    <hyperlink ref="A826" r:id="rId825" display="https://stockbit.com/symbol/IBST" xr:uid="{B69DCFF6-FD19-4E9C-BD3D-642D5892DF6B}"/>
-    <hyperlink ref="A827" r:id="rId826" display="https://stockbit.com/symbol/TURI" xr:uid="{6A317C0C-EAE5-4CE7-B3CB-01D18B7845A7}"/>
-    <hyperlink ref="A828" r:id="rId827" display="https://stockbit.com/symbol/LCGP" xr:uid="{90C6623F-B564-4967-A518-F48BAEE68B7F}"/>
-    <hyperlink ref="A829" r:id="rId828" display="https://stockbit.com/symbol/CNTB" xr:uid="{D4ABC903-A36C-4D70-8623-8626879B4BD8}"/>
-    <hyperlink ref="A830" r:id="rId829" display="https://stockbit.com/symbol/GOTOM" xr:uid="{6EAF5E9D-B114-48FF-ADED-ADFDF0C5F3E1}"/>
-    <hyperlink ref="A831" r:id="rId830" display="https://stockbit.com/symbol/DUCK" xr:uid="{DC14642F-0124-478B-8CBE-5F40586C18B3}"/>
-    <hyperlink ref="A832" r:id="rId831" display="https://stockbit.com/symbol/JSKY" xr:uid="{7060505E-9003-476B-951B-BBC9BD2DF4AC}"/>
-    <hyperlink ref="A833" r:id="rId832" display="https://stockbit.com/symbol/GREN" xr:uid="{7F6866F5-6127-41DC-B8FF-506536FFDB19}"/>
-    <hyperlink ref="A834" r:id="rId833" display="https://stockbit.com/symbol/MTRA" xr:uid="{BACDEEB1-5F13-4A59-8F05-A722542831D9}"/>
-    <hyperlink ref="A835" r:id="rId834" display="https://stockbit.com/symbol/UNIT" xr:uid="{CF321669-2738-4321-9156-D26544707A9A}"/>
-    <hyperlink ref="A836" r:id="rId835" display="https://stockbit.com/symbol/SKYB" xr:uid="{508B21C0-EDF0-47CF-BFD8-F4422D0CAE6A}"/>
-    <hyperlink ref="A837" r:id="rId836" display="https://stockbit.com/symbol/ETWA" xr:uid="{8040F7A6-8BD9-47DA-A377-584FAD98D240}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId837"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>